--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA4EA83-92E6-4E4E-9F55-EDD5AA7A48D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D137C-F013-4D66-BD62-F495D2A90C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12018,6 +12018,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -12124,84 +12202,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13930,51 +13930,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="300" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="277" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="303" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="283" t="s">
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="285"/>
-      <c r="S1" s="292" t="s">
+      <c r="P1" s="310"/>
+      <c r="Q1" s="310"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="318" t="s">
         <v>652</v>
       </c>
-      <c r="T1" s="293"/>
-      <c r="U1" s="293"/>
-      <c r="V1" s="293"/>
-      <c r="W1" s="293"/>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="294"/>
-      <c r="AA1" s="274" t="s">
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="301"/>
-      <c r="AD1" s="302"/>
-      <c r="AE1" s="302"/>
-      <c r="AF1" s="303"/>
-      <c r="AG1" s="268"/>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AB1" s="302"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="328"/>
+      <c r="AE1" s="328"/>
+      <c r="AF1" s="329"/>
+      <c r="AG1" s="294"/>
+      <c r="AH1" s="295"/>
+      <c r="AI1" s="296"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13982,53 +13982,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="300" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="277" t="s">
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="303" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="287"/>
-      <c r="R2" s="288"/>
-      <c r="S2" s="295"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="296"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="296"/>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="274" t="s">
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="305"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="321"/>
+      <c r="T2" s="322"/>
+      <c r="U2" s="322"/>
+      <c r="V2" s="322"/>
+      <c r="W2" s="322"/>
+      <c r="X2" s="322"/>
+      <c r="Y2" s="322"/>
+      <c r="Z2" s="323"/>
+      <c r="AA2" s="300" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="276"/>
-      <c r="AC2" s="280" t="str">
+      <c r="AB2" s="302"/>
+      <c r="AC2" s="306" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="281"/>
-      <c r="AE2" s="281"/>
-      <c r="AF2" s="282"/>
-      <c r="AG2" s="268" t="str">
+      <c r="AD2" s="307"/>
+      <c r="AE2" s="307"/>
+      <c r="AF2" s="308"/>
+      <c r="AG2" s="294" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="295"/>
+      <c r="AI2" s="296"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -14036,45 +14036,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="300" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="277" t="s">
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="303" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="289"/>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="291"/>
-      <c r="S3" s="298"/>
-      <c r="T3" s="299"/>
-      <c r="U3" s="299"/>
-      <c r="V3" s="299"/>
-      <c r="W3" s="299"/>
-      <c r="X3" s="299"/>
-      <c r="Y3" s="299"/>
-      <c r="Z3" s="300"/>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="276"/>
-      <c r="AC3" s="301"/>
-      <c r="AD3" s="302"/>
-      <c r="AE3" s="302"/>
-      <c r="AF3" s="303"/>
-      <c r="AG3" s="268"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="315"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="316"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="324"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
+      <c r="Y3" s="325"/>
+      <c r="Z3" s="326"/>
+      <c r="AA3" s="300"/>
+      <c r="AB3" s="302"/>
+      <c r="AC3" s="327"/>
+      <c r="AD3" s="328"/>
+      <c r="AE3" s="328"/>
+      <c r="AF3" s="329"/>
+      <c r="AG3" s="294"/>
+      <c r="AH3" s="295"/>
+      <c r="AI3" s="296"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -14111,1176 +14111,1020 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="297" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="272"/>
-      <c r="D7" s="271" t="s">
+      <c r="C7" s="298"/>
+      <c r="D7" s="297" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="273"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="271" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="273"/>
-      <c r="I7" s="272"/>
-      <c r="J7" s="271" t="s">
+      <c r="H7" s="299"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="297" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="273"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="271" t="s">
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="299"/>
+      <c r="N7" s="299"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="298"/>
+      <c r="Q7" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="273"/>
-      <c r="S7" s="273"/>
-      <c r="T7" s="273"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="273"/>
-      <c r="W7" s="273"/>
-      <c r="X7" s="273"/>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="273"/>
-      <c r="AA7" s="273"/>
-      <c r="AB7" s="273"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="273"/>
-      <c r="AE7" s="272"/>
-      <c r="AF7" s="271" t="s">
+      <c r="R7" s="299"/>
+      <c r="S7" s="299"/>
+      <c r="T7" s="299"/>
+      <c r="U7" s="299"/>
+      <c r="V7" s="299"/>
+      <c r="W7" s="299"/>
+      <c r="X7" s="299"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="299"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="299"/>
+      <c r="AE7" s="298"/>
+      <c r="AF7" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="273"/>
-      <c r="AH7" s="273"/>
-      <c r="AI7" s="272"/>
+      <c r="AG7" s="299"/>
+      <c r="AH7" s="299"/>
+      <c r="AI7" s="298"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="316"/>
-      <c r="C8" s="317"/>
-      <c r="D8" s="318"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="320"/>
-      <c r="G8" s="321"/>
-      <c r="H8" s="322"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="323"/>
-      <c r="K8" s="324"/>
-      <c r="L8" s="324"/>
-      <c r="M8" s="324"/>
-      <c r="N8" s="324"/>
-      <c r="O8" s="324"/>
-      <c r="P8" s="325"/>
-      <c r="Q8" s="326"/>
-      <c r="R8" s="327"/>
-      <c r="S8" s="327"/>
-      <c r="T8" s="327"/>
-      <c r="U8" s="327"/>
-      <c r="V8" s="327"/>
-      <c r="W8" s="327"/>
-      <c r="X8" s="327"/>
-      <c r="Y8" s="327"/>
-      <c r="Z8" s="327"/>
-      <c r="AA8" s="327"/>
-      <c r="AB8" s="327"/>
-      <c r="AC8" s="327"/>
-      <c r="AD8" s="327"/>
-      <c r="AE8" s="328"/>
-      <c r="AF8" s="323"/>
-      <c r="AG8" s="324"/>
-      <c r="AH8" s="324"/>
-      <c r="AI8" s="325"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="282"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="289"/>
+      <c r="L8" s="289"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="289"/>
+      <c r="O8" s="289"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="291"/>
+      <c r="R8" s="292"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="292"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="292"/>
+      <c r="Z8" s="292"/>
+      <c r="AA8" s="292"/>
+      <c r="AB8" s="292"/>
+      <c r="AC8" s="292"/>
+      <c r="AD8" s="292"/>
+      <c r="AE8" s="293"/>
+      <c r="AF8" s="288"/>
+      <c r="AG8" s="289"/>
+      <c r="AH8" s="289"/>
+      <c r="AI8" s="290"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="304"/>
-      <c r="C9" s="305"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="307"/>
-      <c r="F9" s="308"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="305"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="312"/>
-      <c r="Q9" s="313"/>
-      <c r="R9" s="314"/>
-      <c r="S9" s="314"/>
-      <c r="T9" s="314"/>
-      <c r="U9" s="314"/>
-      <c r="V9" s="314"/>
-      <c r="W9" s="314"/>
-      <c r="X9" s="314"/>
-      <c r="Y9" s="314"/>
-      <c r="Z9" s="314"/>
-      <c r="AA9" s="314"/>
-      <c r="AB9" s="314"/>
-      <c r="AC9" s="314"/>
-      <c r="AD9" s="314"/>
-      <c r="AE9" s="315"/>
-      <c r="AF9" s="310"/>
-      <c r="AG9" s="311"/>
-      <c r="AH9" s="311"/>
-      <c r="AI9" s="312"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="275"/>
+      <c r="M9" s="275"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="276"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="278"/>
+      <c r="S9" s="278"/>
+      <c r="T9" s="278"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="278"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="278"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="278"/>
+      <c r="AA9" s="278"/>
+      <c r="AB9" s="278"/>
+      <c r="AC9" s="278"/>
+      <c r="AD9" s="278"/>
+      <c r="AE9" s="279"/>
+      <c r="AF9" s="274"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="276"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="304"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="306"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="308"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="310"/>
-      <c r="K10" s="311"/>
-      <c r="L10" s="311"/>
-      <c r="M10" s="311"/>
-      <c r="N10" s="311"/>
-      <c r="O10" s="311"/>
-      <c r="P10" s="312"/>
-      <c r="Q10" s="313"/>
-      <c r="R10" s="314"/>
-      <c r="S10" s="314"/>
-      <c r="T10" s="314"/>
-      <c r="U10" s="314"/>
-      <c r="V10" s="314"/>
-      <c r="W10" s="314"/>
-      <c r="X10" s="314"/>
-      <c r="Y10" s="314"/>
-      <c r="Z10" s="314"/>
-      <c r="AA10" s="314"/>
-      <c r="AB10" s="314"/>
-      <c r="AC10" s="314"/>
-      <c r="AD10" s="314"/>
-      <c r="AE10" s="315"/>
-      <c r="AF10" s="310"/>
-      <c r="AG10" s="311"/>
-      <c r="AH10" s="311"/>
-      <c r="AI10" s="312"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="274"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="275"/>
+      <c r="M10" s="275"/>
+      <c r="N10" s="275"/>
+      <c r="O10" s="275"/>
+      <c r="P10" s="276"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="278"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="278"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="278"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="278"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="278"/>
+      <c r="AC10" s="278"/>
+      <c r="AD10" s="278"/>
+      <c r="AE10" s="279"/>
+      <c r="AF10" s="274"/>
+      <c r="AG10" s="275"/>
+      <c r="AH10" s="275"/>
+      <c r="AI10" s="276"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="304"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="307"/>
-      <c r="F11" s="308"/>
-      <c r="G11" s="304"/>
-      <c r="H11" s="309"/>
-      <c r="I11" s="305"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="311"/>
-      <c r="O11" s="311"/>
-      <c r="P11" s="312"/>
-      <c r="Q11" s="313"/>
-      <c r="R11" s="314"/>
-      <c r="S11" s="314"/>
-      <c r="T11" s="314"/>
-      <c r="U11" s="314"/>
-      <c r="V11" s="314"/>
-      <c r="W11" s="314"/>
-      <c r="X11" s="314"/>
-      <c r="Y11" s="314"/>
-      <c r="Z11" s="314"/>
-      <c r="AA11" s="314"/>
-      <c r="AB11" s="314"/>
-      <c r="AC11" s="314"/>
-      <c r="AD11" s="314"/>
-      <c r="AE11" s="315"/>
-      <c r="AF11" s="310"/>
-      <c r="AG11" s="311"/>
-      <c r="AH11" s="311"/>
-      <c r="AI11" s="312"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="273"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="274"/>
+      <c r="K11" s="275"/>
+      <c r="L11" s="275"/>
+      <c r="M11" s="275"/>
+      <c r="N11" s="275"/>
+      <c r="O11" s="275"/>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="278"/>
+      <c r="U11" s="278"/>
+      <c r="V11" s="278"/>
+      <c r="W11" s="278"/>
+      <c r="X11" s="278"/>
+      <c r="Y11" s="278"/>
+      <c r="Z11" s="278"/>
+      <c r="AA11" s="278"/>
+      <c r="AB11" s="278"/>
+      <c r="AC11" s="278"/>
+      <c r="AD11" s="278"/>
+      <c r="AE11" s="279"/>
+      <c r="AF11" s="274"/>
+      <c r="AG11" s="275"/>
+      <c r="AH11" s="275"/>
+      <c r="AI11" s="276"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="304"/>
-      <c r="C12" s="305"/>
-      <c r="D12" s="306"/>
-      <c r="E12" s="307"/>
-      <c r="F12" s="308"/>
-      <c r="G12" s="304"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="305"/>
-      <c r="J12" s="310"/>
-      <c r="K12" s="311"/>
-      <c r="L12" s="311"/>
-      <c r="M12" s="311"/>
-      <c r="N12" s="311"/>
-      <c r="O12" s="311"/>
-      <c r="P12" s="312"/>
-      <c r="Q12" s="313"/>
-      <c r="R12" s="314"/>
-      <c r="S12" s="314"/>
-      <c r="T12" s="314"/>
-      <c r="U12" s="314"/>
-      <c r="V12" s="314"/>
-      <c r="W12" s="314"/>
-      <c r="X12" s="314"/>
-      <c r="Y12" s="314"/>
-      <c r="Z12" s="314"/>
-      <c r="AA12" s="314"/>
-      <c r="AB12" s="314"/>
-      <c r="AC12" s="314"/>
-      <c r="AD12" s="314"/>
-      <c r="AE12" s="315"/>
-      <c r="AF12" s="310"/>
-      <c r="AG12" s="311"/>
-      <c r="AH12" s="311"/>
-      <c r="AI12" s="312"/>
+      <c r="B12" s="268"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="270"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="274"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="275"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="276"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="278"/>
+      <c r="S12" s="278"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="278"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="278"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="278"/>
+      <c r="AB12" s="278"/>
+      <c r="AC12" s="278"/>
+      <c r="AD12" s="278"/>
+      <c r="AE12" s="279"/>
+      <c r="AF12" s="274"/>
+      <c r="AG12" s="275"/>
+      <c r="AH12" s="275"/>
+      <c r="AI12" s="276"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="304"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="309"/>
-      <c r="I13" s="305"/>
-      <c r="J13" s="310"/>
-      <c r="K13" s="311"/>
-      <c r="L13" s="311"/>
-      <c r="M13" s="311"/>
-      <c r="N13" s="311"/>
-      <c r="O13" s="311"/>
-      <c r="P13" s="312"/>
-      <c r="Q13" s="313"/>
-      <c r="R13" s="314"/>
-      <c r="S13" s="314"/>
-      <c r="T13" s="314"/>
-      <c r="U13" s="314"/>
-      <c r="V13" s="314"/>
-      <c r="W13" s="314"/>
-      <c r="X13" s="314"/>
-      <c r="Y13" s="314"/>
-      <c r="Z13" s="314"/>
-      <c r="AA13" s="314"/>
-      <c r="AB13" s="314"/>
-      <c r="AC13" s="314"/>
-      <c r="AD13" s="314"/>
-      <c r="AE13" s="315"/>
-      <c r="AF13" s="310"/>
-      <c r="AG13" s="311"/>
-      <c r="AH13" s="311"/>
-      <c r="AI13" s="312"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="272"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="273"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="274"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="275"/>
+      <c r="M13" s="275"/>
+      <c r="N13" s="275"/>
+      <c r="O13" s="275"/>
+      <c r="P13" s="276"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="278"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="278"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="278"/>
+      <c r="AA13" s="278"/>
+      <c r="AB13" s="278"/>
+      <c r="AC13" s="278"/>
+      <c r="AD13" s="278"/>
+      <c r="AE13" s="279"/>
+      <c r="AF13" s="274"/>
+      <c r="AG13" s="275"/>
+      <c r="AH13" s="275"/>
+      <c r="AI13" s="276"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="304"/>
-      <c r="C14" s="305"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="308"/>
-      <c r="G14" s="304"/>
-      <c r="H14" s="309"/>
-      <c r="I14" s="305"/>
-      <c r="J14" s="310"/>
-      <c r="K14" s="311"/>
-      <c r="L14" s="311"/>
-      <c r="M14" s="311"/>
-      <c r="N14" s="311"/>
-      <c r="O14" s="311"/>
-      <c r="P14" s="312"/>
-      <c r="Q14" s="313"/>
-      <c r="R14" s="314"/>
-      <c r="S14" s="314"/>
-      <c r="T14" s="314"/>
-      <c r="U14" s="314"/>
-      <c r="V14" s="314"/>
-      <c r="W14" s="314"/>
-      <c r="X14" s="314"/>
-      <c r="Y14" s="314"/>
-      <c r="Z14" s="314"/>
-      <c r="AA14" s="314"/>
-      <c r="AB14" s="314"/>
-      <c r="AC14" s="314"/>
-      <c r="AD14" s="314"/>
-      <c r="AE14" s="315"/>
-      <c r="AF14" s="310"/>
-      <c r="AG14" s="311"/>
-      <c r="AH14" s="311"/>
-      <c r="AI14" s="312"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="270"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="273"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="274"/>
+      <c r="K14" s="275"/>
+      <c r="L14" s="275"/>
+      <c r="M14" s="275"/>
+      <c r="N14" s="275"/>
+      <c r="O14" s="275"/>
+      <c r="P14" s="276"/>
+      <c r="Q14" s="277"/>
+      <c r="R14" s="278"/>
+      <c r="S14" s="278"/>
+      <c r="T14" s="278"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="278"/>
+      <c r="W14" s="278"/>
+      <c r="X14" s="278"/>
+      <c r="Y14" s="278"/>
+      <c r="Z14" s="278"/>
+      <c r="AA14" s="278"/>
+      <c r="AB14" s="278"/>
+      <c r="AC14" s="278"/>
+      <c r="AD14" s="278"/>
+      <c r="AE14" s="279"/>
+      <c r="AF14" s="274"/>
+      <c r="AG14" s="275"/>
+      <c r="AH14" s="275"/>
+      <c r="AI14" s="276"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="304"/>
-      <c r="C15" s="305"/>
-      <c r="D15" s="306"/>
-      <c r="E15" s="307"/>
-      <c r="F15" s="308"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="309"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="310"/>
-      <c r="K15" s="311"/>
-      <c r="L15" s="311"/>
-      <c r="M15" s="311"/>
-      <c r="N15" s="311"/>
-      <c r="O15" s="311"/>
-      <c r="P15" s="312"/>
-      <c r="Q15" s="313"/>
-      <c r="R15" s="314"/>
-      <c r="S15" s="314"/>
-      <c r="T15" s="314"/>
-      <c r="U15" s="314"/>
-      <c r="V15" s="314"/>
-      <c r="W15" s="314"/>
-      <c r="X15" s="314"/>
-      <c r="Y15" s="314"/>
-      <c r="Z15" s="314"/>
-      <c r="AA15" s="314"/>
-      <c r="AB15" s="314"/>
-      <c r="AC15" s="314"/>
-      <c r="AD15" s="314"/>
-      <c r="AE15" s="315"/>
-      <c r="AF15" s="310"/>
-      <c r="AG15" s="311"/>
-      <c r="AH15" s="311"/>
-      <c r="AI15" s="312"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="271"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="273"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="274"/>
+      <c r="K15" s="275"/>
+      <c r="L15" s="275"/>
+      <c r="M15" s="275"/>
+      <c r="N15" s="275"/>
+      <c r="O15" s="275"/>
+      <c r="P15" s="276"/>
+      <c r="Q15" s="277"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="278"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="278"/>
+      <c r="AA15" s="278"/>
+      <c r="AB15" s="278"/>
+      <c r="AC15" s="278"/>
+      <c r="AD15" s="278"/>
+      <c r="AE15" s="279"/>
+      <c r="AF15" s="274"/>
+      <c r="AG15" s="275"/>
+      <c r="AH15" s="275"/>
+      <c r="AI15" s="276"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="304"/>
-      <c r="C16" s="305"/>
-      <c r="D16" s="306"/>
-      <c r="E16" s="307"/>
-      <c r="F16" s="308"/>
-      <c r="G16" s="304"/>
-      <c r="H16" s="309"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="311"/>
-      <c r="L16" s="311"/>
-      <c r="M16" s="311"/>
-      <c r="N16" s="311"/>
-      <c r="O16" s="311"/>
-      <c r="P16" s="312"/>
-      <c r="Q16" s="313"/>
-      <c r="R16" s="314"/>
-      <c r="S16" s="314"/>
-      <c r="T16" s="314"/>
-      <c r="U16" s="314"/>
-      <c r="V16" s="314"/>
-      <c r="W16" s="314"/>
-      <c r="X16" s="314"/>
-      <c r="Y16" s="314"/>
-      <c r="Z16" s="314"/>
-      <c r="AA16" s="314"/>
-      <c r="AB16" s="314"/>
-      <c r="AC16" s="314"/>
-      <c r="AD16" s="314"/>
-      <c r="AE16" s="315"/>
-      <c r="AF16" s="310"/>
-      <c r="AG16" s="311"/>
-      <c r="AH16" s="311"/>
-      <c r="AI16" s="312"/>
+      <c r="B16" s="268"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="274"/>
+      <c r="K16" s="275"/>
+      <c r="L16" s="275"/>
+      <c r="M16" s="275"/>
+      <c r="N16" s="275"/>
+      <c r="O16" s="275"/>
+      <c r="P16" s="276"/>
+      <c r="Q16" s="277"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="278"/>
+      <c r="V16" s="278"/>
+      <c r="W16" s="278"/>
+      <c r="X16" s="278"/>
+      <c r="Y16" s="278"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="278"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="278"/>
+      <c r="AD16" s="278"/>
+      <c r="AE16" s="279"/>
+      <c r="AF16" s="274"/>
+      <c r="AG16" s="275"/>
+      <c r="AH16" s="275"/>
+      <c r="AI16" s="276"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="304"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="306"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="308"/>
-      <c r="G17" s="304"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="305"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="311"/>
-      <c r="L17" s="311"/>
-      <c r="M17" s="311"/>
-      <c r="N17" s="311"/>
-      <c r="O17" s="311"/>
-      <c r="P17" s="312"/>
-      <c r="Q17" s="313"/>
-      <c r="R17" s="314"/>
-      <c r="S17" s="314"/>
-      <c r="T17" s="314"/>
-      <c r="U17" s="314"/>
-      <c r="V17" s="314"/>
-      <c r="W17" s="314"/>
-      <c r="X17" s="314"/>
-      <c r="Y17" s="314"/>
-      <c r="Z17" s="314"/>
-      <c r="AA17" s="314"/>
-      <c r="AB17" s="314"/>
-      <c r="AC17" s="314"/>
-      <c r="AD17" s="314"/>
-      <c r="AE17" s="315"/>
-      <c r="AF17" s="310"/>
-      <c r="AG17" s="311"/>
-      <c r="AH17" s="311"/>
-      <c r="AI17" s="312"/>
+      <c r="B17" s="268"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="268"/>
+      <c r="H17" s="273"/>
+      <c r="I17" s="269"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="275"/>
+      <c r="N17" s="275"/>
+      <c r="O17" s="275"/>
+      <c r="P17" s="276"/>
+      <c r="Q17" s="277"/>
+      <c r="R17" s="278"/>
+      <c r="S17" s="278"/>
+      <c r="T17" s="278"/>
+      <c r="U17" s="278"/>
+      <c r="V17" s="278"/>
+      <c r="W17" s="278"/>
+      <c r="X17" s="278"/>
+      <c r="Y17" s="278"/>
+      <c r="Z17" s="278"/>
+      <c r="AA17" s="278"/>
+      <c r="AB17" s="278"/>
+      <c r="AC17" s="278"/>
+      <c r="AD17" s="278"/>
+      <c r="AE17" s="279"/>
+      <c r="AF17" s="274"/>
+      <c r="AG17" s="275"/>
+      <c r="AH17" s="275"/>
+      <c r="AI17" s="276"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="304"/>
-      <c r="C18" s="305"/>
-      <c r="D18" s="306"/>
-      <c r="E18" s="307"/>
-      <c r="F18" s="308"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="310"/>
-      <c r="K18" s="311"/>
-      <c r="L18" s="311"/>
-      <c r="M18" s="311"/>
-      <c r="N18" s="311"/>
-      <c r="O18" s="311"/>
-      <c r="P18" s="312"/>
-      <c r="Q18" s="313"/>
-      <c r="R18" s="314"/>
-      <c r="S18" s="314"/>
-      <c r="T18" s="314"/>
-      <c r="U18" s="314"/>
-      <c r="V18" s="314"/>
-      <c r="W18" s="314"/>
-      <c r="X18" s="314"/>
-      <c r="Y18" s="314"/>
-      <c r="Z18" s="314"/>
-      <c r="AA18" s="314"/>
-      <c r="AB18" s="314"/>
-      <c r="AC18" s="314"/>
-      <c r="AD18" s="314"/>
-      <c r="AE18" s="315"/>
-      <c r="AF18" s="310"/>
-      <c r="AG18" s="311"/>
-      <c r="AH18" s="311"/>
-      <c r="AI18" s="312"/>
+      <c r="B18" s="268"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="269"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="275"/>
+      <c r="L18" s="275"/>
+      <c r="M18" s="275"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="275"/>
+      <c r="P18" s="276"/>
+      <c r="Q18" s="277"/>
+      <c r="R18" s="278"/>
+      <c r="S18" s="278"/>
+      <c r="T18" s="278"/>
+      <c r="U18" s="278"/>
+      <c r="V18" s="278"/>
+      <c r="W18" s="278"/>
+      <c r="X18" s="278"/>
+      <c r="Y18" s="278"/>
+      <c r="Z18" s="278"/>
+      <c r="AA18" s="278"/>
+      <c r="AB18" s="278"/>
+      <c r="AC18" s="278"/>
+      <c r="AD18" s="278"/>
+      <c r="AE18" s="279"/>
+      <c r="AF18" s="274"/>
+      <c r="AG18" s="275"/>
+      <c r="AH18" s="275"/>
+      <c r="AI18" s="276"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="304"/>
-      <c r="C19" s="305"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="307"/>
-      <c r="F19" s="308"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="310"/>
-      <c r="K19" s="311"/>
-      <c r="L19" s="311"/>
-      <c r="M19" s="311"/>
-      <c r="N19" s="311"/>
-      <c r="O19" s="311"/>
-      <c r="P19" s="312"/>
-      <c r="Q19" s="313"/>
-      <c r="R19" s="314"/>
-      <c r="S19" s="314"/>
-      <c r="T19" s="314"/>
-      <c r="U19" s="314"/>
-      <c r="V19" s="314"/>
-      <c r="W19" s="314"/>
-      <c r="X19" s="314"/>
-      <c r="Y19" s="314"/>
-      <c r="Z19" s="314"/>
-      <c r="AA19" s="314"/>
-      <c r="AB19" s="314"/>
-      <c r="AC19" s="314"/>
-      <c r="AD19" s="314"/>
-      <c r="AE19" s="315"/>
-      <c r="AF19" s="310"/>
-      <c r="AG19" s="311"/>
-      <c r="AH19" s="311"/>
-      <c r="AI19" s="312"/>
+      <c r="B19" s="268"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="269"/>
+      <c r="J19" s="274"/>
+      <c r="K19" s="275"/>
+      <c r="L19" s="275"/>
+      <c r="M19" s="275"/>
+      <c r="N19" s="275"/>
+      <c r="O19" s="275"/>
+      <c r="P19" s="276"/>
+      <c r="Q19" s="277"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="278"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="278"/>
+      <c r="W19" s="278"/>
+      <c r="X19" s="278"/>
+      <c r="Y19" s="278"/>
+      <c r="Z19" s="278"/>
+      <c r="AA19" s="278"/>
+      <c r="AB19" s="278"/>
+      <c r="AC19" s="278"/>
+      <c r="AD19" s="278"/>
+      <c r="AE19" s="279"/>
+      <c r="AF19" s="274"/>
+      <c r="AG19" s="275"/>
+      <c r="AH19" s="275"/>
+      <c r="AI19" s="276"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="304"/>
-      <c r="C20" s="305"/>
-      <c r="D20" s="306"/>
-      <c r="E20" s="307"/>
-      <c r="F20" s="308"/>
-      <c r="G20" s="304"/>
-      <c r="H20" s="309"/>
-      <c r="I20" s="305"/>
-      <c r="J20" s="310"/>
-      <c r="K20" s="311"/>
-      <c r="L20" s="311"/>
-      <c r="M20" s="311"/>
-      <c r="N20" s="311"/>
-      <c r="O20" s="311"/>
-      <c r="P20" s="312"/>
-      <c r="Q20" s="313"/>
-      <c r="R20" s="314"/>
-      <c r="S20" s="314"/>
-      <c r="T20" s="314"/>
-      <c r="U20" s="314"/>
-      <c r="V20" s="314"/>
-      <c r="W20" s="314"/>
-      <c r="X20" s="314"/>
-      <c r="Y20" s="314"/>
-      <c r="Z20" s="314"/>
-      <c r="AA20" s="314"/>
-      <c r="AB20" s="314"/>
-      <c r="AC20" s="314"/>
-      <c r="AD20" s="314"/>
-      <c r="AE20" s="315"/>
-      <c r="AF20" s="310"/>
-      <c r="AG20" s="311"/>
-      <c r="AH20" s="311"/>
-      <c r="AI20" s="312"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="268"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="275"/>
+      <c r="L20" s="275"/>
+      <c r="M20" s="275"/>
+      <c r="N20" s="275"/>
+      <c r="O20" s="275"/>
+      <c r="P20" s="276"/>
+      <c r="Q20" s="277"/>
+      <c r="R20" s="278"/>
+      <c r="S20" s="278"/>
+      <c r="T20" s="278"/>
+      <c r="U20" s="278"/>
+      <c r="V20" s="278"/>
+      <c r="W20" s="278"/>
+      <c r="X20" s="278"/>
+      <c r="Y20" s="278"/>
+      <c r="Z20" s="278"/>
+      <c r="AA20" s="278"/>
+      <c r="AB20" s="278"/>
+      <c r="AC20" s="278"/>
+      <c r="AD20" s="278"/>
+      <c r="AE20" s="279"/>
+      <c r="AF20" s="274"/>
+      <c r="AG20" s="275"/>
+      <c r="AH20" s="275"/>
+      <c r="AI20" s="276"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="304"/>
-      <c r="C21" s="305"/>
-      <c r="D21" s="306"/>
-      <c r="E21" s="307"/>
-      <c r="F21" s="308"/>
-      <c r="G21" s="304"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="305"/>
-      <c r="J21" s="310"/>
-      <c r="K21" s="311"/>
-      <c r="L21" s="311"/>
-      <c r="M21" s="311"/>
-      <c r="N21" s="311"/>
-      <c r="O21" s="311"/>
-      <c r="P21" s="312"/>
-      <c r="Q21" s="313"/>
-      <c r="R21" s="314"/>
-      <c r="S21" s="314"/>
-      <c r="T21" s="314"/>
-      <c r="U21" s="314"/>
-      <c r="V21" s="314"/>
-      <c r="W21" s="314"/>
-      <c r="X21" s="314"/>
-      <c r="Y21" s="314"/>
-      <c r="Z21" s="314"/>
-      <c r="AA21" s="314"/>
-      <c r="AB21" s="314"/>
-      <c r="AC21" s="314"/>
-      <c r="AD21" s="314"/>
-      <c r="AE21" s="315"/>
-      <c r="AF21" s="310"/>
-      <c r="AG21" s="311"/>
-      <c r="AH21" s="311"/>
-      <c r="AI21" s="312"/>
+      <c r="B21" s="268"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="272"/>
+      <c r="G21" s="268"/>
+      <c r="H21" s="273"/>
+      <c r="I21" s="269"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="275"/>
+      <c r="M21" s="275"/>
+      <c r="N21" s="275"/>
+      <c r="O21" s="275"/>
+      <c r="P21" s="276"/>
+      <c r="Q21" s="277"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="278"/>
+      <c r="X21" s="278"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="278"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="278"/>
+      <c r="AD21" s="278"/>
+      <c r="AE21" s="279"/>
+      <c r="AF21" s="274"/>
+      <c r="AG21" s="275"/>
+      <c r="AH21" s="275"/>
+      <c r="AI21" s="276"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="304"/>
-      <c r="C22" s="305"/>
-      <c r="D22" s="306"/>
-      <c r="E22" s="307"/>
-      <c r="F22" s="308"/>
-      <c r="G22" s="304"/>
-      <c r="H22" s="309"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="310"/>
-      <c r="K22" s="311"/>
-      <c r="L22" s="311"/>
-      <c r="M22" s="311"/>
-      <c r="N22" s="311"/>
-      <c r="O22" s="311"/>
-      <c r="P22" s="312"/>
-      <c r="Q22" s="313"/>
-      <c r="R22" s="314"/>
-      <c r="S22" s="314"/>
-      <c r="T22" s="314"/>
-      <c r="U22" s="314"/>
-      <c r="V22" s="314"/>
-      <c r="W22" s="314"/>
-      <c r="X22" s="314"/>
-      <c r="Y22" s="314"/>
-      <c r="Z22" s="314"/>
-      <c r="AA22" s="314"/>
-      <c r="AB22" s="314"/>
-      <c r="AC22" s="314"/>
-      <c r="AD22" s="314"/>
-      <c r="AE22" s="315"/>
-      <c r="AF22" s="310"/>
-      <c r="AG22" s="311"/>
-      <c r="AH22" s="311"/>
-      <c r="AI22" s="312"/>
+      <c r="B22" s="268"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="272"/>
+      <c r="G22" s="268"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="269"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="275"/>
+      <c r="L22" s="275"/>
+      <c r="M22" s="275"/>
+      <c r="N22" s="275"/>
+      <c r="O22" s="275"/>
+      <c r="P22" s="276"/>
+      <c r="Q22" s="277"/>
+      <c r="R22" s="278"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="278"/>
+      <c r="U22" s="278"/>
+      <c r="V22" s="278"/>
+      <c r="W22" s="278"/>
+      <c r="X22" s="278"/>
+      <c r="Y22" s="278"/>
+      <c r="Z22" s="278"/>
+      <c r="AA22" s="278"/>
+      <c r="AB22" s="278"/>
+      <c r="AC22" s="278"/>
+      <c r="AD22" s="278"/>
+      <c r="AE22" s="279"/>
+      <c r="AF22" s="274"/>
+      <c r="AG22" s="275"/>
+      <c r="AH22" s="275"/>
+      <c r="AI22" s="276"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="304"/>
-      <c r="C23" s="305"/>
-      <c r="D23" s="306"/>
-      <c r="E23" s="307"/>
-      <c r="F23" s="308"/>
-      <c r="G23" s="304"/>
-      <c r="H23" s="309"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="310"/>
-      <c r="K23" s="311"/>
-      <c r="L23" s="311"/>
-      <c r="M23" s="311"/>
-      <c r="N23" s="311"/>
-      <c r="O23" s="311"/>
-      <c r="P23" s="312"/>
-      <c r="Q23" s="313"/>
-      <c r="R23" s="314"/>
-      <c r="S23" s="314"/>
-      <c r="T23" s="314"/>
-      <c r="U23" s="314"/>
-      <c r="V23" s="314"/>
-      <c r="W23" s="314"/>
-      <c r="X23" s="314"/>
-      <c r="Y23" s="314"/>
-      <c r="Z23" s="314"/>
-      <c r="AA23" s="314"/>
-      <c r="AB23" s="314"/>
-      <c r="AC23" s="314"/>
-      <c r="AD23" s="314"/>
-      <c r="AE23" s="315"/>
-      <c r="AF23" s="310"/>
-      <c r="AG23" s="311"/>
-      <c r="AH23" s="311"/>
-      <c r="AI23" s="312"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="271"/>
+      <c r="F23" s="272"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="273"/>
+      <c r="I23" s="269"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="275"/>
+      <c r="L23" s="275"/>
+      <c r="M23" s="275"/>
+      <c r="N23" s="275"/>
+      <c r="O23" s="275"/>
+      <c r="P23" s="276"/>
+      <c r="Q23" s="277"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="278"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="278"/>
+      <c r="W23" s="278"/>
+      <c r="X23" s="278"/>
+      <c r="Y23" s="278"/>
+      <c r="Z23" s="278"/>
+      <c r="AA23" s="278"/>
+      <c r="AB23" s="278"/>
+      <c r="AC23" s="278"/>
+      <c r="AD23" s="278"/>
+      <c r="AE23" s="279"/>
+      <c r="AF23" s="274"/>
+      <c r="AG23" s="275"/>
+      <c r="AH23" s="275"/>
+      <c r="AI23" s="276"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="304"/>
-      <c r="C24" s="305"/>
-      <c r="D24" s="306"/>
-      <c r="E24" s="307"/>
-      <c r="F24" s="308"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="309"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="310"/>
-      <c r="K24" s="311"/>
-      <c r="L24" s="311"/>
-      <c r="M24" s="311"/>
-      <c r="N24" s="311"/>
-      <c r="O24" s="311"/>
-      <c r="P24" s="312"/>
-      <c r="Q24" s="313"/>
-      <c r="R24" s="314"/>
-      <c r="S24" s="314"/>
-      <c r="T24" s="314"/>
-      <c r="U24" s="314"/>
-      <c r="V24" s="314"/>
-      <c r="W24" s="314"/>
-      <c r="X24" s="314"/>
-      <c r="Y24" s="314"/>
-      <c r="Z24" s="314"/>
-      <c r="AA24" s="314"/>
-      <c r="AB24" s="314"/>
-      <c r="AC24" s="314"/>
-      <c r="AD24" s="314"/>
-      <c r="AE24" s="315"/>
-      <c r="AF24" s="310"/>
-      <c r="AG24" s="311"/>
-      <c r="AH24" s="311"/>
-      <c r="AI24" s="312"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="272"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="269"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="275"/>
+      <c r="L24" s="275"/>
+      <c r="M24" s="275"/>
+      <c r="N24" s="275"/>
+      <c r="O24" s="275"/>
+      <c r="P24" s="276"/>
+      <c r="Q24" s="277"/>
+      <c r="R24" s="278"/>
+      <c r="S24" s="278"/>
+      <c r="T24" s="278"/>
+      <c r="U24" s="278"/>
+      <c r="V24" s="278"/>
+      <c r="W24" s="278"/>
+      <c r="X24" s="278"/>
+      <c r="Y24" s="278"/>
+      <c r="Z24" s="278"/>
+      <c r="AA24" s="278"/>
+      <c r="AB24" s="278"/>
+      <c r="AC24" s="278"/>
+      <c r="AD24" s="278"/>
+      <c r="AE24" s="279"/>
+      <c r="AF24" s="274"/>
+      <c r="AG24" s="275"/>
+      <c r="AH24" s="275"/>
+      <c r="AI24" s="276"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="304"/>
-      <c r="C25" s="305"/>
-      <c r="D25" s="306"/>
-      <c r="E25" s="307"/>
-      <c r="F25" s="308"/>
-      <c r="G25" s="304"/>
-      <c r="H25" s="309"/>
-      <c r="I25" s="305"/>
-      <c r="J25" s="310"/>
-      <c r="K25" s="311"/>
-      <c r="L25" s="311"/>
-      <c r="M25" s="311"/>
-      <c r="N25" s="311"/>
-      <c r="O25" s="311"/>
-      <c r="P25" s="312"/>
-      <c r="Q25" s="313"/>
-      <c r="R25" s="314"/>
-      <c r="S25" s="314"/>
-      <c r="T25" s="314"/>
-      <c r="U25" s="314"/>
-      <c r="V25" s="314"/>
-      <c r="W25" s="314"/>
-      <c r="X25" s="314"/>
-      <c r="Y25" s="314"/>
-      <c r="Z25" s="314"/>
-      <c r="AA25" s="314"/>
-      <c r="AB25" s="314"/>
-      <c r="AC25" s="314"/>
-      <c r="AD25" s="314"/>
-      <c r="AE25" s="315"/>
-      <c r="AF25" s="310"/>
-      <c r="AG25" s="311"/>
-      <c r="AH25" s="311"/>
-      <c r="AI25" s="312"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="272"/>
+      <c r="G25" s="268"/>
+      <c r="H25" s="273"/>
+      <c r="I25" s="269"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="275"/>
+      <c r="L25" s="275"/>
+      <c r="M25" s="275"/>
+      <c r="N25" s="275"/>
+      <c r="O25" s="275"/>
+      <c r="P25" s="276"/>
+      <c r="Q25" s="277"/>
+      <c r="R25" s="278"/>
+      <c r="S25" s="278"/>
+      <c r="T25" s="278"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="278"/>
+      <c r="W25" s="278"/>
+      <c r="X25" s="278"/>
+      <c r="Y25" s="278"/>
+      <c r="Z25" s="278"/>
+      <c r="AA25" s="278"/>
+      <c r="AB25" s="278"/>
+      <c r="AC25" s="278"/>
+      <c r="AD25" s="278"/>
+      <c r="AE25" s="279"/>
+      <c r="AF25" s="274"/>
+      <c r="AG25" s="275"/>
+      <c r="AH25" s="275"/>
+      <c r="AI25" s="276"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="304"/>
-      <c r="C26" s="305"/>
-      <c r="D26" s="306"/>
-      <c r="E26" s="307"/>
-      <c r="F26" s="308"/>
-      <c r="G26" s="304"/>
-      <c r="H26" s="309"/>
-      <c r="I26" s="305"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="311"/>
-      <c r="L26" s="311"/>
-      <c r="M26" s="311"/>
-      <c r="N26" s="311"/>
-      <c r="O26" s="311"/>
-      <c r="P26" s="312"/>
-      <c r="Q26" s="313"/>
-      <c r="R26" s="314"/>
-      <c r="S26" s="314"/>
-      <c r="T26" s="314"/>
-      <c r="U26" s="314"/>
-      <c r="V26" s="314"/>
-      <c r="W26" s="314"/>
-      <c r="X26" s="314"/>
-      <c r="Y26" s="314"/>
-      <c r="Z26" s="314"/>
-      <c r="AA26" s="314"/>
-      <c r="AB26" s="314"/>
-      <c r="AC26" s="314"/>
-      <c r="AD26" s="314"/>
-      <c r="AE26" s="315"/>
-      <c r="AF26" s="310"/>
-      <c r="AG26" s="311"/>
-      <c r="AH26" s="311"/>
-      <c r="AI26" s="312"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="270"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="268"/>
+      <c r="H26" s="273"/>
+      <c r="I26" s="269"/>
+      <c r="J26" s="274"/>
+      <c r="K26" s="275"/>
+      <c r="L26" s="275"/>
+      <c r="M26" s="275"/>
+      <c r="N26" s="275"/>
+      <c r="O26" s="275"/>
+      <c r="P26" s="276"/>
+      <c r="Q26" s="277"/>
+      <c r="R26" s="278"/>
+      <c r="S26" s="278"/>
+      <c r="T26" s="278"/>
+      <c r="U26" s="278"/>
+      <c r="V26" s="278"/>
+      <c r="W26" s="278"/>
+      <c r="X26" s="278"/>
+      <c r="Y26" s="278"/>
+      <c r="Z26" s="278"/>
+      <c r="AA26" s="278"/>
+      <c r="AB26" s="278"/>
+      <c r="AC26" s="278"/>
+      <c r="AD26" s="278"/>
+      <c r="AE26" s="279"/>
+      <c r="AF26" s="274"/>
+      <c r="AG26" s="275"/>
+      <c r="AH26" s="275"/>
+      <c r="AI26" s="276"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="307"/>
-      <c r="F27" s="308"/>
-      <c r="G27" s="304"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="311"/>
-      <c r="L27" s="311"/>
-      <c r="M27" s="311"/>
-      <c r="N27" s="311"/>
-      <c r="O27" s="311"/>
-      <c r="P27" s="312"/>
-      <c r="Q27" s="313"/>
-      <c r="R27" s="314"/>
-      <c r="S27" s="314"/>
-      <c r="T27" s="314"/>
-      <c r="U27" s="314"/>
-      <c r="V27" s="314"/>
-      <c r="W27" s="314"/>
-      <c r="X27" s="314"/>
-      <c r="Y27" s="314"/>
-      <c r="Z27" s="314"/>
-      <c r="AA27" s="314"/>
-      <c r="AB27" s="314"/>
-      <c r="AC27" s="314"/>
-      <c r="AD27" s="314"/>
-      <c r="AE27" s="315"/>
-      <c r="AF27" s="310"/>
-      <c r="AG27" s="311"/>
-      <c r="AH27" s="311"/>
-      <c r="AI27" s="312"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="273"/>
+      <c r="I27" s="269"/>
+      <c r="J27" s="274"/>
+      <c r="K27" s="275"/>
+      <c r="L27" s="275"/>
+      <c r="M27" s="275"/>
+      <c r="N27" s="275"/>
+      <c r="O27" s="275"/>
+      <c r="P27" s="276"/>
+      <c r="Q27" s="277"/>
+      <c r="R27" s="278"/>
+      <c r="S27" s="278"/>
+      <c r="T27" s="278"/>
+      <c r="U27" s="278"/>
+      <c r="V27" s="278"/>
+      <c r="W27" s="278"/>
+      <c r="X27" s="278"/>
+      <c r="Y27" s="278"/>
+      <c r="Z27" s="278"/>
+      <c r="AA27" s="278"/>
+      <c r="AB27" s="278"/>
+      <c r="AC27" s="278"/>
+      <c r="AD27" s="278"/>
+      <c r="AE27" s="279"/>
+      <c r="AF27" s="274"/>
+      <c r="AG27" s="275"/>
+      <c r="AH27" s="275"/>
+      <c r="AI27" s="276"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="304"/>
-      <c r="C28" s="305"/>
-      <c r="D28" s="306"/>
-      <c r="E28" s="307"/>
-      <c r="F28" s="308"/>
-      <c r="G28" s="304"/>
-      <c r="H28" s="309"/>
-      <c r="I28" s="305"/>
-      <c r="J28" s="310"/>
-      <c r="K28" s="311"/>
-      <c r="L28" s="311"/>
-      <c r="M28" s="311"/>
-      <c r="N28" s="311"/>
-      <c r="O28" s="311"/>
-      <c r="P28" s="312"/>
-      <c r="Q28" s="313"/>
-      <c r="R28" s="314"/>
-      <c r="S28" s="314"/>
-      <c r="T28" s="314"/>
-      <c r="U28" s="314"/>
-      <c r="V28" s="314"/>
-      <c r="W28" s="314"/>
-      <c r="X28" s="314"/>
-      <c r="Y28" s="314"/>
-      <c r="Z28" s="314"/>
-      <c r="AA28" s="314"/>
-      <c r="AB28" s="314"/>
-      <c r="AC28" s="314"/>
-      <c r="AD28" s="314"/>
-      <c r="AE28" s="315"/>
-      <c r="AF28" s="310"/>
-      <c r="AG28" s="311"/>
-      <c r="AH28" s="311"/>
-      <c r="AI28" s="312"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="268"/>
+      <c r="H28" s="273"/>
+      <c r="I28" s="269"/>
+      <c r="J28" s="274"/>
+      <c r="K28" s="275"/>
+      <c r="L28" s="275"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="275"/>
+      <c r="O28" s="275"/>
+      <c r="P28" s="276"/>
+      <c r="Q28" s="277"/>
+      <c r="R28" s="278"/>
+      <c r="S28" s="278"/>
+      <c r="T28" s="278"/>
+      <c r="U28" s="278"/>
+      <c r="V28" s="278"/>
+      <c r="W28" s="278"/>
+      <c r="X28" s="278"/>
+      <c r="Y28" s="278"/>
+      <c r="Z28" s="278"/>
+      <c r="AA28" s="278"/>
+      <c r="AB28" s="278"/>
+      <c r="AC28" s="278"/>
+      <c r="AD28" s="278"/>
+      <c r="AE28" s="279"/>
+      <c r="AF28" s="274"/>
+      <c r="AG28" s="275"/>
+      <c r="AH28" s="275"/>
+      <c r="AI28" s="276"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="304"/>
-      <c r="C29" s="305"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="307"/>
-      <c r="F29" s="308"/>
-      <c r="G29" s="304"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="311"/>
-      <c r="L29" s="311"/>
-      <c r="M29" s="311"/>
-      <c r="N29" s="311"/>
-      <c r="O29" s="311"/>
-      <c r="P29" s="312"/>
-      <c r="Q29" s="313"/>
-      <c r="R29" s="314"/>
-      <c r="S29" s="314"/>
-      <c r="T29" s="314"/>
-      <c r="U29" s="314"/>
-      <c r="V29" s="314"/>
-      <c r="W29" s="314"/>
-      <c r="X29" s="314"/>
-      <c r="Y29" s="314"/>
-      <c r="Z29" s="314"/>
-      <c r="AA29" s="314"/>
-      <c r="AB29" s="314"/>
-      <c r="AC29" s="314"/>
-      <c r="AD29" s="314"/>
-      <c r="AE29" s="315"/>
-      <c r="AF29" s="310"/>
-      <c r="AG29" s="311"/>
-      <c r="AH29" s="311"/>
-      <c r="AI29" s="312"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="271"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="268"/>
+      <c r="H29" s="273"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="275"/>
+      <c r="L29" s="275"/>
+      <c r="M29" s="275"/>
+      <c r="N29" s="275"/>
+      <c r="O29" s="275"/>
+      <c r="P29" s="276"/>
+      <c r="Q29" s="277"/>
+      <c r="R29" s="278"/>
+      <c r="S29" s="278"/>
+      <c r="T29" s="278"/>
+      <c r="U29" s="278"/>
+      <c r="V29" s="278"/>
+      <c r="W29" s="278"/>
+      <c r="X29" s="278"/>
+      <c r="Y29" s="278"/>
+      <c r="Z29" s="278"/>
+      <c r="AA29" s="278"/>
+      <c r="AB29" s="278"/>
+      <c r="AC29" s="278"/>
+      <c r="AD29" s="278"/>
+      <c r="AE29" s="279"/>
+      <c r="AF29" s="274"/>
+      <c r="AG29" s="275"/>
+      <c r="AH29" s="275"/>
+      <c r="AI29" s="276"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="304"/>
-      <c r="C30" s="305"/>
-      <c r="D30" s="306"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="308"/>
-      <c r="G30" s="304"/>
-      <c r="H30" s="309"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="311"/>
-      <c r="L30" s="311"/>
-      <c r="M30" s="311"/>
-      <c r="N30" s="311"/>
-      <c r="O30" s="311"/>
-      <c r="P30" s="312"/>
-      <c r="Q30" s="313"/>
-      <c r="R30" s="314"/>
-      <c r="S30" s="314"/>
-      <c r="T30" s="314"/>
-      <c r="U30" s="314"/>
-      <c r="V30" s="314"/>
-      <c r="W30" s="314"/>
-      <c r="X30" s="314"/>
-      <c r="Y30" s="314"/>
-      <c r="Z30" s="314"/>
-      <c r="AA30" s="314"/>
-      <c r="AB30" s="314"/>
-      <c r="AC30" s="314"/>
-      <c r="AD30" s="314"/>
-      <c r="AE30" s="315"/>
-      <c r="AF30" s="310"/>
-      <c r="AG30" s="311"/>
-      <c r="AH30" s="311"/>
-      <c r="AI30" s="312"/>
+      <c r="B30" s="268"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="269"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="275"/>
+      <c r="L30" s="275"/>
+      <c r="M30" s="275"/>
+      <c r="N30" s="275"/>
+      <c r="O30" s="275"/>
+      <c r="P30" s="276"/>
+      <c r="Q30" s="277"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="278"/>
+      <c r="T30" s="278"/>
+      <c r="U30" s="278"/>
+      <c r="V30" s="278"/>
+      <c r="W30" s="278"/>
+      <c r="X30" s="278"/>
+      <c r="Y30" s="278"/>
+      <c r="Z30" s="278"/>
+      <c r="AA30" s="278"/>
+      <c r="AB30" s="278"/>
+      <c r="AC30" s="278"/>
+      <c r="AD30" s="278"/>
+      <c r="AE30" s="279"/>
+      <c r="AF30" s="274"/>
+      <c r="AG30" s="275"/>
+      <c r="AH30" s="275"/>
+      <c r="AI30" s="276"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="304"/>
-      <c r="C31" s="305"/>
-      <c r="D31" s="306"/>
-      <c r="E31" s="307"/>
-      <c r="F31" s="308"/>
-      <c r="G31" s="304"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="305"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="311"/>
-      <c r="L31" s="311"/>
-      <c r="M31" s="311"/>
-      <c r="N31" s="311"/>
-      <c r="O31" s="311"/>
-      <c r="P31" s="312"/>
-      <c r="Q31" s="313"/>
-      <c r="R31" s="314"/>
-      <c r="S31" s="314"/>
-      <c r="T31" s="314"/>
-      <c r="U31" s="314"/>
-      <c r="V31" s="314"/>
-      <c r="W31" s="314"/>
-      <c r="X31" s="314"/>
-      <c r="Y31" s="314"/>
-      <c r="Z31" s="314"/>
-      <c r="AA31" s="314"/>
-      <c r="AB31" s="314"/>
-      <c r="AC31" s="314"/>
-      <c r="AD31" s="314"/>
-      <c r="AE31" s="315"/>
-      <c r="AF31" s="310"/>
-      <c r="AG31" s="311"/>
-      <c r="AH31" s="311"/>
-      <c r="AI31" s="312"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="268"/>
+      <c r="H31" s="273"/>
+      <c r="I31" s="269"/>
+      <c r="J31" s="274"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="275"/>
+      <c r="M31" s="275"/>
+      <c r="N31" s="275"/>
+      <c r="O31" s="275"/>
+      <c r="P31" s="276"/>
+      <c r="Q31" s="277"/>
+      <c r="R31" s="278"/>
+      <c r="S31" s="278"/>
+      <c r="T31" s="278"/>
+      <c r="U31" s="278"/>
+      <c r="V31" s="278"/>
+      <c r="W31" s="278"/>
+      <c r="X31" s="278"/>
+      <c r="Y31" s="278"/>
+      <c r="Z31" s="278"/>
+      <c r="AA31" s="278"/>
+      <c r="AB31" s="278"/>
+      <c r="AC31" s="278"/>
+      <c r="AD31" s="278"/>
+      <c r="AE31" s="279"/>
+      <c r="AF31" s="274"/>
+      <c r="AG31" s="275"/>
+      <c r="AH31" s="275"/>
+      <c r="AI31" s="276"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="304"/>
-      <c r="C32" s="305"/>
-      <c r="D32" s="306"/>
-      <c r="E32" s="307"/>
-      <c r="F32" s="308"/>
-      <c r="G32" s="304"/>
-      <c r="H32" s="309"/>
-      <c r="I32" s="305"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="329"/>
-      <c r="L32" s="311"/>
-      <c r="M32" s="311"/>
-      <c r="N32" s="311"/>
-      <c r="O32" s="311"/>
-      <c r="P32" s="312"/>
-      <c r="Q32" s="313"/>
-      <c r="R32" s="314"/>
-      <c r="S32" s="314"/>
-      <c r="T32" s="314"/>
-      <c r="U32" s="314"/>
-      <c r="V32" s="314"/>
-      <c r="W32" s="314"/>
-      <c r="X32" s="314"/>
-      <c r="Y32" s="314"/>
-      <c r="Z32" s="314"/>
-      <c r="AA32" s="314"/>
-      <c r="AB32" s="314"/>
-      <c r="AC32" s="314"/>
-      <c r="AD32" s="314"/>
-      <c r="AE32" s="315"/>
-      <c r="AF32" s="310"/>
-      <c r="AG32" s="311"/>
-      <c r="AH32" s="311"/>
-      <c r="AI32" s="312"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="268"/>
+      <c r="H32" s="273"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="274"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="275"/>
+      <c r="M32" s="275"/>
+      <c r="N32" s="275"/>
+      <c r="O32" s="275"/>
+      <c r="P32" s="276"/>
+      <c r="Q32" s="277"/>
+      <c r="R32" s="278"/>
+      <c r="S32" s="278"/>
+      <c r="T32" s="278"/>
+      <c r="U32" s="278"/>
+      <c r="V32" s="278"/>
+      <c r="W32" s="278"/>
+      <c r="X32" s="278"/>
+      <c r="Y32" s="278"/>
+      <c r="Z32" s="278"/>
+      <c r="AA32" s="278"/>
+      <c r="AB32" s="278"/>
+      <c r="AC32" s="278"/>
+      <c r="AD32" s="278"/>
+      <c r="AE32" s="279"/>
+      <c r="AF32" s="274"/>
+      <c r="AG32" s="275"/>
+      <c r="AH32" s="275"/>
+      <c r="AI32" s="276"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="304"/>
-      <c r="C33" s="305"/>
-      <c r="D33" s="306"/>
-      <c r="E33" s="307"/>
-      <c r="F33" s="308"/>
-      <c r="G33" s="304"/>
-      <c r="H33" s="309"/>
-      <c r="I33" s="305"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="311"/>
-      <c r="L33" s="311"/>
-      <c r="M33" s="311"/>
-      <c r="N33" s="311"/>
-      <c r="O33" s="311"/>
-      <c r="P33" s="312"/>
-      <c r="Q33" s="313"/>
-      <c r="R33" s="314"/>
-      <c r="S33" s="314"/>
-      <c r="T33" s="314"/>
-      <c r="U33" s="314"/>
-      <c r="V33" s="314"/>
-      <c r="W33" s="314"/>
-      <c r="X33" s="314"/>
-      <c r="Y33" s="314"/>
-      <c r="Z33" s="314"/>
-      <c r="AA33" s="314"/>
-      <c r="AB33" s="314"/>
-      <c r="AC33" s="314"/>
-      <c r="AD33" s="314"/>
-      <c r="AE33" s="315"/>
-      <c r="AF33" s="310"/>
-      <c r="AG33" s="311"/>
-      <c r="AH33" s="311"/>
-      <c r="AI33" s="312"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="268"/>
+      <c r="H33" s="273"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="274"/>
+      <c r="K33" s="275"/>
+      <c r="L33" s="275"/>
+      <c r="M33" s="275"/>
+      <c r="N33" s="275"/>
+      <c r="O33" s="275"/>
+      <c r="P33" s="276"/>
+      <c r="Q33" s="277"/>
+      <c r="R33" s="278"/>
+      <c r="S33" s="278"/>
+      <c r="T33" s="278"/>
+      <c r="U33" s="278"/>
+      <c r="V33" s="278"/>
+      <c r="W33" s="278"/>
+      <c r="X33" s="278"/>
+      <c r="Y33" s="278"/>
+      <c r="Z33" s="278"/>
+      <c r="AA33" s="278"/>
+      <c r="AB33" s="278"/>
+      <c r="AC33" s="278"/>
+      <c r="AD33" s="278"/>
+      <c r="AE33" s="279"/>
+      <c r="AF33" s="274"/>
+      <c r="AG33" s="275"/>
+      <c r="AH33" s="275"/>
+      <c r="AI33" s="276"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15304,6 +15148,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -37499,7 +37499,18 @@
       <c r="Q339" s="33"/>
     </row>
     <row r="340" spans="1:17" s="34" customFormat="1" ht="67.5">
-      <c r="A340" s="54"/>
+      <c r="A340" s="54" t="str" cm="1">
+        <f t="array" aca="1" ref="A340" ca="1">_xlfn.LET(
+_xlpm.詳細項目数, COUNTA($E$11:E340),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E340)&gt;0)*ROW($E$11:E340),0)),
+_xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F340),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F340)&gt;0)*ROW($F$11:F340),0)),
+_xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J340),
+_xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
+_xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
+)</f>
+        <v>105-1-2</v>
+      </c>
       <c r="B340" s="204"/>
       <c r="C340" s="199"/>
       <c r="D340" s="229"/>
@@ -38050,7 +38061,18 @@
       <c r="Q354" s="83"/>
     </row>
     <row r="355" spans="1:17">
-      <c r="A355" s="54"/>
+      <c r="A355" s="54" t="str" cm="1">
+        <f t="array" aca="1" ref="A355" ca="1">_xlfn.LET(
+_xlpm.詳細項目数, COUNTA($E$11:E355),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E355)&gt;0)*ROW($E$11:E355),0)),
+_xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F355),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F355)&gt;0)*ROW($F$11:F355),0)),
+_xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J355),
+_xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
+_xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
+)</f>
+        <v>109-1-2</v>
+      </c>
       <c r="B355" s="203"/>
       <c r="C355" s="199"/>
       <c r="D355" s="229"/>
@@ -39335,7 +39357,18 @@
       <c r="Q391" s="139"/>
     </row>
     <row r="392" spans="1:17" s="34" customFormat="1" ht="22.5">
-      <c r="A392" s="54"/>
+      <c r="A392" s="54" t="str" cm="1">
+        <f t="array" aca="1" ref="A392" ca="1">_xlfn.LET(
+_xlpm.詳細項目数, COUNTA($E$11:E392),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E392)&gt;0)*ROW($E$11:E392),0)),
+_xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F392),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F392)&gt;0)*ROW($F$11:F392),0)),
+_xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J392),
+_xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
+_xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
+)</f>
+        <v>114-4-2</v>
+      </c>
       <c r="B392" s="98"/>
       <c r="C392" s="229"/>
       <c r="D392" s="229"/>
@@ -39712,7 +39745,18 @@
       <c r="Q401" s="141"/>
     </row>
     <row r="402" spans="1:17" s="34" customFormat="1" ht="22.5">
-      <c r="A402" s="54"/>
+      <c r="A402" s="54" t="str" cm="1">
+        <f t="array" aca="1" ref="A402" ca="1">_xlfn.LET(
+_xlpm.詳細項目数, COUNTA($E$11:E402),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E402)&gt;0)*ROW($E$11:E402),0)),
+_xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F402),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F402)&gt;0)*ROW($F$11:F402),0)),
+_xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J402),
+_xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
+_xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
+)</f>
+        <v>117-1-2</v>
+      </c>
       <c r="B402" s="98"/>
       <c r="C402" s="98"/>
       <c r="D402" s="200"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D137C-F013-4D66-BD62-F495D2A90C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D40A28-1225-4A3C-9512-F9DCB799E547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="812">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -9128,40 +9128,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>更新条件に指定する項目はユニークインデックスが貼られているため更新件数は必ず1件になるので対象外</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>結合を用いた更新は行わないため対象外</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -10401,6 +10367,25 @@
     <t>プロジェクト管理(A101)</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面で入力したログインIDと同じログインIDを持つシステムアカウントテーブルのレコードだけが更新されている。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -12018,84 +12003,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -12202,6 +12109,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13930,51 +13915,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="274" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="303" t="s">
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="277" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="309" t="s">
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="278"/>
+      <c r="N1" s="279"/>
+      <c r="O1" s="283" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="310"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="318" t="s">
+      <c r="P1" s="284"/>
+      <c r="Q1" s="284"/>
+      <c r="R1" s="285"/>
+      <c r="S1" s="292" t="s">
         <v>652</v>
       </c>
-      <c r="T1" s="319"/>
-      <c r="U1" s="319"/>
-      <c r="V1" s="319"/>
-      <c r="W1" s="319"/>
-      <c r="X1" s="319"/>
-      <c r="Y1" s="319"/>
-      <c r="Z1" s="320"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="293"/>
+      <c r="U1" s="293"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="293"/>
+      <c r="X1" s="293"/>
+      <c r="Y1" s="293"/>
+      <c r="Z1" s="294"/>
+      <c r="AA1" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="302"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="328"/>
-      <c r="AE1" s="328"/>
-      <c r="AF1" s="329"/>
-      <c r="AG1" s="294"/>
-      <c r="AH1" s="295"/>
-      <c r="AI1" s="296"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="301"/>
+      <c r="AD1" s="302"/>
+      <c r="AE1" s="302"/>
+      <c r="AF1" s="303"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13982,53 +13967,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="303" t="s">
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="277" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="305"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="314"/>
-      <c r="S2" s="321"/>
-      <c r="T2" s="322"/>
-      <c r="U2" s="322"/>
-      <c r="V2" s="322"/>
-      <c r="W2" s="322"/>
-      <c r="X2" s="322"/>
-      <c r="Y2" s="322"/>
-      <c r="Z2" s="323"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="279"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="287"/>
+      <c r="Q2" s="287"/>
+      <c r="R2" s="288"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="296"/>
+      <c r="U2" s="296"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="296"/>
+      <c r="X2" s="296"/>
+      <c r="Y2" s="296"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="302"/>
-      <c r="AC2" s="306" t="str">
+      <c r="AB2" s="276"/>
+      <c r="AC2" s="280" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="307"/>
-      <c r="AE2" s="307"/>
-      <c r="AF2" s="308"/>
-      <c r="AG2" s="294" t="str">
+      <c r="AD2" s="281"/>
+      <c r="AE2" s="281"/>
+      <c r="AF2" s="282"/>
+      <c r="AG2" s="268" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="295"/>
-      <c r="AI2" s="296"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -14036,45 +14021,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="274" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="277" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="304"/>
-      <c r="K3" s="304"/>
-      <c r="L3" s="304"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="324"/>
-      <c r="T3" s="325"/>
-      <c r="U3" s="325"/>
-      <c r="V3" s="325"/>
-      <c r="W3" s="325"/>
-      <c r="X3" s="325"/>
-      <c r="Y3" s="325"/>
-      <c r="Z3" s="326"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="302"/>
-      <c r="AC3" s="327"/>
-      <c r="AD3" s="328"/>
-      <c r="AE3" s="328"/>
-      <c r="AF3" s="329"/>
-      <c r="AG3" s="294"/>
-      <c r="AH3" s="295"/>
-      <c r="AI3" s="296"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="290"/>
+      <c r="Q3" s="290"/>
+      <c r="R3" s="291"/>
+      <c r="S3" s="298"/>
+      <c r="T3" s="299"/>
+      <c r="U3" s="299"/>
+      <c r="V3" s="299"/>
+      <c r="W3" s="299"/>
+      <c r="X3" s="299"/>
+      <c r="Y3" s="299"/>
+      <c r="Z3" s="300"/>
+      <c r="AA3" s="274"/>
+      <c r="AB3" s="276"/>
+      <c r="AC3" s="301"/>
+      <c r="AD3" s="302"/>
+      <c r="AE3" s="302"/>
+      <c r="AF3" s="303"/>
+      <c r="AG3" s="268"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -14111,1020 +14096,1176 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="297" t="s">
+      <c r="B7" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="298"/>
-      <c r="D7" s="297" t="s">
+      <c r="C7" s="272"/>
+      <c r="D7" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="297" t="s">
+      <c r="E7" s="273"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="299"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="297" t="s">
+      <c r="H7" s="273"/>
+      <c r="I7" s="272"/>
+      <c r="J7" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="299"/>
-      <c r="N7" s="299"/>
-      <c r="O7" s="299"/>
-      <c r="P7" s="298"/>
-      <c r="Q7" s="297" t="s">
+      <c r="K7" s="273"/>
+      <c r="L7" s="273"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="299"/>
-      <c r="S7" s="299"/>
-      <c r="T7" s="299"/>
-      <c r="U7" s="299"/>
-      <c r="V7" s="299"/>
-      <c r="W7" s="299"/>
-      <c r="X7" s="299"/>
-      <c r="Y7" s="299"/>
-      <c r="Z7" s="299"/>
-      <c r="AA7" s="299"/>
-      <c r="AB7" s="299"/>
-      <c r="AC7" s="299"/>
-      <c r="AD7" s="299"/>
-      <c r="AE7" s="298"/>
-      <c r="AF7" s="297" t="s">
+      <c r="R7" s="273"/>
+      <c r="S7" s="273"/>
+      <c r="T7" s="273"/>
+      <c r="U7" s="273"/>
+      <c r="V7" s="273"/>
+      <c r="W7" s="273"/>
+      <c r="X7" s="273"/>
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="273"/>
+      <c r="AA7" s="273"/>
+      <c r="AB7" s="273"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="273"/>
+      <c r="AE7" s="272"/>
+      <c r="AF7" s="271" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="299"/>
-      <c r="AH7" s="299"/>
-      <c r="AI7" s="298"/>
+      <c r="AG7" s="273"/>
+      <c r="AH7" s="273"/>
+      <c r="AI7" s="272"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="281"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="287"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="288"/>
-      <c r="K8" s="289"/>
-      <c r="L8" s="289"/>
-      <c r="M8" s="289"/>
-      <c r="N8" s="289"/>
-      <c r="O8" s="289"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="291"/>
-      <c r="R8" s="292"/>
-      <c r="S8" s="292"/>
-      <c r="T8" s="292"/>
-      <c r="U8" s="292"/>
-      <c r="V8" s="292"/>
-      <c r="W8" s="292"/>
-      <c r="X8" s="292"/>
-      <c r="Y8" s="292"/>
-      <c r="Z8" s="292"/>
-      <c r="AA8" s="292"/>
-      <c r="AB8" s="292"/>
-      <c r="AC8" s="292"/>
-      <c r="AD8" s="292"/>
-      <c r="AE8" s="293"/>
-      <c r="AF8" s="288"/>
-      <c r="AG8" s="289"/>
-      <c r="AH8" s="289"/>
-      <c r="AI8" s="290"/>
+      <c r="B8" s="316"/>
+      <c r="C8" s="317"/>
+      <c r="D8" s="318"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="320"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="324"/>
+      <c r="L8" s="324"/>
+      <c r="M8" s="324"/>
+      <c r="N8" s="324"/>
+      <c r="O8" s="324"/>
+      <c r="P8" s="325"/>
+      <c r="Q8" s="326"/>
+      <c r="R8" s="327"/>
+      <c r="S8" s="327"/>
+      <c r="T8" s="327"/>
+      <c r="U8" s="327"/>
+      <c r="V8" s="327"/>
+      <c r="W8" s="327"/>
+      <c r="X8" s="327"/>
+      <c r="Y8" s="327"/>
+      <c r="Z8" s="327"/>
+      <c r="AA8" s="327"/>
+      <c r="AB8" s="327"/>
+      <c r="AC8" s="327"/>
+      <c r="AD8" s="327"/>
+      <c r="AE8" s="328"/>
+      <c r="AF8" s="323"/>
+      <c r="AG8" s="324"/>
+      <c r="AH8" s="324"/>
+      <c r="AI8" s="325"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="269"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="270"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="275"/>
-      <c r="N9" s="275"/>
-      <c r="O9" s="275"/>
-      <c r="P9" s="276"/>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="278"/>
-      <c r="S9" s="278"/>
-      <c r="T9" s="278"/>
-      <c r="U9" s="278"/>
-      <c r="V9" s="278"/>
-      <c r="W9" s="278"/>
-      <c r="X9" s="278"/>
-      <c r="Y9" s="278"/>
-      <c r="Z9" s="278"/>
-      <c r="AA9" s="278"/>
-      <c r="AB9" s="278"/>
-      <c r="AC9" s="278"/>
-      <c r="AD9" s="278"/>
-      <c r="AE9" s="279"/>
-      <c r="AF9" s="274"/>
-      <c r="AG9" s="275"/>
-      <c r="AH9" s="275"/>
-      <c r="AI9" s="276"/>
+      <c r="B9" s="304"/>
+      <c r="C9" s="305"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="307"/>
+      <c r="F9" s="308"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="309"/>
+      <c r="I9" s="305"/>
+      <c r="J9" s="310"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="311"/>
+      <c r="N9" s="311"/>
+      <c r="O9" s="311"/>
+      <c r="P9" s="312"/>
+      <c r="Q9" s="313"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="314"/>
+      <c r="T9" s="314"/>
+      <c r="U9" s="314"/>
+      <c r="V9" s="314"/>
+      <c r="W9" s="314"/>
+      <c r="X9" s="314"/>
+      <c r="Y9" s="314"/>
+      <c r="Z9" s="314"/>
+      <c r="AA9" s="314"/>
+      <c r="AB9" s="314"/>
+      <c r="AC9" s="314"/>
+      <c r="AD9" s="314"/>
+      <c r="AE9" s="315"/>
+      <c r="AF9" s="310"/>
+      <c r="AG9" s="311"/>
+      <c r="AH9" s="311"/>
+      <c r="AI9" s="312"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="268"/>
-      <c r="C10" s="269"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="274"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="275"/>
-      <c r="M10" s="275"/>
-      <c r="N10" s="275"/>
-      <c r="O10" s="275"/>
-      <c r="P10" s="276"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="278"/>
-      <c r="S10" s="278"/>
-      <c r="T10" s="278"/>
-      <c r="U10" s="278"/>
-      <c r="V10" s="278"/>
-      <c r="W10" s="278"/>
-      <c r="X10" s="278"/>
-      <c r="Y10" s="278"/>
-      <c r="Z10" s="278"/>
-      <c r="AA10" s="278"/>
-      <c r="AB10" s="278"/>
-      <c r="AC10" s="278"/>
-      <c r="AD10" s="278"/>
-      <c r="AE10" s="279"/>
-      <c r="AF10" s="274"/>
-      <c r="AG10" s="275"/>
-      <c r="AH10" s="275"/>
-      <c r="AI10" s="276"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="308"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="310"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="311"/>
+      <c r="N10" s="311"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="312"/>
+      <c r="Q10" s="313"/>
+      <c r="R10" s="314"/>
+      <c r="S10" s="314"/>
+      <c r="T10" s="314"/>
+      <c r="U10" s="314"/>
+      <c r="V10" s="314"/>
+      <c r="W10" s="314"/>
+      <c r="X10" s="314"/>
+      <c r="Y10" s="314"/>
+      <c r="Z10" s="314"/>
+      <c r="AA10" s="314"/>
+      <c r="AB10" s="314"/>
+      <c r="AC10" s="314"/>
+      <c r="AD10" s="314"/>
+      <c r="AE10" s="315"/>
+      <c r="AF10" s="310"/>
+      <c r="AG10" s="311"/>
+      <c r="AH10" s="311"/>
+      <c r="AI10" s="312"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="268"/>
-      <c r="C11" s="269"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="268"/>
-      <c r="H11" s="273"/>
-      <c r="I11" s="269"/>
-      <c r="J11" s="274"/>
-      <c r="K11" s="275"/>
-      <c r="L11" s="275"/>
-      <c r="M11" s="275"/>
-      <c r="N11" s="275"/>
-      <c r="O11" s="275"/>
-      <c r="P11" s="276"/>
-      <c r="Q11" s="277"/>
-      <c r="R11" s="278"/>
-      <c r="S11" s="278"/>
-      <c r="T11" s="278"/>
-      <c r="U11" s="278"/>
-      <c r="V11" s="278"/>
-      <c r="W11" s="278"/>
-      <c r="X11" s="278"/>
-      <c r="Y11" s="278"/>
-      <c r="Z11" s="278"/>
-      <c r="AA11" s="278"/>
-      <c r="AB11" s="278"/>
-      <c r="AC11" s="278"/>
-      <c r="AD11" s="278"/>
-      <c r="AE11" s="279"/>
-      <c r="AF11" s="274"/>
-      <c r="AG11" s="275"/>
-      <c r="AH11" s="275"/>
-      <c r="AI11" s="276"/>
+      <c r="B11" s="304"/>
+      <c r="C11" s="305"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="307"/>
+      <c r="F11" s="308"/>
+      <c r="G11" s="304"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="305"/>
+      <c r="J11" s="310"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="311"/>
+      <c r="M11" s="311"/>
+      <c r="N11" s="311"/>
+      <c r="O11" s="311"/>
+      <c r="P11" s="312"/>
+      <c r="Q11" s="313"/>
+      <c r="R11" s="314"/>
+      <c r="S11" s="314"/>
+      <c r="T11" s="314"/>
+      <c r="U11" s="314"/>
+      <c r="V11" s="314"/>
+      <c r="W11" s="314"/>
+      <c r="X11" s="314"/>
+      <c r="Y11" s="314"/>
+      <c r="Z11" s="314"/>
+      <c r="AA11" s="314"/>
+      <c r="AB11" s="314"/>
+      <c r="AC11" s="314"/>
+      <c r="AD11" s="314"/>
+      <c r="AE11" s="315"/>
+      <c r="AF11" s="310"/>
+      <c r="AG11" s="311"/>
+      <c r="AH11" s="311"/>
+      <c r="AI11" s="312"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="268"/>
-      <c r="C12" s="269"/>
-      <c r="D12" s="270"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="268"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="275"/>
-      <c r="L12" s="275"/>
-      <c r="M12" s="275"/>
-      <c r="N12" s="275"/>
-      <c r="O12" s="275"/>
-      <c r="P12" s="276"/>
-      <c r="Q12" s="277"/>
-      <c r="R12" s="278"/>
-      <c r="S12" s="278"/>
-      <c r="T12" s="278"/>
-      <c r="U12" s="278"/>
-      <c r="V12" s="278"/>
-      <c r="W12" s="278"/>
-      <c r="X12" s="278"/>
-      <c r="Y12" s="278"/>
-      <c r="Z12" s="278"/>
-      <c r="AA12" s="278"/>
-      <c r="AB12" s="278"/>
-      <c r="AC12" s="278"/>
-      <c r="AD12" s="278"/>
-      <c r="AE12" s="279"/>
-      <c r="AF12" s="274"/>
-      <c r="AG12" s="275"/>
-      <c r="AH12" s="275"/>
-      <c r="AI12" s="276"/>
+      <c r="B12" s="304"/>
+      <c r="C12" s="305"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="307"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="304"/>
+      <c r="H12" s="309"/>
+      <c r="I12" s="305"/>
+      <c r="J12" s="310"/>
+      <c r="K12" s="311"/>
+      <c r="L12" s="311"/>
+      <c r="M12" s="311"/>
+      <c r="N12" s="311"/>
+      <c r="O12" s="311"/>
+      <c r="P12" s="312"/>
+      <c r="Q12" s="313"/>
+      <c r="R12" s="314"/>
+      <c r="S12" s="314"/>
+      <c r="T12" s="314"/>
+      <c r="U12" s="314"/>
+      <c r="V12" s="314"/>
+      <c r="W12" s="314"/>
+      <c r="X12" s="314"/>
+      <c r="Y12" s="314"/>
+      <c r="Z12" s="314"/>
+      <c r="AA12" s="314"/>
+      <c r="AB12" s="314"/>
+      <c r="AC12" s="314"/>
+      <c r="AD12" s="314"/>
+      <c r="AE12" s="315"/>
+      <c r="AF12" s="310"/>
+      <c r="AG12" s="311"/>
+      <c r="AH12" s="311"/>
+      <c r="AI12" s="312"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="269"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="271"/>
-      <c r="F13" s="272"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="274"/>
-      <c r="K13" s="275"/>
-      <c r="L13" s="275"/>
-      <c r="M13" s="275"/>
-      <c r="N13" s="275"/>
-      <c r="O13" s="275"/>
-      <c r="P13" s="276"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="278"/>
-      <c r="S13" s="278"/>
-      <c r="T13" s="278"/>
-      <c r="U13" s="278"/>
-      <c r="V13" s="278"/>
-      <c r="W13" s="278"/>
-      <c r="X13" s="278"/>
-      <c r="Y13" s="278"/>
-      <c r="Z13" s="278"/>
-      <c r="AA13" s="278"/>
-      <c r="AB13" s="278"/>
-      <c r="AC13" s="278"/>
-      <c r="AD13" s="278"/>
-      <c r="AE13" s="279"/>
-      <c r="AF13" s="274"/>
-      <c r="AG13" s="275"/>
-      <c r="AH13" s="275"/>
-      <c r="AI13" s="276"/>
+      <c r="B13" s="304"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="306"/>
+      <c r="E13" s="307"/>
+      <c r="F13" s="308"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="305"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="311"/>
+      <c r="L13" s="311"/>
+      <c r="M13" s="311"/>
+      <c r="N13" s="311"/>
+      <c r="O13" s="311"/>
+      <c r="P13" s="312"/>
+      <c r="Q13" s="313"/>
+      <c r="R13" s="314"/>
+      <c r="S13" s="314"/>
+      <c r="T13" s="314"/>
+      <c r="U13" s="314"/>
+      <c r="V13" s="314"/>
+      <c r="W13" s="314"/>
+      <c r="X13" s="314"/>
+      <c r="Y13" s="314"/>
+      <c r="Z13" s="314"/>
+      <c r="AA13" s="314"/>
+      <c r="AB13" s="314"/>
+      <c r="AC13" s="314"/>
+      <c r="AD13" s="314"/>
+      <c r="AE13" s="315"/>
+      <c r="AF13" s="310"/>
+      <c r="AG13" s="311"/>
+      <c r="AH13" s="311"/>
+      <c r="AI13" s="312"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="268"/>
-      <c r="C14" s="269"/>
-      <c r="D14" s="270"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="272"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="273"/>
-      <c r="I14" s="269"/>
-      <c r="J14" s="274"/>
-      <c r="K14" s="275"/>
-      <c r="L14" s="275"/>
-      <c r="M14" s="275"/>
-      <c r="N14" s="275"/>
-      <c r="O14" s="275"/>
-      <c r="P14" s="276"/>
-      <c r="Q14" s="277"/>
-      <c r="R14" s="278"/>
-      <c r="S14" s="278"/>
-      <c r="T14" s="278"/>
-      <c r="U14" s="278"/>
-      <c r="V14" s="278"/>
-      <c r="W14" s="278"/>
-      <c r="X14" s="278"/>
-      <c r="Y14" s="278"/>
-      <c r="Z14" s="278"/>
-      <c r="AA14" s="278"/>
-      <c r="AB14" s="278"/>
-      <c r="AC14" s="278"/>
-      <c r="AD14" s="278"/>
-      <c r="AE14" s="279"/>
-      <c r="AF14" s="274"/>
-      <c r="AG14" s="275"/>
-      <c r="AH14" s="275"/>
-      <c r="AI14" s="276"/>
+      <c r="B14" s="304"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="307"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="304"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="305"/>
+      <c r="J14" s="310"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
+      <c r="M14" s="311"/>
+      <c r="N14" s="311"/>
+      <c r="O14" s="311"/>
+      <c r="P14" s="312"/>
+      <c r="Q14" s="313"/>
+      <c r="R14" s="314"/>
+      <c r="S14" s="314"/>
+      <c r="T14" s="314"/>
+      <c r="U14" s="314"/>
+      <c r="V14" s="314"/>
+      <c r="W14" s="314"/>
+      <c r="X14" s="314"/>
+      <c r="Y14" s="314"/>
+      <c r="Z14" s="314"/>
+      <c r="AA14" s="314"/>
+      <c r="AB14" s="314"/>
+      <c r="AC14" s="314"/>
+      <c r="AD14" s="314"/>
+      <c r="AE14" s="315"/>
+      <c r="AF14" s="310"/>
+      <c r="AG14" s="311"/>
+      <c r="AH14" s="311"/>
+      <c r="AI14" s="312"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="268"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="271"/>
-      <c r="F15" s="272"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="273"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="274"/>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
-      <c r="M15" s="275"/>
-      <c r="N15" s="275"/>
-      <c r="O15" s="275"/>
-      <c r="P15" s="276"/>
-      <c r="Q15" s="277"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="278"/>
-      <c r="U15" s="278"/>
-      <c r="V15" s="278"/>
-      <c r="W15" s="278"/>
-      <c r="X15" s="278"/>
-      <c r="Y15" s="278"/>
-      <c r="Z15" s="278"/>
-      <c r="AA15" s="278"/>
-      <c r="AB15" s="278"/>
-      <c r="AC15" s="278"/>
-      <c r="AD15" s="278"/>
-      <c r="AE15" s="279"/>
-      <c r="AF15" s="274"/>
-      <c r="AG15" s="275"/>
-      <c r="AH15" s="275"/>
-      <c r="AI15" s="276"/>
+      <c r="B15" s="304"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="306"/>
+      <c r="E15" s="307"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="304"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="310"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
+      <c r="M15" s="311"/>
+      <c r="N15" s="311"/>
+      <c r="O15" s="311"/>
+      <c r="P15" s="312"/>
+      <c r="Q15" s="313"/>
+      <c r="R15" s="314"/>
+      <c r="S15" s="314"/>
+      <c r="T15" s="314"/>
+      <c r="U15" s="314"/>
+      <c r="V15" s="314"/>
+      <c r="W15" s="314"/>
+      <c r="X15" s="314"/>
+      <c r="Y15" s="314"/>
+      <c r="Z15" s="314"/>
+      <c r="AA15" s="314"/>
+      <c r="AB15" s="314"/>
+      <c r="AC15" s="314"/>
+      <c r="AD15" s="314"/>
+      <c r="AE15" s="315"/>
+      <c r="AF15" s="310"/>
+      <c r="AG15" s="311"/>
+      <c r="AH15" s="311"/>
+      <c r="AI15" s="312"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="268"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="273"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="274"/>
-      <c r="K16" s="275"/>
-      <c r="L16" s="275"/>
-      <c r="M16" s="275"/>
-      <c r="N16" s="275"/>
-      <c r="O16" s="275"/>
-      <c r="P16" s="276"/>
-      <c r="Q16" s="277"/>
-      <c r="R16" s="278"/>
-      <c r="S16" s="278"/>
-      <c r="T16" s="278"/>
-      <c r="U16" s="278"/>
-      <c r="V16" s="278"/>
-      <c r="W16" s="278"/>
-      <c r="X16" s="278"/>
-      <c r="Y16" s="278"/>
-      <c r="Z16" s="278"/>
-      <c r="AA16" s="278"/>
-      <c r="AB16" s="278"/>
-      <c r="AC16" s="278"/>
-      <c r="AD16" s="278"/>
-      <c r="AE16" s="279"/>
-      <c r="AF16" s="274"/>
-      <c r="AG16" s="275"/>
-      <c r="AH16" s="275"/>
-      <c r="AI16" s="276"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="305"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="307"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="304"/>
+      <c r="H16" s="309"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="311"/>
+      <c r="M16" s="311"/>
+      <c r="N16" s="311"/>
+      <c r="O16" s="311"/>
+      <c r="P16" s="312"/>
+      <c r="Q16" s="313"/>
+      <c r="R16" s="314"/>
+      <c r="S16" s="314"/>
+      <c r="T16" s="314"/>
+      <c r="U16" s="314"/>
+      <c r="V16" s="314"/>
+      <c r="W16" s="314"/>
+      <c r="X16" s="314"/>
+      <c r="Y16" s="314"/>
+      <c r="Z16" s="314"/>
+      <c r="AA16" s="314"/>
+      <c r="AB16" s="314"/>
+      <c r="AC16" s="314"/>
+      <c r="AD16" s="314"/>
+      <c r="AE16" s="315"/>
+      <c r="AF16" s="310"/>
+      <c r="AG16" s="311"/>
+      <c r="AH16" s="311"/>
+      <c r="AI16" s="312"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="273"/>
-      <c r="I17" s="269"/>
-      <c r="J17" s="274"/>
-      <c r="K17" s="275"/>
-      <c r="L17" s="275"/>
-      <c r="M17" s="275"/>
-      <c r="N17" s="275"/>
-      <c r="O17" s="275"/>
-      <c r="P17" s="276"/>
-      <c r="Q17" s="277"/>
-      <c r="R17" s="278"/>
-      <c r="S17" s="278"/>
-      <c r="T17" s="278"/>
-      <c r="U17" s="278"/>
-      <c r="V17" s="278"/>
-      <c r="W17" s="278"/>
-      <c r="X17" s="278"/>
-      <c r="Y17" s="278"/>
-      <c r="Z17" s="278"/>
-      <c r="AA17" s="278"/>
-      <c r="AB17" s="278"/>
-      <c r="AC17" s="278"/>
-      <c r="AD17" s="278"/>
-      <c r="AE17" s="279"/>
-      <c r="AF17" s="274"/>
-      <c r="AG17" s="275"/>
-      <c r="AH17" s="275"/>
-      <c r="AI17" s="276"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="305"/>
+      <c r="D17" s="306"/>
+      <c r="E17" s="307"/>
+      <c r="F17" s="308"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="310"/>
+      <c r="K17" s="311"/>
+      <c r="L17" s="311"/>
+      <c r="M17" s="311"/>
+      <c r="N17" s="311"/>
+      <c r="O17" s="311"/>
+      <c r="P17" s="312"/>
+      <c r="Q17" s="313"/>
+      <c r="R17" s="314"/>
+      <c r="S17" s="314"/>
+      <c r="T17" s="314"/>
+      <c r="U17" s="314"/>
+      <c r="V17" s="314"/>
+      <c r="W17" s="314"/>
+      <c r="X17" s="314"/>
+      <c r="Y17" s="314"/>
+      <c r="Z17" s="314"/>
+      <c r="AA17" s="314"/>
+      <c r="AB17" s="314"/>
+      <c r="AC17" s="314"/>
+      <c r="AD17" s="314"/>
+      <c r="AE17" s="315"/>
+      <c r="AF17" s="310"/>
+      <c r="AG17" s="311"/>
+      <c r="AH17" s="311"/>
+      <c r="AI17" s="312"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="273"/>
-      <c r="I18" s="269"/>
-      <c r="J18" s="274"/>
-      <c r="K18" s="275"/>
-      <c r="L18" s="275"/>
-      <c r="M18" s="275"/>
-      <c r="N18" s="275"/>
-      <c r="O18" s="275"/>
-      <c r="P18" s="276"/>
-      <c r="Q18" s="277"/>
-      <c r="R18" s="278"/>
-      <c r="S18" s="278"/>
-      <c r="T18" s="278"/>
-      <c r="U18" s="278"/>
-      <c r="V18" s="278"/>
-      <c r="W18" s="278"/>
-      <c r="X18" s="278"/>
-      <c r="Y18" s="278"/>
-      <c r="Z18" s="278"/>
-      <c r="AA18" s="278"/>
-      <c r="AB18" s="278"/>
-      <c r="AC18" s="278"/>
-      <c r="AD18" s="278"/>
-      <c r="AE18" s="279"/>
-      <c r="AF18" s="274"/>
-      <c r="AG18" s="275"/>
-      <c r="AH18" s="275"/>
-      <c r="AI18" s="276"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="305"/>
+      <c r="D18" s="306"/>
+      <c r="E18" s="307"/>
+      <c r="F18" s="308"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="310"/>
+      <c r="K18" s="311"/>
+      <c r="L18" s="311"/>
+      <c r="M18" s="311"/>
+      <c r="N18" s="311"/>
+      <c r="O18" s="311"/>
+      <c r="P18" s="312"/>
+      <c r="Q18" s="313"/>
+      <c r="R18" s="314"/>
+      <c r="S18" s="314"/>
+      <c r="T18" s="314"/>
+      <c r="U18" s="314"/>
+      <c r="V18" s="314"/>
+      <c r="W18" s="314"/>
+      <c r="X18" s="314"/>
+      <c r="Y18" s="314"/>
+      <c r="Z18" s="314"/>
+      <c r="AA18" s="314"/>
+      <c r="AB18" s="314"/>
+      <c r="AC18" s="314"/>
+      <c r="AD18" s="314"/>
+      <c r="AE18" s="315"/>
+      <c r="AF18" s="310"/>
+      <c r="AG18" s="311"/>
+      <c r="AH18" s="311"/>
+      <c r="AI18" s="312"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="268"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="273"/>
-      <c r="I19" s="269"/>
-      <c r="J19" s="274"/>
-      <c r="K19" s="275"/>
-      <c r="L19" s="275"/>
-      <c r="M19" s="275"/>
-      <c r="N19" s="275"/>
-      <c r="O19" s="275"/>
-      <c r="P19" s="276"/>
-      <c r="Q19" s="277"/>
-      <c r="R19" s="278"/>
-      <c r="S19" s="278"/>
-      <c r="T19" s="278"/>
-      <c r="U19" s="278"/>
-      <c r="V19" s="278"/>
-      <c r="W19" s="278"/>
-      <c r="X19" s="278"/>
-      <c r="Y19" s="278"/>
-      <c r="Z19" s="278"/>
-      <c r="AA19" s="278"/>
-      <c r="AB19" s="278"/>
-      <c r="AC19" s="278"/>
-      <c r="AD19" s="278"/>
-      <c r="AE19" s="279"/>
-      <c r="AF19" s="274"/>
-      <c r="AG19" s="275"/>
-      <c r="AH19" s="275"/>
-      <c r="AI19" s="276"/>
+      <c r="B19" s="304"/>
+      <c r="C19" s="305"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="308"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="305"/>
+      <c r="J19" s="310"/>
+      <c r="K19" s="311"/>
+      <c r="L19" s="311"/>
+      <c r="M19" s="311"/>
+      <c r="N19" s="311"/>
+      <c r="O19" s="311"/>
+      <c r="P19" s="312"/>
+      <c r="Q19" s="313"/>
+      <c r="R19" s="314"/>
+      <c r="S19" s="314"/>
+      <c r="T19" s="314"/>
+      <c r="U19" s="314"/>
+      <c r="V19" s="314"/>
+      <c r="W19" s="314"/>
+      <c r="X19" s="314"/>
+      <c r="Y19" s="314"/>
+      <c r="Z19" s="314"/>
+      <c r="AA19" s="314"/>
+      <c r="AB19" s="314"/>
+      <c r="AC19" s="314"/>
+      <c r="AD19" s="314"/>
+      <c r="AE19" s="315"/>
+      <c r="AF19" s="310"/>
+      <c r="AG19" s="311"/>
+      <c r="AH19" s="311"/>
+      <c r="AI19" s="312"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="268"/>
-      <c r="C20" s="269"/>
-      <c r="D20" s="270"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="272"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="269"/>
-      <c r="J20" s="274"/>
-      <c r="K20" s="275"/>
-      <c r="L20" s="275"/>
-      <c r="M20" s="275"/>
-      <c r="N20" s="275"/>
-      <c r="O20" s="275"/>
-      <c r="P20" s="276"/>
-      <c r="Q20" s="277"/>
-      <c r="R20" s="278"/>
-      <c r="S20" s="278"/>
-      <c r="T20" s="278"/>
-      <c r="U20" s="278"/>
-      <c r="V20" s="278"/>
-      <c r="W20" s="278"/>
-      <c r="X20" s="278"/>
-      <c r="Y20" s="278"/>
-      <c r="Z20" s="278"/>
-      <c r="AA20" s="278"/>
-      <c r="AB20" s="278"/>
-      <c r="AC20" s="278"/>
-      <c r="AD20" s="278"/>
-      <c r="AE20" s="279"/>
-      <c r="AF20" s="274"/>
-      <c r="AG20" s="275"/>
-      <c r="AH20" s="275"/>
-      <c r="AI20" s="276"/>
+      <c r="B20" s="304"/>
+      <c r="C20" s="305"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="304"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="305"/>
+      <c r="J20" s="310"/>
+      <c r="K20" s="311"/>
+      <c r="L20" s="311"/>
+      <c r="M20" s="311"/>
+      <c r="N20" s="311"/>
+      <c r="O20" s="311"/>
+      <c r="P20" s="312"/>
+      <c r="Q20" s="313"/>
+      <c r="R20" s="314"/>
+      <c r="S20" s="314"/>
+      <c r="T20" s="314"/>
+      <c r="U20" s="314"/>
+      <c r="V20" s="314"/>
+      <c r="W20" s="314"/>
+      <c r="X20" s="314"/>
+      <c r="Y20" s="314"/>
+      <c r="Z20" s="314"/>
+      <c r="AA20" s="314"/>
+      <c r="AB20" s="314"/>
+      <c r="AC20" s="314"/>
+      <c r="AD20" s="314"/>
+      <c r="AE20" s="315"/>
+      <c r="AF20" s="310"/>
+      <c r="AG20" s="311"/>
+      <c r="AH20" s="311"/>
+      <c r="AI20" s="312"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="268"/>
-      <c r="C21" s="269"/>
-      <c r="D21" s="270"/>
-      <c r="E21" s="271"/>
-      <c r="F21" s="272"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="273"/>
-      <c r="I21" s="269"/>
-      <c r="J21" s="274"/>
-      <c r="K21" s="275"/>
-      <c r="L21" s="275"/>
-      <c r="M21" s="275"/>
-      <c r="N21" s="275"/>
-      <c r="O21" s="275"/>
-      <c r="P21" s="276"/>
-      <c r="Q21" s="277"/>
-      <c r="R21" s="278"/>
-      <c r="S21" s="278"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="278"/>
-      <c r="V21" s="278"/>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="278"/>
-      <c r="AA21" s="278"/>
-      <c r="AB21" s="278"/>
-      <c r="AC21" s="278"/>
-      <c r="AD21" s="278"/>
-      <c r="AE21" s="279"/>
-      <c r="AF21" s="274"/>
-      <c r="AG21" s="275"/>
-      <c r="AH21" s="275"/>
-      <c r="AI21" s="276"/>
+      <c r="B21" s="304"/>
+      <c r="C21" s="305"/>
+      <c r="D21" s="306"/>
+      <c r="E21" s="307"/>
+      <c r="F21" s="308"/>
+      <c r="G21" s="304"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="310"/>
+      <c r="K21" s="311"/>
+      <c r="L21" s="311"/>
+      <c r="M21" s="311"/>
+      <c r="N21" s="311"/>
+      <c r="O21" s="311"/>
+      <c r="P21" s="312"/>
+      <c r="Q21" s="313"/>
+      <c r="R21" s="314"/>
+      <c r="S21" s="314"/>
+      <c r="T21" s="314"/>
+      <c r="U21" s="314"/>
+      <c r="V21" s="314"/>
+      <c r="W21" s="314"/>
+      <c r="X21" s="314"/>
+      <c r="Y21" s="314"/>
+      <c r="Z21" s="314"/>
+      <c r="AA21" s="314"/>
+      <c r="AB21" s="314"/>
+      <c r="AC21" s="314"/>
+      <c r="AD21" s="314"/>
+      <c r="AE21" s="315"/>
+      <c r="AF21" s="310"/>
+      <c r="AG21" s="311"/>
+      <c r="AH21" s="311"/>
+      <c r="AI21" s="312"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="268"/>
-      <c r="C22" s="269"/>
-      <c r="D22" s="270"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="272"/>
-      <c r="G22" s="268"/>
-      <c r="H22" s="273"/>
-      <c r="I22" s="269"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="275"/>
-      <c r="L22" s="275"/>
-      <c r="M22" s="275"/>
-      <c r="N22" s="275"/>
-      <c r="O22" s="275"/>
-      <c r="P22" s="276"/>
-      <c r="Q22" s="277"/>
-      <c r="R22" s="278"/>
-      <c r="S22" s="278"/>
-      <c r="T22" s="278"/>
-      <c r="U22" s="278"/>
-      <c r="V22" s="278"/>
-      <c r="W22" s="278"/>
-      <c r="X22" s="278"/>
-      <c r="Y22" s="278"/>
-      <c r="Z22" s="278"/>
-      <c r="AA22" s="278"/>
-      <c r="AB22" s="278"/>
-      <c r="AC22" s="278"/>
-      <c r="AD22" s="278"/>
-      <c r="AE22" s="279"/>
-      <c r="AF22" s="274"/>
-      <c r="AG22" s="275"/>
-      <c r="AH22" s="275"/>
-      <c r="AI22" s="276"/>
+      <c r="B22" s="304"/>
+      <c r="C22" s="305"/>
+      <c r="D22" s="306"/>
+      <c r="E22" s="307"/>
+      <c r="F22" s="308"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="309"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="310"/>
+      <c r="K22" s="311"/>
+      <c r="L22" s="311"/>
+      <c r="M22" s="311"/>
+      <c r="N22" s="311"/>
+      <c r="O22" s="311"/>
+      <c r="P22" s="312"/>
+      <c r="Q22" s="313"/>
+      <c r="R22" s="314"/>
+      <c r="S22" s="314"/>
+      <c r="T22" s="314"/>
+      <c r="U22" s="314"/>
+      <c r="V22" s="314"/>
+      <c r="W22" s="314"/>
+      <c r="X22" s="314"/>
+      <c r="Y22" s="314"/>
+      <c r="Z22" s="314"/>
+      <c r="AA22" s="314"/>
+      <c r="AB22" s="314"/>
+      <c r="AC22" s="314"/>
+      <c r="AD22" s="314"/>
+      <c r="AE22" s="315"/>
+      <c r="AF22" s="310"/>
+      <c r="AG22" s="311"/>
+      <c r="AH22" s="311"/>
+      <c r="AI22" s="312"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="268"/>
-      <c r="C23" s="269"/>
-      <c r="D23" s="270"/>
-      <c r="E23" s="271"/>
-      <c r="F23" s="272"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="273"/>
-      <c r="I23" s="269"/>
-      <c r="J23" s="274"/>
-      <c r="K23" s="275"/>
-      <c r="L23" s="275"/>
-      <c r="M23" s="275"/>
-      <c r="N23" s="275"/>
-      <c r="O23" s="275"/>
-      <c r="P23" s="276"/>
-      <c r="Q23" s="277"/>
-      <c r="R23" s="278"/>
-      <c r="S23" s="278"/>
-      <c r="T23" s="278"/>
-      <c r="U23" s="278"/>
-      <c r="V23" s="278"/>
-      <c r="W23" s="278"/>
-      <c r="X23" s="278"/>
-      <c r="Y23" s="278"/>
-      <c r="Z23" s="278"/>
-      <c r="AA23" s="278"/>
-      <c r="AB23" s="278"/>
-      <c r="AC23" s="278"/>
-      <c r="AD23" s="278"/>
-      <c r="AE23" s="279"/>
-      <c r="AF23" s="274"/>
-      <c r="AG23" s="275"/>
-      <c r="AH23" s="275"/>
-      <c r="AI23" s="276"/>
+      <c r="B23" s="304"/>
+      <c r="C23" s="305"/>
+      <c r="D23" s="306"/>
+      <c r="E23" s="307"/>
+      <c r="F23" s="308"/>
+      <c r="G23" s="304"/>
+      <c r="H23" s="309"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="310"/>
+      <c r="K23" s="311"/>
+      <c r="L23" s="311"/>
+      <c r="M23" s="311"/>
+      <c r="N23" s="311"/>
+      <c r="O23" s="311"/>
+      <c r="P23" s="312"/>
+      <c r="Q23" s="313"/>
+      <c r="R23" s="314"/>
+      <c r="S23" s="314"/>
+      <c r="T23" s="314"/>
+      <c r="U23" s="314"/>
+      <c r="V23" s="314"/>
+      <c r="W23" s="314"/>
+      <c r="X23" s="314"/>
+      <c r="Y23" s="314"/>
+      <c r="Z23" s="314"/>
+      <c r="AA23" s="314"/>
+      <c r="AB23" s="314"/>
+      <c r="AC23" s="314"/>
+      <c r="AD23" s="314"/>
+      <c r="AE23" s="315"/>
+      <c r="AF23" s="310"/>
+      <c r="AG23" s="311"/>
+      <c r="AH23" s="311"/>
+      <c r="AI23" s="312"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="268"/>
-      <c r="C24" s="269"/>
-      <c r="D24" s="270"/>
-      <c r="E24" s="271"/>
-      <c r="F24" s="272"/>
-      <c r="G24" s="268"/>
-      <c r="H24" s="273"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="274"/>
-      <c r="K24" s="275"/>
-      <c r="L24" s="275"/>
-      <c r="M24" s="275"/>
-      <c r="N24" s="275"/>
-      <c r="O24" s="275"/>
-      <c r="P24" s="276"/>
-      <c r="Q24" s="277"/>
-      <c r="R24" s="278"/>
-      <c r="S24" s="278"/>
-      <c r="T24" s="278"/>
-      <c r="U24" s="278"/>
-      <c r="V24" s="278"/>
-      <c r="W24" s="278"/>
-      <c r="X24" s="278"/>
-      <c r="Y24" s="278"/>
-      <c r="Z24" s="278"/>
-      <c r="AA24" s="278"/>
-      <c r="AB24" s="278"/>
-      <c r="AC24" s="278"/>
-      <c r="AD24" s="278"/>
-      <c r="AE24" s="279"/>
-      <c r="AF24" s="274"/>
-      <c r="AG24" s="275"/>
-      <c r="AH24" s="275"/>
-      <c r="AI24" s="276"/>
+      <c r="B24" s="304"/>
+      <c r="C24" s="305"/>
+      <c r="D24" s="306"/>
+      <c r="E24" s="307"/>
+      <c r="F24" s="308"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="309"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="310"/>
+      <c r="K24" s="311"/>
+      <c r="L24" s="311"/>
+      <c r="M24" s="311"/>
+      <c r="N24" s="311"/>
+      <c r="O24" s="311"/>
+      <c r="P24" s="312"/>
+      <c r="Q24" s="313"/>
+      <c r="R24" s="314"/>
+      <c r="S24" s="314"/>
+      <c r="T24" s="314"/>
+      <c r="U24" s="314"/>
+      <c r="V24" s="314"/>
+      <c r="W24" s="314"/>
+      <c r="X24" s="314"/>
+      <c r="Y24" s="314"/>
+      <c r="Z24" s="314"/>
+      <c r="AA24" s="314"/>
+      <c r="AB24" s="314"/>
+      <c r="AC24" s="314"/>
+      <c r="AD24" s="314"/>
+      <c r="AE24" s="315"/>
+      <c r="AF24" s="310"/>
+      <c r="AG24" s="311"/>
+      <c r="AH24" s="311"/>
+      <c r="AI24" s="312"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="268"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="271"/>
-      <c r="F25" s="272"/>
-      <c r="G25" s="268"/>
-      <c r="H25" s="273"/>
-      <c r="I25" s="269"/>
-      <c r="J25" s="274"/>
-      <c r="K25" s="275"/>
-      <c r="L25" s="275"/>
-      <c r="M25" s="275"/>
-      <c r="N25" s="275"/>
-      <c r="O25" s="275"/>
-      <c r="P25" s="276"/>
-      <c r="Q25" s="277"/>
-      <c r="R25" s="278"/>
-      <c r="S25" s="278"/>
-      <c r="T25" s="278"/>
-      <c r="U25" s="278"/>
-      <c r="V25" s="278"/>
-      <c r="W25" s="278"/>
-      <c r="X25" s="278"/>
-      <c r="Y25" s="278"/>
-      <c r="Z25" s="278"/>
-      <c r="AA25" s="278"/>
-      <c r="AB25" s="278"/>
-      <c r="AC25" s="278"/>
-      <c r="AD25" s="278"/>
-      <c r="AE25" s="279"/>
-      <c r="AF25" s="274"/>
-      <c r="AG25" s="275"/>
-      <c r="AH25" s="275"/>
-      <c r="AI25" s="276"/>
+      <c r="B25" s="304"/>
+      <c r="C25" s="305"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="307"/>
+      <c r="F25" s="308"/>
+      <c r="G25" s="304"/>
+      <c r="H25" s="309"/>
+      <c r="I25" s="305"/>
+      <c r="J25" s="310"/>
+      <c r="K25" s="311"/>
+      <c r="L25" s="311"/>
+      <c r="M25" s="311"/>
+      <c r="N25" s="311"/>
+      <c r="O25" s="311"/>
+      <c r="P25" s="312"/>
+      <c r="Q25" s="313"/>
+      <c r="R25" s="314"/>
+      <c r="S25" s="314"/>
+      <c r="T25" s="314"/>
+      <c r="U25" s="314"/>
+      <c r="V25" s="314"/>
+      <c r="W25" s="314"/>
+      <c r="X25" s="314"/>
+      <c r="Y25" s="314"/>
+      <c r="Z25" s="314"/>
+      <c r="AA25" s="314"/>
+      <c r="AB25" s="314"/>
+      <c r="AC25" s="314"/>
+      <c r="AD25" s="314"/>
+      <c r="AE25" s="315"/>
+      <c r="AF25" s="310"/>
+      <c r="AG25" s="311"/>
+      <c r="AH25" s="311"/>
+      <c r="AI25" s="312"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="268"/>
-      <c r="C26" s="269"/>
-      <c r="D26" s="270"/>
-      <c r="E26" s="271"/>
-      <c r="F26" s="272"/>
-      <c r="G26" s="268"/>
-      <c r="H26" s="273"/>
-      <c r="I26" s="269"/>
-      <c r="J26" s="274"/>
-      <c r="K26" s="275"/>
-      <c r="L26" s="275"/>
-      <c r="M26" s="275"/>
-      <c r="N26" s="275"/>
-      <c r="O26" s="275"/>
-      <c r="P26" s="276"/>
-      <c r="Q26" s="277"/>
-      <c r="R26" s="278"/>
-      <c r="S26" s="278"/>
-      <c r="T26" s="278"/>
-      <c r="U26" s="278"/>
-      <c r="V26" s="278"/>
-      <c r="W26" s="278"/>
-      <c r="X26" s="278"/>
-      <c r="Y26" s="278"/>
-      <c r="Z26" s="278"/>
-      <c r="AA26" s="278"/>
-      <c r="AB26" s="278"/>
-      <c r="AC26" s="278"/>
-      <c r="AD26" s="278"/>
-      <c r="AE26" s="279"/>
-      <c r="AF26" s="274"/>
-      <c r="AG26" s="275"/>
-      <c r="AH26" s="275"/>
-      <c r="AI26" s="276"/>
+      <c r="B26" s="304"/>
+      <c r="C26" s="305"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="308"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="309"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="310"/>
+      <c r="K26" s="311"/>
+      <c r="L26" s="311"/>
+      <c r="M26" s="311"/>
+      <c r="N26" s="311"/>
+      <c r="O26" s="311"/>
+      <c r="P26" s="312"/>
+      <c r="Q26" s="313"/>
+      <c r="R26" s="314"/>
+      <c r="S26" s="314"/>
+      <c r="T26" s="314"/>
+      <c r="U26" s="314"/>
+      <c r="V26" s="314"/>
+      <c r="W26" s="314"/>
+      <c r="X26" s="314"/>
+      <c r="Y26" s="314"/>
+      <c r="Z26" s="314"/>
+      <c r="AA26" s="314"/>
+      <c r="AB26" s="314"/>
+      <c r="AC26" s="314"/>
+      <c r="AD26" s="314"/>
+      <c r="AE26" s="315"/>
+      <c r="AF26" s="310"/>
+      <c r="AG26" s="311"/>
+      <c r="AH26" s="311"/>
+      <c r="AI26" s="312"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="268"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="270"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="273"/>
-      <c r="I27" s="269"/>
-      <c r="J27" s="274"/>
-      <c r="K27" s="275"/>
-      <c r="L27" s="275"/>
-      <c r="M27" s="275"/>
-      <c r="N27" s="275"/>
-      <c r="O27" s="275"/>
-      <c r="P27" s="276"/>
-      <c r="Q27" s="277"/>
-      <c r="R27" s="278"/>
-      <c r="S27" s="278"/>
-      <c r="T27" s="278"/>
-      <c r="U27" s="278"/>
-      <c r="V27" s="278"/>
-      <c r="W27" s="278"/>
-      <c r="X27" s="278"/>
-      <c r="Y27" s="278"/>
-      <c r="Z27" s="278"/>
-      <c r="AA27" s="278"/>
-      <c r="AB27" s="278"/>
-      <c r="AC27" s="278"/>
-      <c r="AD27" s="278"/>
-      <c r="AE27" s="279"/>
-      <c r="AF27" s="274"/>
-      <c r="AG27" s="275"/>
-      <c r="AH27" s="275"/>
-      <c r="AI27" s="276"/>
+      <c r="B27" s="304"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="307"/>
+      <c r="F27" s="308"/>
+      <c r="G27" s="304"/>
+      <c r="H27" s="309"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="310"/>
+      <c r="K27" s="311"/>
+      <c r="L27" s="311"/>
+      <c r="M27" s="311"/>
+      <c r="N27" s="311"/>
+      <c r="O27" s="311"/>
+      <c r="P27" s="312"/>
+      <c r="Q27" s="313"/>
+      <c r="R27" s="314"/>
+      <c r="S27" s="314"/>
+      <c r="T27" s="314"/>
+      <c r="U27" s="314"/>
+      <c r="V27" s="314"/>
+      <c r="W27" s="314"/>
+      <c r="X27" s="314"/>
+      <c r="Y27" s="314"/>
+      <c r="Z27" s="314"/>
+      <c r="AA27" s="314"/>
+      <c r="AB27" s="314"/>
+      <c r="AC27" s="314"/>
+      <c r="AD27" s="314"/>
+      <c r="AE27" s="315"/>
+      <c r="AF27" s="310"/>
+      <c r="AG27" s="311"/>
+      <c r="AH27" s="311"/>
+      <c r="AI27" s="312"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="268"/>
-      <c r="C28" s="269"/>
-      <c r="D28" s="270"/>
-      <c r="E28" s="271"/>
-      <c r="F28" s="272"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="273"/>
-      <c r="I28" s="269"/>
-      <c r="J28" s="274"/>
-      <c r="K28" s="275"/>
-      <c r="L28" s="275"/>
-      <c r="M28" s="275"/>
-      <c r="N28" s="275"/>
-      <c r="O28" s="275"/>
-      <c r="P28" s="276"/>
-      <c r="Q28" s="277"/>
-      <c r="R28" s="278"/>
-      <c r="S28" s="278"/>
-      <c r="T28" s="278"/>
-      <c r="U28" s="278"/>
-      <c r="V28" s="278"/>
-      <c r="W28" s="278"/>
-      <c r="X28" s="278"/>
-      <c r="Y28" s="278"/>
-      <c r="Z28" s="278"/>
-      <c r="AA28" s="278"/>
-      <c r="AB28" s="278"/>
-      <c r="AC28" s="278"/>
-      <c r="AD28" s="278"/>
-      <c r="AE28" s="279"/>
-      <c r="AF28" s="274"/>
-      <c r="AG28" s="275"/>
-      <c r="AH28" s="275"/>
-      <c r="AI28" s="276"/>
+      <c r="B28" s="304"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="307"/>
+      <c r="F28" s="308"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="309"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="310"/>
+      <c r="K28" s="311"/>
+      <c r="L28" s="311"/>
+      <c r="M28" s="311"/>
+      <c r="N28" s="311"/>
+      <c r="O28" s="311"/>
+      <c r="P28" s="312"/>
+      <c r="Q28" s="313"/>
+      <c r="R28" s="314"/>
+      <c r="S28" s="314"/>
+      <c r="T28" s="314"/>
+      <c r="U28" s="314"/>
+      <c r="V28" s="314"/>
+      <c r="W28" s="314"/>
+      <c r="X28" s="314"/>
+      <c r="Y28" s="314"/>
+      <c r="Z28" s="314"/>
+      <c r="AA28" s="314"/>
+      <c r="AB28" s="314"/>
+      <c r="AC28" s="314"/>
+      <c r="AD28" s="314"/>
+      <c r="AE28" s="315"/>
+      <c r="AF28" s="310"/>
+      <c r="AG28" s="311"/>
+      <c r="AH28" s="311"/>
+      <c r="AI28" s="312"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="268"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="268"/>
-      <c r="H29" s="273"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="274"/>
-      <c r="K29" s="275"/>
-      <c r="L29" s="275"/>
-      <c r="M29" s="275"/>
-      <c r="N29" s="275"/>
-      <c r="O29" s="275"/>
-      <c r="P29" s="276"/>
-      <c r="Q29" s="277"/>
-      <c r="R29" s="278"/>
-      <c r="S29" s="278"/>
-      <c r="T29" s="278"/>
-      <c r="U29" s="278"/>
-      <c r="V29" s="278"/>
-      <c r="W29" s="278"/>
-      <c r="X29" s="278"/>
-      <c r="Y29" s="278"/>
-      <c r="Z29" s="278"/>
-      <c r="AA29" s="278"/>
-      <c r="AB29" s="278"/>
-      <c r="AC29" s="278"/>
-      <c r="AD29" s="278"/>
-      <c r="AE29" s="279"/>
-      <c r="AF29" s="274"/>
-      <c r="AG29" s="275"/>
-      <c r="AH29" s="275"/>
-      <c r="AI29" s="276"/>
+      <c r="B29" s="304"/>
+      <c r="C29" s="305"/>
+      <c r="D29" s="306"/>
+      <c r="E29" s="307"/>
+      <c r="F29" s="308"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="311"/>
+      <c r="L29" s="311"/>
+      <c r="M29" s="311"/>
+      <c r="N29" s="311"/>
+      <c r="O29" s="311"/>
+      <c r="P29" s="312"/>
+      <c r="Q29" s="313"/>
+      <c r="R29" s="314"/>
+      <c r="S29" s="314"/>
+      <c r="T29" s="314"/>
+      <c r="U29" s="314"/>
+      <c r="V29" s="314"/>
+      <c r="W29" s="314"/>
+      <c r="X29" s="314"/>
+      <c r="Y29" s="314"/>
+      <c r="Z29" s="314"/>
+      <c r="AA29" s="314"/>
+      <c r="AB29" s="314"/>
+      <c r="AC29" s="314"/>
+      <c r="AD29" s="314"/>
+      <c r="AE29" s="315"/>
+      <c r="AF29" s="310"/>
+      <c r="AG29" s="311"/>
+      <c r="AH29" s="311"/>
+      <c r="AI29" s="312"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="268"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="272"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="273"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="274"/>
-      <c r="K30" s="275"/>
-      <c r="L30" s="275"/>
-      <c r="M30" s="275"/>
-      <c r="N30" s="275"/>
-      <c r="O30" s="275"/>
-      <c r="P30" s="276"/>
-      <c r="Q30" s="277"/>
-      <c r="R30" s="278"/>
-      <c r="S30" s="278"/>
-      <c r="T30" s="278"/>
-      <c r="U30" s="278"/>
-      <c r="V30" s="278"/>
-      <c r="W30" s="278"/>
-      <c r="X30" s="278"/>
-      <c r="Y30" s="278"/>
-      <c r="Z30" s="278"/>
-      <c r="AA30" s="278"/>
-      <c r="AB30" s="278"/>
-      <c r="AC30" s="278"/>
-      <c r="AD30" s="278"/>
-      <c r="AE30" s="279"/>
-      <c r="AF30" s="274"/>
-      <c r="AG30" s="275"/>
-      <c r="AH30" s="275"/>
-      <c r="AI30" s="276"/>
+      <c r="B30" s="304"/>
+      <c r="C30" s="305"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="307"/>
+      <c r="F30" s="308"/>
+      <c r="G30" s="304"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="310"/>
+      <c r="K30" s="311"/>
+      <c r="L30" s="311"/>
+      <c r="M30" s="311"/>
+      <c r="N30" s="311"/>
+      <c r="O30" s="311"/>
+      <c r="P30" s="312"/>
+      <c r="Q30" s="313"/>
+      <c r="R30" s="314"/>
+      <c r="S30" s="314"/>
+      <c r="T30" s="314"/>
+      <c r="U30" s="314"/>
+      <c r="V30" s="314"/>
+      <c r="W30" s="314"/>
+      <c r="X30" s="314"/>
+      <c r="Y30" s="314"/>
+      <c r="Z30" s="314"/>
+      <c r="AA30" s="314"/>
+      <c r="AB30" s="314"/>
+      <c r="AC30" s="314"/>
+      <c r="AD30" s="314"/>
+      <c r="AE30" s="315"/>
+      <c r="AF30" s="310"/>
+      <c r="AG30" s="311"/>
+      <c r="AH30" s="311"/>
+      <c r="AI30" s="312"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="268"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="273"/>
-      <c r="I31" s="269"/>
-      <c r="J31" s="274"/>
-      <c r="K31" s="275"/>
-      <c r="L31" s="275"/>
-      <c r="M31" s="275"/>
-      <c r="N31" s="275"/>
-      <c r="O31" s="275"/>
-      <c r="P31" s="276"/>
-      <c r="Q31" s="277"/>
-      <c r="R31" s="278"/>
-      <c r="S31" s="278"/>
-      <c r="T31" s="278"/>
-      <c r="U31" s="278"/>
-      <c r="V31" s="278"/>
-      <c r="W31" s="278"/>
-      <c r="X31" s="278"/>
-      <c r="Y31" s="278"/>
-      <c r="Z31" s="278"/>
-      <c r="AA31" s="278"/>
-      <c r="AB31" s="278"/>
-      <c r="AC31" s="278"/>
-      <c r="AD31" s="278"/>
-      <c r="AE31" s="279"/>
-      <c r="AF31" s="274"/>
-      <c r="AG31" s="275"/>
-      <c r="AH31" s="275"/>
-      <c r="AI31" s="276"/>
+      <c r="B31" s="304"/>
+      <c r="C31" s="305"/>
+      <c r="D31" s="306"/>
+      <c r="E31" s="307"/>
+      <c r="F31" s="308"/>
+      <c r="G31" s="304"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="305"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="311"/>
+      <c r="L31" s="311"/>
+      <c r="M31" s="311"/>
+      <c r="N31" s="311"/>
+      <c r="O31" s="311"/>
+      <c r="P31" s="312"/>
+      <c r="Q31" s="313"/>
+      <c r="R31" s="314"/>
+      <c r="S31" s="314"/>
+      <c r="T31" s="314"/>
+      <c r="U31" s="314"/>
+      <c r="V31" s="314"/>
+      <c r="W31" s="314"/>
+      <c r="X31" s="314"/>
+      <c r="Y31" s="314"/>
+      <c r="Z31" s="314"/>
+      <c r="AA31" s="314"/>
+      <c r="AB31" s="314"/>
+      <c r="AC31" s="314"/>
+      <c r="AD31" s="314"/>
+      <c r="AE31" s="315"/>
+      <c r="AF31" s="310"/>
+      <c r="AG31" s="311"/>
+      <c r="AH31" s="311"/>
+      <c r="AI31" s="312"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="268"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="273"/>
-      <c r="I32" s="269"/>
-      <c r="J32" s="274"/>
-      <c r="K32" s="280"/>
-      <c r="L32" s="275"/>
-      <c r="M32" s="275"/>
-      <c r="N32" s="275"/>
-      <c r="O32" s="275"/>
-      <c r="P32" s="276"/>
-      <c r="Q32" s="277"/>
-      <c r="R32" s="278"/>
-      <c r="S32" s="278"/>
-      <c r="T32" s="278"/>
-      <c r="U32" s="278"/>
-      <c r="V32" s="278"/>
-      <c r="W32" s="278"/>
-      <c r="X32" s="278"/>
-      <c r="Y32" s="278"/>
-      <c r="Z32" s="278"/>
-      <c r="AA32" s="278"/>
-      <c r="AB32" s="278"/>
-      <c r="AC32" s="278"/>
-      <c r="AD32" s="278"/>
-      <c r="AE32" s="279"/>
-      <c r="AF32" s="274"/>
-      <c r="AG32" s="275"/>
-      <c r="AH32" s="275"/>
-      <c r="AI32" s="276"/>
+      <c r="B32" s="304"/>
+      <c r="C32" s="305"/>
+      <c r="D32" s="306"/>
+      <c r="E32" s="307"/>
+      <c r="F32" s="308"/>
+      <c r="G32" s="304"/>
+      <c r="H32" s="309"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="310"/>
+      <c r="K32" s="329"/>
+      <c r="L32" s="311"/>
+      <c r="M32" s="311"/>
+      <c r="N32" s="311"/>
+      <c r="O32" s="311"/>
+      <c r="P32" s="312"/>
+      <c r="Q32" s="313"/>
+      <c r="R32" s="314"/>
+      <c r="S32" s="314"/>
+      <c r="T32" s="314"/>
+      <c r="U32" s="314"/>
+      <c r="V32" s="314"/>
+      <c r="W32" s="314"/>
+      <c r="X32" s="314"/>
+      <c r="Y32" s="314"/>
+      <c r="Z32" s="314"/>
+      <c r="AA32" s="314"/>
+      <c r="AB32" s="314"/>
+      <c r="AC32" s="314"/>
+      <c r="AD32" s="314"/>
+      <c r="AE32" s="315"/>
+      <c r="AF32" s="310"/>
+      <c r="AG32" s="311"/>
+      <c r="AH32" s="311"/>
+      <c r="AI32" s="312"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="273"/>
-      <c r="I33" s="269"/>
-      <c r="J33" s="274"/>
-      <c r="K33" s="275"/>
-      <c r="L33" s="275"/>
-      <c r="M33" s="275"/>
-      <c r="N33" s="275"/>
-      <c r="O33" s="275"/>
-      <c r="P33" s="276"/>
-      <c r="Q33" s="277"/>
-      <c r="R33" s="278"/>
-      <c r="S33" s="278"/>
-      <c r="T33" s="278"/>
-      <c r="U33" s="278"/>
-      <c r="V33" s="278"/>
-      <c r="W33" s="278"/>
-      <c r="X33" s="278"/>
-      <c r="Y33" s="278"/>
-      <c r="Z33" s="278"/>
-      <c r="AA33" s="278"/>
-      <c r="AB33" s="278"/>
-      <c r="AC33" s="278"/>
-      <c r="AD33" s="278"/>
-      <c r="AE33" s="279"/>
-      <c r="AF33" s="274"/>
-      <c r="AG33" s="275"/>
-      <c r="AH33" s="275"/>
-      <c r="AI33" s="276"/>
+      <c r="B33" s="304"/>
+      <c r="C33" s="305"/>
+      <c r="D33" s="306"/>
+      <c r="E33" s="307"/>
+      <c r="F33" s="308"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="310"/>
+      <c r="K33" s="311"/>
+      <c r="L33" s="311"/>
+      <c r="M33" s="311"/>
+      <c r="N33" s="311"/>
+      <c r="O33" s="311"/>
+      <c r="P33" s="312"/>
+      <c r="Q33" s="313"/>
+      <c r="R33" s="314"/>
+      <c r="S33" s="314"/>
+      <c r="T33" s="314"/>
+      <c r="U33" s="314"/>
+      <c r="V33" s="314"/>
+      <c r="W33" s="314"/>
+      <c r="X33" s="314"/>
+      <c r="Y33" s="314"/>
+      <c r="Z33" s="314"/>
+      <c r="AA33" s="314"/>
+      <c r="AB33" s="314"/>
+      <c r="AC33" s="314"/>
+      <c r="AD33" s="314"/>
+      <c r="AE33" s="315"/>
+      <c r="AF33" s="310"/>
+      <c r="AG33" s="311"/>
+      <c r="AH33" s="311"/>
+      <c r="AI33" s="312"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15148,162 +15289,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -27036,7 +27021,7 @@
         <v>676</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K47" s="53" t="s">
         <v>677</v>
@@ -27076,7 +27061,7 @@
         <v>676</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K48" s="83" t="s">
         <v>669</v>
@@ -27256,7 +27241,7 @@
         <v>676</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K53" s="33" t="s">
         <v>680</v>
@@ -27294,7 +27279,7 @@
         <v>676</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K54" s="33" t="s">
         <v>681</v>
@@ -27334,7 +27319,7 @@
         <v>676</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K55" s="83" t="s">
         <v>669</v>
@@ -27372,7 +27357,7 @@
         <v>676</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K56" s="33" t="s">
         <v>681</v>
@@ -27764,7 +27749,7 @@
         <v>666</v>
       </c>
       <c r="J67" s="83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K67" s="33" t="s">
         <v>686</v>
@@ -27802,7 +27787,7 @@
         <v>666</v>
       </c>
       <c r="J68" s="83" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K68" s="33" t="s">
         <v>687</v>
@@ -28220,7 +28205,7 @@
         <v>666</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K80" s="53" t="s">
         <v>691</v>
@@ -28258,7 +28243,7 @@
         <v>666</v>
       </c>
       <c r="J81" s="53" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K81" s="53" t="s">
         <v>692</v>
@@ -28296,7 +28281,7 @@
         <v>666</v>
       </c>
       <c r="J82" s="53" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K82" s="53" t="s">
         <v>687</v>
@@ -28514,7 +28499,7 @@
         <v>666</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K88" s="33" t="s">
         <v>677</v>
@@ -28554,7 +28539,7 @@
         <v>666</v>
       </c>
       <c r="J89" s="124" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K89" s="83" t="s">
         <v>669</v>
@@ -28890,7 +28875,7 @@
         <v>666</v>
       </c>
       <c r="J98" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K98" s="120" t="s">
         <v>699</v>
@@ -28928,7 +28913,7 @@
         <v>666</v>
       </c>
       <c r="J99" s="33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K99" s="120" t="s">
         <v>699</v>
@@ -28974,7 +28959,7 @@
       <c r="P100" s="102"/>
       <c r="Q100" s="102"/>
     </row>
-    <row r="101" spans="1:17" ht="33.75">
+    <row r="101" spans="1:17" ht="101.25">
       <c r="A101" s="54" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -28990,25 +28975,31 @@
       <c r="B101" s="201"/>
       <c r="C101" s="199"/>
       <c r="D101" s="201"/>
-      <c r="E101" s="127" t="s">
+      <c r="E101" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="F101" s="99" t="s">
+      <c r="F101" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="G101" s="100"/>
-      <c r="H101" s="101"/>
-      <c r="I101" s="101"/>
-      <c r="J101" s="102" t="s">
-        <v>701</v>
-      </c>
-      <c r="K101" s="102"/>
-      <c r="L101" s="101"/>
-      <c r="M101" s="101"/>
-      <c r="N101" s="101"/>
-      <c r="O101" s="127"/>
-      <c r="P101" s="102"/>
-      <c r="Q101" s="102"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="124" t="s">
+        <v>664</v>
+      </c>
+      <c r="I101" s="124" t="s">
+        <v>666</v>
+      </c>
+      <c r="J101" s="33" t="s">
+        <v>800</v>
+      </c>
+      <c r="K101" s="120" t="s">
+        <v>811</v>
+      </c>
+      <c r="L101" s="120"/>
+      <c r="M101" s="120"/>
+      <c r="N101" s="120"/>
+      <c r="O101" s="132"/>
+      <c r="P101" s="83"/>
+      <c r="Q101" s="83"/>
     </row>
     <row r="102" spans="1:17" ht="33.75">
       <c r="A102" s="54" t="str" cm="1">
@@ -29036,7 +29027,7 @@
       <c r="H102" s="101"/>
       <c r="I102" s="101"/>
       <c r="J102" s="102" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K102" s="102"/>
       <c r="L102" s="101"/>
@@ -29070,7 +29061,7 @@
       <c r="H103" s="101"/>
       <c r="I103" s="101"/>
       <c r="J103" s="102" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K103" s="102"/>
       <c r="L103" s="101"/>
@@ -29106,7 +29097,7 @@
       <c r="H104" s="101"/>
       <c r="I104" s="101"/>
       <c r="J104" s="102" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K104" s="102"/>
       <c r="L104" s="101"/>
@@ -29146,7 +29137,7 @@
       <c r="H105" s="101"/>
       <c r="I105" s="101"/>
       <c r="J105" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K105" s="102"/>
       <c r="L105" s="101"/>
@@ -29180,7 +29171,7 @@
       <c r="H106" s="101"/>
       <c r="I106" s="101"/>
       <c r="J106" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K106" s="102"/>
       <c r="L106" s="101"/>
@@ -29214,7 +29205,7 @@
       <c r="H107" s="101"/>
       <c r="I107" s="101"/>
       <c r="J107" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K107" s="102"/>
       <c r="L107" s="101"/>
@@ -29248,7 +29239,7 @@
       <c r="H108" s="101"/>
       <c r="I108" s="101"/>
       <c r="J108" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K108" s="102"/>
       <c r="L108" s="101"/>
@@ -29282,7 +29273,7 @@
       <c r="H109" s="101"/>
       <c r="I109" s="101"/>
       <c r="J109" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K109" s="102"/>
       <c r="L109" s="101"/>
@@ -29318,7 +29309,7 @@
       <c r="H110" s="101"/>
       <c r="I110" s="101"/>
       <c r="J110" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K110" s="102"/>
       <c r="L110" s="101"/>
@@ -29352,7 +29343,7 @@
       <c r="H111" s="101"/>
       <c r="I111" s="101"/>
       <c r="J111" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K111" s="102"/>
       <c r="L111" s="101"/>
@@ -29386,7 +29377,7 @@
       <c r="H112" s="101"/>
       <c r="I112" s="101"/>
       <c r="J112" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K112" s="102"/>
       <c r="L112" s="101"/>
@@ -29420,7 +29411,7 @@
       <c r="H113" s="101"/>
       <c r="I113" s="101"/>
       <c r="J113" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K113" s="102"/>
       <c r="L113" s="101"/>
@@ -29454,7 +29445,7 @@
       <c r="H114" s="101"/>
       <c r="I114" s="101"/>
       <c r="J114" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K114" s="102"/>
       <c r="L114" s="101"/>
@@ -29490,7 +29481,7 @@
       <c r="H115" s="101"/>
       <c r="I115" s="101"/>
       <c r="J115" s="102" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K115" s="102"/>
       <c r="L115" s="101"/>
@@ -29532,7 +29523,7 @@
       <c r="H116" s="101"/>
       <c r="I116" s="101"/>
       <c r="J116" s="102" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K116" s="102"/>
       <c r="L116" s="101"/>
@@ -29572,7 +29563,7 @@
       <c r="H117" s="101"/>
       <c r="I117" s="101"/>
       <c r="J117" s="102" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K117" s="102"/>
       <c r="L117" s="101"/>
@@ -29606,7 +29597,7 @@
       <c r="H118" s="101"/>
       <c r="I118" s="101"/>
       <c r="J118" s="102" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K118" s="102"/>
       <c r="L118" s="101"/>
@@ -29646,7 +29637,7 @@
       <c r="H119" s="101"/>
       <c r="I119" s="101"/>
       <c r="J119" s="102" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K119" s="102"/>
       <c r="L119" s="101"/>
@@ -29686,7 +29677,7 @@
       <c r="H120" s="101"/>
       <c r="I120" s="101"/>
       <c r="J120" s="102" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K120" s="102"/>
       <c r="L120" s="101"/>
@@ -29720,7 +29711,7 @@
       <c r="H121" s="101"/>
       <c r="I121" s="101"/>
       <c r="J121" s="102" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K121" s="102"/>
       <c r="L121" s="101"/>
@@ -36326,16 +36317,16 @@
       </c>
       <c r="G309" s="33"/>
       <c r="H309" s="124" t="s">
+        <v>707</v>
+      </c>
+      <c r="I309" s="124" t="s">
         <v>708</v>
       </c>
-      <c r="I309" s="124" t="s">
+      <c r="J309" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K309" s="33" t="s">
         <v>709</v>
-      </c>
-      <c r="J309" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K309" s="33" t="s">
-        <v>710</v>
       </c>
       <c r="L309" s="120"/>
       <c r="M309" s="120"/>
@@ -36366,16 +36357,16 @@
       </c>
       <c r="G310" s="53"/>
       <c r="H310" s="131" t="s">
+        <v>707</v>
+      </c>
+      <c r="I310" s="131" t="s">
         <v>708</v>
       </c>
-      <c r="I310" s="131" t="s">
-        <v>709</v>
-      </c>
       <c r="J310" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K310" s="53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L310" s="126"/>
       <c r="M310" s="126"/>
@@ -36406,16 +36397,16 @@
       </c>
       <c r="G311" s="53"/>
       <c r="H311" s="131" t="s">
+        <v>707</v>
+      </c>
+      <c r="I311" s="131" t="s">
         <v>708</v>
       </c>
-      <c r="I311" s="131" t="s">
-        <v>709</v>
-      </c>
       <c r="J311" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K311" s="53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L311" s="126"/>
       <c r="M311" s="126"/>
@@ -36446,16 +36437,16 @@
       </c>
       <c r="G312" s="52"/>
       <c r="H312" s="131" t="s">
+        <v>707</v>
+      </c>
+      <c r="I312" s="131" t="s">
         <v>708</v>
       </c>
-      <c r="I312" s="131" t="s">
-        <v>709</v>
-      </c>
       <c r="J312" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K312" s="53" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L312" s="137"/>
       <c r="M312" s="135"/>
@@ -36486,16 +36477,16 @@
       </c>
       <c r="G313" s="53"/>
       <c r="H313" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I313" s="131" t="s">
+        <v>713</v>
+      </c>
+      <c r="J313" s="131" t="s">
+        <v>803</v>
+      </c>
+      <c r="K313" s="53" t="s">
         <v>714</v>
-      </c>
-      <c r="J313" s="131" t="s">
-        <v>804</v>
-      </c>
-      <c r="K313" s="53" t="s">
-        <v>715</v>
       </c>
       <c r="L313" s="126"/>
       <c r="M313" s="126"/>
@@ -36526,16 +36517,16 @@
       </c>
       <c r="G314" s="53"/>
       <c r="H314" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I314" s="131" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J314" s="131" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K314" s="53" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L314" s="126"/>
       <c r="M314" s="126"/>
@@ -36566,16 +36557,16 @@
       </c>
       <c r="G315" s="53"/>
       <c r="H315" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I315" s="131" t="s">
+        <v>716</v>
+      </c>
+      <c r="J315" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K315" s="53" t="s">
         <v>717</v>
-      </c>
-      <c r="J315" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K315" s="53" t="s">
-        <v>718</v>
       </c>
       <c r="L315" s="126"/>
       <c r="M315" s="126"/>
@@ -36606,16 +36597,16 @@
       </c>
       <c r="G316" s="53"/>
       <c r="H316" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I316" s="131" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J316" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K316" s="53" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L316" s="126"/>
       <c r="M316" s="126"/>
@@ -36646,16 +36637,16 @@
       </c>
       <c r="G317" s="53"/>
       <c r="H317" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I317" s="131" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J317" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K317" s="53" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L317" s="126"/>
       <c r="M317" s="126"/>
@@ -36686,16 +36677,16 @@
       </c>
       <c r="G318" s="53"/>
       <c r="H318" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I318" s="131" t="s">
+        <v>720</v>
+      </c>
+      <c r="J318" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K318" s="53" t="s">
         <v>721</v>
-      </c>
-      <c r="J318" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K318" s="53" t="s">
-        <v>722</v>
       </c>
       <c r="L318" s="126"/>
       <c r="M318" s="126"/>
@@ -36726,16 +36717,16 @@
       </c>
       <c r="G319" s="53"/>
       <c r="H319" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I319" s="131" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J319" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K319" s="53" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L319" s="126"/>
       <c r="M319" s="126"/>
@@ -36769,13 +36760,13 @@
         <v>664</v>
       </c>
       <c r="I320" s="131" t="s">
+        <v>723</v>
+      </c>
+      <c r="J320" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K320" s="53" t="s">
         <v>724</v>
-      </c>
-      <c r="J320" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K320" s="53" t="s">
-        <v>725</v>
       </c>
       <c r="L320" s="126"/>
       <c r="M320" s="126"/>
@@ -36807,13 +36798,13 @@
         <v>664</v>
       </c>
       <c r="I321" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J321" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K321" s="53" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L321" s="126"/>
       <c r="M321" s="126"/>
@@ -36847,13 +36838,13 @@
         <v>664</v>
       </c>
       <c r="I322" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J322" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K322" s="53" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L322" s="126"/>
       <c r="M322" s="126"/>
@@ -36887,13 +36878,13 @@
         <v>664</v>
       </c>
       <c r="I323" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J323" s="53" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K323" s="53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L323" s="126"/>
       <c r="M323" s="126"/>
@@ -36927,13 +36918,13 @@
         <v>664</v>
       </c>
       <c r="I324" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J324" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K324" s="53" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L324" s="126"/>
       <c r="M324" s="126"/>
@@ -36965,13 +36956,13 @@
         <v>664</v>
       </c>
       <c r="I325" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J325" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K325" s="53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L325" s="126"/>
       <c r="M325" s="126"/>
@@ -37003,13 +36994,13 @@
         <v>664</v>
       </c>
       <c r="I326" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J326" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K326" s="53" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L326" s="126"/>
       <c r="M326" s="126"/>
@@ -37043,13 +37034,13 @@
         <v>664</v>
       </c>
       <c r="I327" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J327" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K327" s="53" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L327" s="126"/>
       <c r="M327" s="126"/>
@@ -37081,13 +37072,13 @@
         <v>664</v>
       </c>
       <c r="I328" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J328" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K328" s="53" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L328" s="126"/>
       <c r="M328" s="126"/>
@@ -37119,13 +37110,13 @@
         <v>664</v>
       </c>
       <c r="I329" s="131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J329" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K329" s="53" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L329" s="126"/>
       <c r="M329" s="126"/>
@@ -37159,13 +37150,13 @@
         <v>664</v>
       </c>
       <c r="I330" s="131" t="s">
+        <v>734</v>
+      </c>
+      <c r="J330" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K330" s="53" t="s">
         <v>735</v>
-      </c>
-      <c r="J330" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K330" s="53" t="s">
-        <v>736</v>
       </c>
       <c r="L330" s="126"/>
       <c r="M330" s="126"/>
@@ -37197,13 +37188,13 @@
         <v>664</v>
       </c>
       <c r="I331" s="131" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J331" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K331" s="53" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L331" s="126"/>
       <c r="M331" s="126"/>
@@ -37236,7 +37227,7 @@
       <c r="H332" s="128"/>
       <c r="I332" s="128"/>
       <c r="J332" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K332" s="125"/>
       <c r="L332" s="101"/>
@@ -37306,7 +37297,7 @@
       <c r="H334" s="128"/>
       <c r="I334" s="85"/>
       <c r="J334" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K334" s="125"/>
       <c r="L334" s="101"/>
@@ -37340,7 +37331,7 @@
       <c r="H335" s="128"/>
       <c r="I335" s="85"/>
       <c r="J335" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K335" s="125"/>
       <c r="L335" s="101"/>
@@ -37376,7 +37367,7 @@
       <c r="H336" s="128"/>
       <c r="I336" s="128"/>
       <c r="J336" s="101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K336" s="249"/>
       <c r="L336" s="128"/>
@@ -37410,7 +37401,7 @@
       <c r="H337" s="128"/>
       <c r="I337" s="128"/>
       <c r="J337" s="101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K337" s="249"/>
       <c r="L337" s="128"/>
@@ -37446,7 +37437,7 @@
       <c r="H338" s="128"/>
       <c r="I338" s="85"/>
       <c r="J338" s="101" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K338" s="125"/>
       <c r="L338" s="101"/>
@@ -37480,16 +37471,16 @@
       </c>
       <c r="G339" s="33"/>
       <c r="H339" s="131" t="s">
+        <v>741</v>
+      </c>
+      <c r="I339" s="131" t="s">
         <v>742</v>
       </c>
-      <c r="I339" s="131" t="s">
+      <c r="J339" s="124" t="s">
         <v>743</v>
       </c>
-      <c r="J339" s="124" t="s">
-        <v>744</v>
-      </c>
       <c r="K339" s="53" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L339" s="120"/>
       <c r="M339" s="120"/>
@@ -37518,16 +37509,16 @@
       <c r="F340" s="238"/>
       <c r="G340" s="33"/>
       <c r="H340" s="131" t="s">
+        <v>741</v>
+      </c>
+      <c r="I340" s="131" t="s">
         <v>742</v>
       </c>
-      <c r="I340" s="131" t="s">
-        <v>743</v>
-      </c>
       <c r="J340" s="124" t="s">
+        <v>744</v>
+      </c>
+      <c r="K340" s="53" t="s">
         <v>745</v>
-      </c>
-      <c r="K340" s="53" t="s">
-        <v>746</v>
       </c>
       <c r="L340" s="120"/>
       <c r="M340" s="120"/>
@@ -37560,7 +37551,7 @@
       <c r="H341" s="128"/>
       <c r="I341" s="128"/>
       <c r="J341" s="128" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K341" s="85"/>
       <c r="L341" s="101"/>
@@ -37592,16 +37583,16 @@
       </c>
       <c r="G342" s="74"/>
       <c r="H342" s="120" t="s">
+        <v>741</v>
+      </c>
+      <c r="I342" s="120" t="s">
         <v>742</v>
       </c>
-      <c r="I342" s="120" t="s">
-        <v>743</v>
-      </c>
       <c r="J342" s="83" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K342" s="83" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L342" s="120"/>
       <c r="M342" s="120"/>
@@ -37634,7 +37625,7 @@
       <c r="H343" s="101"/>
       <c r="I343" s="101"/>
       <c r="J343" s="102" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K343" s="102"/>
       <c r="L343" s="101"/>
@@ -37668,7 +37659,7 @@
       <c r="H344" s="101"/>
       <c r="I344" s="101"/>
       <c r="J344" s="102" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K344" s="102"/>
       <c r="L344" s="101"/>
@@ -37702,7 +37693,7 @@
       <c r="H345" s="101"/>
       <c r="I345" s="101"/>
       <c r="J345" s="102" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K345" s="102"/>
       <c r="L345" s="101"/>
@@ -37736,7 +37727,7 @@
       <c r="H346" s="101"/>
       <c r="I346" s="101"/>
       <c r="J346" s="102" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K346" s="102"/>
       <c r="L346" s="101"/>
@@ -37770,7 +37761,7 @@
       <c r="H347" s="101"/>
       <c r="I347" s="101"/>
       <c r="J347" s="102" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K347" s="102"/>
       <c r="L347" s="101"/>
@@ -37804,7 +37795,7 @@
       <c r="H348" s="101"/>
       <c r="I348" s="101"/>
       <c r="J348" s="226" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K348" s="102"/>
       <c r="L348" s="101"/>
@@ -37838,16 +37829,16 @@
       </c>
       <c r="G349" s="74"/>
       <c r="H349" s="124" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I349" s="124" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J349" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K349" s="33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L349" s="120"/>
       <c r="M349" s="120"/>
@@ -37880,16 +37871,16 @@
       </c>
       <c r="G350" s="74"/>
       <c r="H350" s="124" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I350" s="124" t="s">
+        <v>753</v>
+      </c>
+      <c r="J350" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K350" s="120" t="s">
         <v>754</v>
-      </c>
-      <c r="J350" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K350" s="120" t="s">
-        <v>755</v>
       </c>
       <c r="L350" s="120"/>
       <c r="M350" s="120"/>
@@ -37924,16 +37915,16 @@
       </c>
       <c r="G351" s="74"/>
       <c r="H351" s="124" t="s">
+        <v>757</v>
+      </c>
+      <c r="I351" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="I351" s="124" t="s">
+      <c r="J351" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K351" s="33" t="s">
         <v>759</v>
-      </c>
-      <c r="J351" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K351" s="33" t="s">
-        <v>760</v>
       </c>
       <c r="L351" s="120"/>
       <c r="M351" s="120"/>
@@ -37962,16 +37953,16 @@
       <c r="F352" s="237"/>
       <c r="G352" s="74"/>
       <c r="H352" s="124" t="s">
+        <v>757</v>
+      </c>
+      <c r="I352" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="I352" s="124" t="s">
-        <v>759</v>
-      </c>
       <c r="J352" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K352" s="33" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L352" s="120"/>
       <c r="M352" s="120"/>
@@ -38000,16 +37991,16 @@
       <c r="F353" s="238"/>
       <c r="G353" s="74"/>
       <c r="H353" s="124" t="s">
+        <v>757</v>
+      </c>
+      <c r="I353" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="I353" s="124" t="s">
-        <v>759</v>
-      </c>
       <c r="J353" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K353" s="33" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L353" s="120"/>
       <c r="M353" s="120"/>
@@ -38045,13 +38036,13 @@
         <v>664</v>
       </c>
       <c r="I354" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="J354" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K354" s="33" t="s">
         <v>763</v>
-      </c>
-      <c r="J354" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K354" s="33" t="s">
-        <v>764</v>
       </c>
       <c r="L354" s="120"/>
       <c r="M354" s="120"/>
@@ -38083,13 +38074,13 @@
         <v>664</v>
       </c>
       <c r="I355" s="124" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J355" s="124" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K355" s="33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L355" s="120"/>
       <c r="M355" s="120"/>
@@ -38122,7 +38113,7 @@
       <c r="H356" s="128"/>
       <c r="I356" s="128"/>
       <c r="J356" s="128" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K356" s="85"/>
       <c r="L356" s="101"/>
@@ -38156,7 +38147,7 @@
       <c r="H357" s="101"/>
       <c r="I357" s="101"/>
       <c r="J357" s="102" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K357" s="102"/>
       <c r="L357" s="101"/>
@@ -38190,7 +38181,7 @@
       <c r="H358" s="101"/>
       <c r="I358" s="101"/>
       <c r="J358" s="102" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K358" s="102"/>
       <c r="L358" s="101"/>
@@ -38228,7 +38219,7 @@
       <c r="H359" s="101"/>
       <c r="I359" s="101"/>
       <c r="J359" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K359" s="102"/>
       <c r="L359" s="101"/>
@@ -38262,7 +38253,7 @@
       <c r="H360" s="101"/>
       <c r="I360" s="101"/>
       <c r="J360" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K360" s="102"/>
       <c r="L360" s="101"/>
@@ -38296,7 +38287,7 @@
       <c r="H361" s="101"/>
       <c r="I361" s="101"/>
       <c r="J361" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K361" s="102"/>
       <c r="L361" s="101"/>
@@ -38334,7 +38325,7 @@
       <c r="H362" s="101"/>
       <c r="I362" s="101"/>
       <c r="J362" s="226" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K362" s="102"/>
       <c r="L362" s="101"/>
@@ -38368,7 +38359,7 @@
       <c r="H363" s="101"/>
       <c r="I363" s="101"/>
       <c r="J363" s="226" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K363" s="102"/>
       <c r="L363" s="101"/>
@@ -38402,7 +38393,7 @@
       <c r="H364" s="101"/>
       <c r="I364" s="101"/>
       <c r="J364" s="226" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K364" s="102"/>
       <c r="L364" s="101"/>
@@ -38436,7 +38427,7 @@
       <c r="H365" s="101"/>
       <c r="I365" s="101"/>
       <c r="J365" s="226" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K365" s="102"/>
       <c r="L365" s="101"/>
@@ -38470,7 +38461,7 @@
       <c r="H366" s="101"/>
       <c r="I366" s="101"/>
       <c r="J366" s="226" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K366" s="102"/>
       <c r="L366" s="101"/>
@@ -38538,7 +38529,7 @@
       <c r="H368" s="101"/>
       <c r="I368" s="101"/>
       <c r="J368" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K368" s="102"/>
       <c r="L368" s="101"/>
@@ -38572,7 +38563,7 @@
       <c r="H369" s="101"/>
       <c r="I369" s="101"/>
       <c r="J369" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K369" s="102"/>
       <c r="L369" s="101"/>
@@ -38606,7 +38597,7 @@
       <c r="H370" s="101"/>
       <c r="I370" s="101"/>
       <c r="J370" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K370" s="102"/>
       <c r="L370" s="101"/>
@@ -38640,7 +38631,7 @@
       <c r="H371" s="101"/>
       <c r="I371" s="101"/>
       <c r="J371" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K371" s="102"/>
       <c r="L371" s="101"/>
@@ -38674,7 +38665,7 @@
       <c r="H372" s="101"/>
       <c r="I372" s="101"/>
       <c r="J372" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K372" s="102"/>
       <c r="L372" s="101"/>
@@ -38708,7 +38699,7 @@
       <c r="H373" s="101"/>
       <c r="I373" s="101"/>
       <c r="J373" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K373" s="102"/>
       <c r="L373" s="101"/>
@@ -38742,7 +38733,7 @@
       <c r="H374" s="101"/>
       <c r="I374" s="101"/>
       <c r="J374" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K374" s="102"/>
       <c r="L374" s="101"/>
@@ -38776,7 +38767,7 @@
       <c r="H375" s="101"/>
       <c r="I375" s="101"/>
       <c r="J375" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K375" s="102"/>
       <c r="L375" s="101"/>
@@ -38812,7 +38803,7 @@
       <c r="H376" s="101"/>
       <c r="I376" s="101"/>
       <c r="J376" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K376" s="102"/>
       <c r="L376" s="101"/>
@@ -38846,7 +38837,7 @@
       <c r="H377" s="101"/>
       <c r="I377" s="101"/>
       <c r="J377" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K377" s="102"/>
       <c r="L377" s="101"/>
@@ -38880,7 +38871,7 @@
       <c r="H378" s="101"/>
       <c r="I378" s="101"/>
       <c r="J378" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K378" s="102"/>
       <c r="L378" s="101"/>
@@ -38914,7 +38905,7 @@
       <c r="H379" s="101"/>
       <c r="I379" s="101"/>
       <c r="J379" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K379" s="102"/>
       <c r="L379" s="101"/>
@@ -38948,7 +38939,7 @@
       <c r="H380" s="101"/>
       <c r="I380" s="101"/>
       <c r="J380" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K380" s="102"/>
       <c r="L380" s="101"/>
@@ -38982,7 +38973,7 @@
       <c r="H381" s="101"/>
       <c r="I381" s="101"/>
       <c r="J381" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K381" s="102"/>
       <c r="L381" s="101"/>
@@ -39016,7 +39007,7 @@
       <c r="H382" s="101"/>
       <c r="I382" s="101"/>
       <c r="J382" s="102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K382" s="102"/>
       <c r="L382" s="101"/>
@@ -39058,7 +39049,7 @@
       <c r="H383" s="88"/>
       <c r="I383" s="88"/>
       <c r="J383" s="101" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K383" s="250"/>
       <c r="L383" s="251"/>
@@ -39092,7 +39083,7 @@
       <c r="H384" s="88"/>
       <c r="I384" s="88"/>
       <c r="J384" s="101" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K384" s="226"/>
       <c r="L384" s="227"/>
@@ -39126,7 +39117,7 @@
       <c r="H385" s="88"/>
       <c r="I385" s="88"/>
       <c r="J385" s="101" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K385" s="226"/>
       <c r="L385" s="227"/>
@@ -39160,7 +39151,7 @@
       <c r="H386" s="88"/>
       <c r="I386" s="88"/>
       <c r="J386" s="101" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K386" s="226"/>
       <c r="L386" s="227"/>
@@ -39230,16 +39221,16 @@
       </c>
       <c r="G388" s="122"/>
       <c r="H388" s="124" t="s">
+        <v>771</v>
+      </c>
+      <c r="I388" s="124" t="s">
         <v>772</v>
       </c>
-      <c r="I388" s="124" t="s">
+      <c r="J388" s="97" t="s">
         <v>773</v>
       </c>
-      <c r="J388" s="97" t="s">
+      <c r="K388" s="121" t="s">
         <v>774</v>
-      </c>
-      <c r="K388" s="121" t="s">
-        <v>775</v>
       </c>
       <c r="L388" s="138"/>
       <c r="M388" s="139"/>
@@ -39272,7 +39263,7 @@
       <c r="H389" s="88"/>
       <c r="I389" s="88"/>
       <c r="J389" s="128" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K389" s="226"/>
       <c r="L389" s="227"/>
@@ -39341,13 +39332,13 @@
         <v>664</v>
       </c>
       <c r="I391" s="124" t="s">
+        <v>775</v>
+      </c>
+      <c r="J391" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="K391" s="120" t="s">
         <v>776</v>
-      </c>
-      <c r="J391" s="124" t="s">
-        <v>806</v>
-      </c>
-      <c r="K391" s="120" t="s">
-        <v>777</v>
       </c>
       <c r="L391" s="138"/>
       <c r="M391" s="139"/>
@@ -39379,13 +39370,13 @@
         <v>664</v>
       </c>
       <c r="I392" s="153" t="s">
+        <v>775</v>
+      </c>
+      <c r="J392" s="124" t="s">
+        <v>806</v>
+      </c>
+      <c r="K392" s="120" t="s">
         <v>776</v>
-      </c>
-      <c r="J392" s="124" t="s">
-        <v>807</v>
-      </c>
-      <c r="K392" s="120" t="s">
-        <v>777</v>
       </c>
       <c r="L392" s="138"/>
       <c r="M392" s="139"/>
@@ -39418,7 +39409,7 @@
       <c r="H393" s="88"/>
       <c r="I393" s="88"/>
       <c r="J393" s="125" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K393" s="125"/>
       <c r="L393" s="227"/>
@@ -39456,16 +39447,16 @@
       </c>
       <c r="G394" s="103"/>
       <c r="H394" s="124" t="s">
+        <v>777</v>
+      </c>
+      <c r="I394" s="124" t="s">
+        <v>810</v>
+      </c>
+      <c r="J394" s="124" t="s">
+        <v>773</v>
+      </c>
+      <c r="K394" s="56" t="s">
         <v>778</v>
-      </c>
-      <c r="I394" s="124" t="s">
-        <v>811</v>
-      </c>
-      <c r="J394" s="124" t="s">
-        <v>774</v>
-      </c>
-      <c r="K394" s="56" t="s">
-        <v>779</v>
       </c>
       <c r="L394" s="140"/>
       <c r="M394" s="141"/>
@@ -39496,16 +39487,16 @@
       </c>
       <c r="G395" s="103"/>
       <c r="H395" s="124" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I395" s="124" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J395" s="124" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K395" s="56" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L395" s="140"/>
       <c r="M395" s="141"/>
@@ -39536,16 +39527,16 @@
       </c>
       <c r="G396" s="103"/>
       <c r="H396" s="124" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I396" s="124" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J396" s="124" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K396" s="120" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L396" s="140"/>
       <c r="M396" s="141"/>
@@ -39578,7 +39569,7 @@
       <c r="H397" s="88"/>
       <c r="I397" s="88"/>
       <c r="J397" s="128" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K397" s="178"/>
       <c r="L397" s="179"/>
@@ -39644,16 +39635,16 @@
       </c>
       <c r="G399" s="103"/>
       <c r="H399" s="124" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I399" s="124" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J399" s="124" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K399" s="56" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L399" s="140"/>
       <c r="M399" s="141"/>
@@ -39690,7 +39681,7 @@
       <c r="H400" s="88"/>
       <c r="I400" s="88"/>
       <c r="J400" s="129" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K400" s="178"/>
       <c r="L400" s="179"/>
@@ -39726,16 +39717,16 @@
       </c>
       <c r="G401" s="103"/>
       <c r="H401" s="124" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I401" s="124" t="s">
+        <v>784</v>
+      </c>
+      <c r="J401" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K401" s="120" t="s">
         <v>785</v>
-      </c>
-      <c r="J401" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K401" s="120" t="s">
-        <v>786</v>
       </c>
       <c r="L401" s="140"/>
       <c r="M401" s="141"/>
@@ -39764,16 +39755,16 @@
       <c r="F402" s="185"/>
       <c r="G402" s="103"/>
       <c r="H402" s="124" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I402" s="153" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J402" s="124" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K402" s="253" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L402" s="142"/>
       <c r="M402" s="143"/>
@@ -39808,16 +39799,16 @@
       </c>
       <c r="G403" s="103"/>
       <c r="H403" s="97" t="s">
+        <v>787</v>
+      </c>
+      <c r="I403" s="97" t="s">
         <v>788</v>
       </c>
-      <c r="I403" s="97" t="s">
+      <c r="J403" s="124" t="s">
+        <v>802</v>
+      </c>
+      <c r="K403" s="123" t="s">
         <v>789</v>
-      </c>
-      <c r="J403" s="124" t="s">
-        <v>803</v>
-      </c>
-      <c r="K403" s="123" t="s">
-        <v>790</v>
       </c>
       <c r="L403" s="142"/>
       <c r="M403" s="143"/>
@@ -39858,7 +39849,7 @@
       <c r="H404" s="101"/>
       <c r="I404" s="101"/>
       <c r="J404" s="102" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K404" s="102"/>
       <c r="L404" s="101"/>
@@ -39896,10 +39887,10 @@
         <v>666</v>
       </c>
       <c r="J405" s="126" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K405" s="126" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L405" s="120"/>
       <c r="M405" s="120"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10101_ログイン.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D40A28-1225-4A3C-9512-F9DCB799E547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85023BC5-90D8-449D-BEEF-8ADB64783C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9202,19 +9202,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>フレームワークで制御しているのでレビューで担保できるので対象外</t>
-    <rPh sb="8" eb="10">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タンポ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>UI標準</t>
     <rPh sb="2" eb="4">
       <t>ヒョウジュン</t>
@@ -10386,6 +10373,19 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フレームワークで制御しておりレビューで担保できるので対象外</t>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンポ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -12003,6 +12003,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -12109,84 +12187,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13915,51 +13915,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="300" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="277" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="303" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
-      <c r="L1" s="278"/>
-      <c r="M1" s="278"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="283" t="s">
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="285"/>
-      <c r="S1" s="292" t="s">
+      <c r="P1" s="310"/>
+      <c r="Q1" s="310"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="318" t="s">
         <v>652</v>
       </c>
-      <c r="T1" s="293"/>
-      <c r="U1" s="293"/>
-      <c r="V1" s="293"/>
-      <c r="W1" s="293"/>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="294"/>
-      <c r="AA1" s="274" t="s">
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="301"/>
-      <c r="AD1" s="302"/>
-      <c r="AE1" s="302"/>
-      <c r="AF1" s="303"/>
-      <c r="AG1" s="268"/>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AB1" s="302"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="328"/>
+      <c r="AE1" s="328"/>
+      <c r="AF1" s="329"/>
+      <c r="AG1" s="294"/>
+      <c r="AH1" s="295"/>
+      <c r="AI1" s="296"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13967,53 +13967,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="300" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="277" t="s">
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="303" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="287"/>
-      <c r="R2" s="288"/>
-      <c r="S2" s="295"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="296"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="296"/>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="274" t="s">
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="305"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="321"/>
+      <c r="T2" s="322"/>
+      <c r="U2" s="322"/>
+      <c r="V2" s="322"/>
+      <c r="W2" s="322"/>
+      <c r="X2" s="322"/>
+      <c r="Y2" s="322"/>
+      <c r="Z2" s="323"/>
+      <c r="AA2" s="300" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="276"/>
-      <c r="AC2" s="280" t="str">
+      <c r="AB2" s="302"/>
+      <c r="AC2" s="306" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="281"/>
-      <c r="AE2" s="281"/>
-      <c r="AF2" s="282"/>
-      <c r="AG2" s="268" t="str">
+      <c r="AD2" s="307"/>
+      <c r="AE2" s="307"/>
+      <c r="AF2" s="308"/>
+      <c r="AG2" s="294" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="295"/>
+      <c r="AI2" s="296"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -14021,45 +14021,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="300" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="277" t="s">
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="303" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="289"/>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="291"/>
-      <c r="S3" s="298"/>
-      <c r="T3" s="299"/>
-      <c r="U3" s="299"/>
-      <c r="V3" s="299"/>
-      <c r="W3" s="299"/>
-      <c r="X3" s="299"/>
-      <c r="Y3" s="299"/>
-      <c r="Z3" s="300"/>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="276"/>
-      <c r="AC3" s="301"/>
-      <c r="AD3" s="302"/>
-      <c r="AE3" s="302"/>
-      <c r="AF3" s="303"/>
-      <c r="AG3" s="268"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="315"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="316"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="324"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
+      <c r="Y3" s="325"/>
+      <c r="Z3" s="326"/>
+      <c r="AA3" s="300"/>
+      <c r="AB3" s="302"/>
+      <c r="AC3" s="327"/>
+      <c r="AD3" s="328"/>
+      <c r="AE3" s="328"/>
+      <c r="AF3" s="329"/>
+      <c r="AG3" s="294"/>
+      <c r="AH3" s="295"/>
+      <c r="AI3" s="296"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -14096,1176 +14096,1020 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="297" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="272"/>
-      <c r="D7" s="271" t="s">
+      <c r="C7" s="298"/>
+      <c r="D7" s="297" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="273"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="271" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="273"/>
-      <c r="I7" s="272"/>
-      <c r="J7" s="271" t="s">
+      <c r="H7" s="299"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="297" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="273"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="271" t="s">
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="299"/>
+      <c r="N7" s="299"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="298"/>
+      <c r="Q7" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="273"/>
-      <c r="S7" s="273"/>
-      <c r="T7" s="273"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="273"/>
-      <c r="W7" s="273"/>
-      <c r="X7" s="273"/>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="273"/>
-      <c r="AA7" s="273"/>
-      <c r="AB7" s="273"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="273"/>
-      <c r="AE7" s="272"/>
-      <c r="AF7" s="271" t="s">
+      <c r="R7" s="299"/>
+      <c r="S7" s="299"/>
+      <c r="T7" s="299"/>
+      <c r="U7" s="299"/>
+      <c r="V7" s="299"/>
+      <c r="W7" s="299"/>
+      <c r="X7" s="299"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="299"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="299"/>
+      <c r="AE7" s="298"/>
+      <c r="AF7" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="273"/>
-      <c r="AH7" s="273"/>
-      <c r="AI7" s="272"/>
+      <c r="AG7" s="299"/>
+      <c r="AH7" s="299"/>
+      <c r="AI7" s="298"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="316"/>
-      <c r="C8" s="317"/>
-      <c r="D8" s="318"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="320"/>
-      <c r="G8" s="321"/>
-      <c r="H8" s="322"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="323"/>
-      <c r="K8" s="324"/>
-      <c r="L8" s="324"/>
-      <c r="M8" s="324"/>
-      <c r="N8" s="324"/>
-      <c r="O8" s="324"/>
-      <c r="P8" s="325"/>
-      <c r="Q8" s="326"/>
-      <c r="R8" s="327"/>
-      <c r="S8" s="327"/>
-      <c r="T8" s="327"/>
-      <c r="U8" s="327"/>
-      <c r="V8" s="327"/>
-      <c r="W8" s="327"/>
-      <c r="X8" s="327"/>
-      <c r="Y8" s="327"/>
-      <c r="Z8" s="327"/>
-      <c r="AA8" s="327"/>
-      <c r="AB8" s="327"/>
-      <c r="AC8" s="327"/>
-      <c r="AD8" s="327"/>
-      <c r="AE8" s="328"/>
-      <c r="AF8" s="323"/>
-      <c r="AG8" s="324"/>
-      <c r="AH8" s="324"/>
-      <c r="AI8" s="325"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="282"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="289"/>
+      <c r="L8" s="289"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="289"/>
+      <c r="O8" s="289"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="291"/>
+      <c r="R8" s="292"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="292"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="292"/>
+      <c r="Z8" s="292"/>
+      <c r="AA8" s="292"/>
+      <c r="AB8" s="292"/>
+      <c r="AC8" s="292"/>
+      <c r="AD8" s="292"/>
+      <c r="AE8" s="293"/>
+      <c r="AF8" s="288"/>
+      <c r="AG8" s="289"/>
+      <c r="AH8" s="289"/>
+      <c r="AI8" s="290"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="304"/>
-      <c r="C9" s="305"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="307"/>
-      <c r="F9" s="308"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="305"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="312"/>
-      <c r="Q9" s="313"/>
-      <c r="R9" s="314"/>
-      <c r="S9" s="314"/>
-      <c r="T9" s="314"/>
-      <c r="U9" s="314"/>
-      <c r="V9" s="314"/>
-      <c r="W9" s="314"/>
-      <c r="X9" s="314"/>
-      <c r="Y9" s="314"/>
-      <c r="Z9" s="314"/>
-      <c r="AA9" s="314"/>
-      <c r="AB9" s="314"/>
-      <c r="AC9" s="314"/>
-      <c r="AD9" s="314"/>
-      <c r="AE9" s="315"/>
-      <c r="AF9" s="310"/>
-      <c r="AG9" s="311"/>
-      <c r="AH9" s="311"/>
-      <c r="AI9" s="312"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="275"/>
+      <c r="M9" s="275"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="276"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="278"/>
+      <c r="S9" s="278"/>
+      <c r="T9" s="278"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="278"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="278"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="278"/>
+      <c r="AA9" s="278"/>
+      <c r="AB9" s="278"/>
+      <c r="AC9" s="278"/>
+      <c r="AD9" s="278"/>
+      <c r="AE9" s="279"/>
+      <c r="AF9" s="274"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="276"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="304"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="306"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="308"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="310"/>
-      <c r="K10" s="311"/>
-      <c r="L10" s="311"/>
-      <c r="M10" s="311"/>
-      <c r="N10" s="311"/>
-      <c r="O10" s="311"/>
-      <c r="P10" s="312"/>
-      <c r="Q10" s="313"/>
-      <c r="R10" s="314"/>
-      <c r="S10" s="314"/>
-      <c r="T10" s="314"/>
-      <c r="U10" s="314"/>
-      <c r="V10" s="314"/>
-      <c r="W10" s="314"/>
-      <c r="X10" s="314"/>
-      <c r="Y10" s="314"/>
-      <c r="Z10" s="314"/>
-      <c r="AA10" s="314"/>
-      <c r="AB10" s="314"/>
-      <c r="AC10" s="314"/>
-      <c r="AD10" s="314"/>
-      <c r="AE10" s="315"/>
-      <c r="AF10" s="310"/>
-      <c r="AG10" s="311"/>
-      <c r="AH10" s="311"/>
-      <c r="AI10" s="312"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="274"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="275"/>
+      <c r="M10" s="275"/>
+      <c r="N10" s="275"/>
+      <c r="O10" s="275"/>
+      <c r="P10" s="276"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="278"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="278"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="278"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="278"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="278"/>
+      <c r="AC10" s="278"/>
+      <c r="AD10" s="278"/>
+      <c r="AE10" s="279"/>
+      <c r="AF10" s="274"/>
+      <c r="AG10" s="275"/>
+      <c r="AH10" s="275"/>
+      <c r="AI10" s="276"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="304"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="307"/>
-      <c r="F11" s="308"/>
-      <c r="G11" s="304"/>
-      <c r="H11" s="309"/>
-      <c r="I11" s="305"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="311"/>
-      <c r="O11" s="311"/>
-      <c r="P11" s="312"/>
-      <c r="Q11" s="313"/>
-      <c r="R11" s="314"/>
-      <c r="S11" s="314"/>
-      <c r="T11" s="314"/>
-      <c r="U11" s="314"/>
-      <c r="V11" s="314"/>
-      <c r="W11" s="314"/>
-      <c r="X11" s="314"/>
-      <c r="Y11" s="314"/>
-      <c r="Z11" s="314"/>
-      <c r="AA11" s="314"/>
-      <c r="AB11" s="314"/>
-      <c r="AC11" s="314"/>
-      <c r="AD11" s="314"/>
-      <c r="AE11" s="315"/>
-      <c r="AF11" s="310"/>
-      <c r="AG11" s="311"/>
-      <c r="AH11" s="311"/>
-      <c r="AI11" s="312"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="273"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="274"/>
+      <c r="K11" s="275"/>
+      <c r="L11" s="275"/>
+      <c r="M11" s="275"/>
+      <c r="N11" s="275"/>
+      <c r="O11" s="275"/>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="278"/>
+      <c r="U11" s="278"/>
+      <c r="V11" s="278"/>
+      <c r="W11" s="278"/>
+      <c r="X11" s="278"/>
+      <c r="Y11" s="278"/>
+      <c r="Z11" s="278"/>
+      <c r="AA11" s="278"/>
+      <c r="AB11" s="278"/>
+      <c r="AC11" s="278"/>
+      <c r="AD11" s="278"/>
+      <c r="AE11" s="279"/>
+      <c r="AF11" s="274"/>
+      <c r="AG11" s="275"/>
+      <c r="AH11" s="275"/>
+      <c r="AI11" s="276"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="304"/>
-      <c r="C12" s="305"/>
-      <c r="D12" s="306"/>
-      <c r="E12" s="307"/>
-      <c r="F12" s="308"/>
-      <c r="G12" s="304"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="305"/>
-      <c r="J12" s="310"/>
-      <c r="K12" s="311"/>
-      <c r="L12" s="311"/>
-      <c r="M12" s="311"/>
-      <c r="N12" s="311"/>
-      <c r="O12" s="311"/>
-      <c r="P12" s="312"/>
-      <c r="Q12" s="313"/>
-      <c r="R12" s="314"/>
-      <c r="S12" s="314"/>
-      <c r="T12" s="314"/>
-      <c r="U12" s="314"/>
-      <c r="V12" s="314"/>
-      <c r="W12" s="314"/>
-      <c r="X12" s="314"/>
-      <c r="Y12" s="314"/>
-      <c r="Z12" s="314"/>
-      <c r="AA12" s="314"/>
-      <c r="AB12" s="314"/>
-      <c r="AC12" s="314"/>
-      <c r="AD12" s="314"/>
-      <c r="AE12" s="315"/>
-      <c r="AF12" s="310"/>
-      <c r="AG12" s="311"/>
-      <c r="AH12" s="311"/>
-      <c r="AI12" s="312"/>
+      <c r="B12" s="268"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="270"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="274"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="275"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="276"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="278"/>
+      <c r="S12" s="278"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="278"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="278"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="278"/>
+      <c r="AB12" s="278"/>
+      <c r="AC12" s="278"/>
+      <c r="AD12" s="278"/>
+      <c r="AE12" s="279"/>
+      <c r="AF12" s="274"/>
+      <c r="AG12" s="275"/>
+      <c r="AH12" s="275"/>
+      <c r="AI12" s="276"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="304"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="309"/>
-      <c r="I13" s="305"/>
-      <c r="J13" s="310"/>
-      <c r="K13" s="311"/>
-      <c r="L13" s="311"/>
-      <c r="M13" s="311"/>
-      <c r="N13" s="311"/>
-      <c r="O13" s="311"/>
-      <c r="P13" s="312"/>
-      <c r="Q13" s="313"/>
-      <c r="R13" s="314"/>
-      <c r="S13" s="314"/>
-      <c r="T13" s="314"/>
-      <c r="U13" s="314"/>
-      <c r="V13" s="314"/>
-      <c r="W13" s="314"/>
-      <c r="X13" s="314"/>
-      <c r="Y13" s="314"/>
-      <c r="Z13" s="314"/>
-      <c r="AA13" s="314"/>
-      <c r="AB13" s="314"/>
-      <c r="AC13" s="314"/>
-      <c r="AD13" s="314"/>
-      <c r="AE13" s="315"/>
-      <c r="AF13" s="310"/>
-      <c r="AG13" s="311"/>
-      <c r="AH13" s="311"/>
-      <c r="AI13" s="312"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="272"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="273"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="274"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="275"/>
+      <c r="M13" s="275"/>
+      <c r="N13" s="275"/>
+      <c r="O13" s="275"/>
+      <c r="P13" s="276"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="278"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="278"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="278"/>
+      <c r="AA13" s="278"/>
+      <c r="AB13" s="278"/>
+      <c r="AC13" s="278"/>
+      <c r="AD13" s="278"/>
+      <c r="AE13" s="279"/>
+      <c r="AF13" s="274"/>
+      <c r="AG13" s="275"/>
+      <c r="AH13" s="275"/>
+      <c r="AI13" s="276"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="304"/>
-      <c r="C14" s="305"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="308"/>
-      <c r="G14" s="304"/>
-      <c r="H14" s="309"/>
-      <c r="I14" s="305"/>
-      <c r="J14" s="310"/>
-      <c r="K14" s="311"/>
-      <c r="L14" s="311"/>
-      <c r="M14" s="311"/>
-      <c r="N14" s="311"/>
-      <c r="O14" s="311"/>
-      <c r="P14" s="312"/>
-      <c r="Q14" s="313"/>
-      <c r="R14" s="314"/>
-      <c r="S14" s="314"/>
-      <c r="T14" s="314"/>
-      <c r="U14" s="314"/>
-      <c r="V14" s="314"/>
-      <c r="W14" s="314"/>
-      <c r="X14" s="314"/>
-      <c r="Y14" s="314"/>
-      <c r="Z14" s="314"/>
-      <c r="AA14" s="314"/>
-      <c r="AB14" s="314"/>
-      <c r="AC14" s="314"/>
-      <c r="AD14" s="314"/>
-      <c r="AE14" s="315"/>
-      <c r="AF14" s="310"/>
-      <c r="AG14" s="311"/>
-      <c r="AH14" s="311"/>
-      <c r="AI14" s="312"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="270"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="273"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="274"/>
+      <c r="K14" s="275"/>
+      <c r="L14" s="275"/>
+      <c r="M14" s="275"/>
+      <c r="N14" s="275"/>
+      <c r="O14" s="275"/>
+      <c r="P14" s="276"/>
+      <c r="Q14" s="277"/>
+      <c r="R14" s="278"/>
+      <c r="S14" s="278"/>
+      <c r="T14" s="278"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="278"/>
+      <c r="W14" s="278"/>
+      <c r="X14" s="278"/>
+      <c r="Y14" s="278"/>
+      <c r="Z14" s="278"/>
+      <c r="AA14" s="278"/>
+      <c r="AB14" s="278"/>
+      <c r="AC14" s="278"/>
+      <c r="AD14" s="278"/>
+      <c r="AE14" s="279"/>
+      <c r="AF14" s="274"/>
+      <c r="AG14" s="275"/>
+      <c r="AH14" s="275"/>
+      <c r="AI14" s="276"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="304"/>
-      <c r="C15" s="305"/>
-      <c r="D15" s="306"/>
-      <c r="E15" s="307"/>
-      <c r="F15" s="308"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="309"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="310"/>
-      <c r="K15" s="311"/>
-      <c r="L15" s="311"/>
-      <c r="M15" s="311"/>
-      <c r="N15" s="311"/>
-      <c r="O15" s="311"/>
-      <c r="P15" s="312"/>
-      <c r="Q15" s="313"/>
-      <c r="R15" s="314"/>
-      <c r="S15" s="314"/>
-      <c r="T15" s="314"/>
-      <c r="U15" s="314"/>
-      <c r="V15" s="314"/>
-      <c r="W15" s="314"/>
-      <c r="X15" s="314"/>
-      <c r="Y15" s="314"/>
-      <c r="Z15" s="314"/>
-      <c r="AA15" s="314"/>
-      <c r="AB15" s="314"/>
-      <c r="AC15" s="314"/>
-      <c r="AD15" s="314"/>
-      <c r="AE15" s="315"/>
-      <c r="AF15" s="310"/>
-      <c r="AG15" s="311"/>
-      <c r="AH15" s="311"/>
-      <c r="AI15" s="312"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="271"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="273"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="274"/>
+      <c r="K15" s="275"/>
+      <c r="L15" s="275"/>
+      <c r="M15" s="275"/>
+      <c r="N15" s="275"/>
+      <c r="O15" s="275"/>
+      <c r="P15" s="276"/>
+      <c r="Q15" s="277"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="278"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="278"/>
+      <c r="AA15" s="278"/>
+      <c r="AB15" s="278"/>
+      <c r="AC15" s="278"/>
+      <c r="AD15" s="278"/>
+      <c r="AE15" s="279"/>
+      <c r="AF15" s="274"/>
+      <c r="AG15" s="275"/>
+      <c r="AH15" s="275"/>
+      <c r="AI15" s="276"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="304"/>
-      <c r="C16" s="305"/>
-      <c r="D16" s="306"/>
-      <c r="E16" s="307"/>
-      <c r="F16" s="308"/>
-      <c r="G16" s="304"/>
-      <c r="H16" s="309"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="311"/>
-      <c r="L16" s="311"/>
-      <c r="M16" s="311"/>
-      <c r="N16" s="311"/>
-      <c r="O16" s="311"/>
-      <c r="P16" s="312"/>
-      <c r="Q16" s="313"/>
-      <c r="R16" s="314"/>
-      <c r="S16" s="314"/>
-      <c r="T16" s="314"/>
-      <c r="U16" s="314"/>
-      <c r="V16" s="314"/>
-      <c r="W16" s="314"/>
-      <c r="X16" s="314"/>
-      <c r="Y16" s="314"/>
-      <c r="Z16" s="314"/>
-      <c r="AA16" s="314"/>
-      <c r="AB16" s="314"/>
-      <c r="AC16" s="314"/>
-      <c r="AD16" s="314"/>
-      <c r="AE16" s="315"/>
-      <c r="AF16" s="310"/>
-      <c r="AG16" s="311"/>
-      <c r="AH16" s="311"/>
-      <c r="AI16" s="312"/>
+      <c r="B16" s="268"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="274"/>
+      <c r="K16" s="275"/>
+      <c r="L16" s="275"/>
+      <c r="M16" s="275"/>
+      <c r="N16" s="275"/>
+      <c r="O16" s="275"/>
+      <c r="P16" s="276"/>
+      <c r="Q16" s="277"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="278"/>
+      <c r="V16" s="278"/>
+      <c r="W16" s="278"/>
+      <c r="X16" s="278"/>
+      <c r="Y16" s="278"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="278"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="278"/>
+      <c r="AD16" s="278"/>
+      <c r="AE16" s="279"/>
+      <c r="AF16" s="274"/>
+      <c r="AG16" s="275"/>
+      <c r="AH16" s="275"/>
+      <c r="AI16" s="276"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="304"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="306"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="308"/>
-      <c r="G17" s="304"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="305"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="311"/>
-      <c r="L17" s="311"/>
-      <c r="M17" s="311"/>
-      <c r="N17" s="311"/>
-      <c r="O17" s="311"/>
-      <c r="P17" s="312"/>
-      <c r="Q17" s="313"/>
-      <c r="R17" s="314"/>
-      <c r="S17" s="314"/>
-      <c r="T17" s="314"/>
-      <c r="U17" s="314"/>
-      <c r="V17" s="314"/>
-      <c r="W17" s="314"/>
-      <c r="X17" s="314"/>
-      <c r="Y17" s="314"/>
-      <c r="Z17" s="314"/>
-      <c r="AA17" s="314"/>
-      <c r="AB17" s="314"/>
-      <c r="AC17" s="314"/>
-      <c r="AD17" s="314"/>
-      <c r="AE17" s="315"/>
-      <c r="AF17" s="310"/>
-      <c r="AG17" s="311"/>
-      <c r="AH17" s="311"/>
-      <c r="AI17" s="312"/>
+      <c r="B17" s="268"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="268"/>
+      <c r="H17" s="273"/>
+      <c r="I17" s="269"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="275"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="275"/>
+      <c r="N17" s="275"/>
+      <c r="O17" s="275"/>
+      <c r="P17" s="276"/>
+      <c r="Q17" s="277"/>
+      <c r="R17" s="278"/>
+      <c r="S17" s="278"/>
+      <c r="T17" s="278"/>
+      <c r="U17" s="278"/>
+      <c r="V17" s="278"/>
+      <c r="W17" s="278"/>
+      <c r="X17" s="278"/>
+      <c r="Y17" s="278"/>
+      <c r="Z17" s="278"/>
+      <c r="AA17" s="278"/>
+      <c r="AB17" s="278"/>
+      <c r="AC17" s="278"/>
+      <c r="AD17" s="278"/>
+      <c r="AE17" s="279"/>
+      <c r="AF17" s="274"/>
+      <c r="AG17" s="275"/>
+      <c r="AH17" s="275"/>
+      <c r="AI17" s="276"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="304"/>
-      <c r="C18" s="305"/>
-      <c r="D18" s="306"/>
-      <c r="E18" s="307"/>
-      <c r="F18" s="308"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="310"/>
-      <c r="K18" s="311"/>
-      <c r="L18" s="311"/>
-      <c r="M18" s="311"/>
-      <c r="N18" s="311"/>
-      <c r="O18" s="311"/>
-      <c r="P18" s="312"/>
-      <c r="Q18" s="313"/>
-      <c r="R18" s="314"/>
-      <c r="S18" s="314"/>
-      <c r="T18" s="314"/>
-      <c r="U18" s="314"/>
-      <c r="V18" s="314"/>
-      <c r="W18" s="314"/>
-      <c r="X18" s="314"/>
-      <c r="Y18" s="314"/>
-      <c r="Z18" s="314"/>
-      <c r="AA18" s="314"/>
-      <c r="AB18" s="314"/>
-      <c r="AC18" s="314"/>
-      <c r="AD18" s="314"/>
-      <c r="AE18" s="315"/>
-      <c r="AF18" s="310"/>
-      <c r="AG18" s="311"/>
-      <c r="AH18" s="311"/>
-      <c r="AI18" s="312"/>
+      <c r="B18" s="268"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="269"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="275"/>
+      <c r="L18" s="275"/>
+      <c r="M18" s="275"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="275"/>
+      <c r="P18" s="276"/>
+      <c r="Q18" s="277"/>
+      <c r="R18" s="278"/>
+      <c r="S18" s="278"/>
+      <c r="T18" s="278"/>
+      <c r="U18" s="278"/>
+      <c r="V18" s="278"/>
+      <c r="W18" s="278"/>
+      <c r="X18" s="278"/>
+      <c r="Y18" s="278"/>
+      <c r="Z18" s="278"/>
+      <c r="AA18" s="278"/>
+      <c r="AB18" s="278"/>
+      <c r="AC18" s="278"/>
+      <c r="AD18" s="278"/>
+      <c r="AE18" s="279"/>
+      <c r="AF18" s="274"/>
+      <c r="AG18" s="275"/>
+      <c r="AH18" s="275"/>
+      <c r="AI18" s="276"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="304"/>
-      <c r="C19" s="305"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="307"/>
-      <c r="F19" s="308"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="310"/>
-      <c r="K19" s="311"/>
-      <c r="L19" s="311"/>
-      <c r="M19" s="311"/>
-      <c r="N19" s="311"/>
-      <c r="O19" s="311"/>
-      <c r="P19" s="312"/>
-      <c r="Q19" s="313"/>
-      <c r="R19" s="314"/>
-      <c r="S19" s="314"/>
-      <c r="T19" s="314"/>
-      <c r="U19" s="314"/>
-      <c r="V19" s="314"/>
-      <c r="W19" s="314"/>
-      <c r="X19" s="314"/>
-      <c r="Y19" s="314"/>
-      <c r="Z19" s="314"/>
-      <c r="AA19" s="314"/>
-      <c r="AB19" s="314"/>
-      <c r="AC19" s="314"/>
-      <c r="AD19" s="314"/>
-      <c r="AE19" s="315"/>
-      <c r="AF19" s="310"/>
-      <c r="AG19" s="311"/>
-      <c r="AH19" s="311"/>
-      <c r="AI19" s="312"/>
+      <c r="B19" s="268"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="269"/>
+      <c r="J19" s="274"/>
+      <c r="K19" s="275"/>
+      <c r="L19" s="275"/>
+      <c r="M19" s="275"/>
+      <c r="N19" s="275"/>
+      <c r="O19" s="275"/>
+      <c r="P19" s="276"/>
+      <c r="Q19" s="277"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="278"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="278"/>
+      <c r="W19" s="278"/>
+      <c r="X19" s="278"/>
+      <c r="Y19" s="278"/>
+      <c r="Z19" s="278"/>
+      <c r="AA19" s="278"/>
+      <c r="AB19" s="278"/>
+      <c r="AC19" s="278"/>
+      <c r="AD19" s="278"/>
+      <c r="AE19" s="279"/>
+      <c r="AF19" s="274"/>
+      <c r="AG19" s="275"/>
+      <c r="AH19" s="275"/>
+      <c r="AI19" s="276"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="304"/>
-      <c r="C20" s="305"/>
-      <c r="D20" s="306"/>
-      <c r="E20" s="307"/>
-      <c r="F20" s="308"/>
-      <c r="G20" s="304"/>
-      <c r="H20" s="309"/>
-      <c r="I20" s="305"/>
-      <c r="J20" s="310"/>
-      <c r="K20" s="311"/>
-      <c r="L20" s="311"/>
-      <c r="M20" s="311"/>
-      <c r="N20" s="311"/>
-      <c r="O20" s="311"/>
-      <c r="P20" s="312"/>
-      <c r="Q20" s="313"/>
-      <c r="R20" s="314"/>
-      <c r="S20" s="314"/>
-      <c r="T20" s="314"/>
-      <c r="U20" s="314"/>
-      <c r="V20" s="314"/>
-      <c r="W20" s="314"/>
-      <c r="X20" s="314"/>
-      <c r="Y20" s="314"/>
-      <c r="Z20" s="314"/>
-      <c r="AA20" s="314"/>
-      <c r="AB20" s="314"/>
-      <c r="AC20" s="314"/>
-      <c r="AD20" s="314"/>
-      <c r="AE20" s="315"/>
-      <c r="AF20" s="310"/>
-      <c r="AG20" s="311"/>
-      <c r="AH20" s="311"/>
-      <c r="AI20" s="312"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="268"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="275"/>
+      <c r="L20" s="275"/>
+      <c r="M20" s="275"/>
+      <c r="N20" s="275"/>
+      <c r="O20" s="275"/>
+      <c r="P20" s="276"/>
+      <c r="Q20" s="277"/>
+      <c r="R20" s="278"/>
+      <c r="S20" s="278"/>
+      <c r="T20" s="278"/>
+      <c r="U20" s="278"/>
+      <c r="V20" s="278"/>
+      <c r="W20" s="278"/>
+      <c r="X20" s="278"/>
+      <c r="Y20" s="278"/>
+      <c r="Z20" s="278"/>
+      <c r="AA20" s="278"/>
+      <c r="AB20" s="278"/>
+      <c r="AC20" s="278"/>
+      <c r="AD20" s="278"/>
+      <c r="AE20" s="279"/>
+      <c r="AF20" s="274"/>
+      <c r="AG20" s="275"/>
+      <c r="AH20" s="275"/>
+      <c r="AI20" s="276"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="304"/>
-      <c r="C21" s="305"/>
-      <c r="D21" s="306"/>
-      <c r="E21" s="307"/>
-      <c r="F21" s="308"/>
-      <c r="G21" s="304"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="305"/>
-      <c r="J21" s="310"/>
-      <c r="K21" s="311"/>
-      <c r="L21" s="311"/>
-      <c r="M21" s="311"/>
-      <c r="N21" s="311"/>
-      <c r="O21" s="311"/>
-      <c r="P21" s="312"/>
-      <c r="Q21" s="313"/>
-      <c r="R21" s="314"/>
-      <c r="S21" s="314"/>
-      <c r="T21" s="314"/>
-      <c r="U21" s="314"/>
-      <c r="V21" s="314"/>
-      <c r="W21" s="314"/>
-      <c r="X21" s="314"/>
-      <c r="Y21" s="314"/>
-      <c r="Z21" s="314"/>
-      <c r="AA21" s="314"/>
-      <c r="AB21" s="314"/>
-      <c r="AC21" s="314"/>
-      <c r="AD21" s="314"/>
-      <c r="AE21" s="315"/>
-      <c r="AF21" s="310"/>
-      <c r="AG21" s="311"/>
-      <c r="AH21" s="311"/>
-      <c r="AI21" s="312"/>
+      <c r="B21" s="268"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="272"/>
+      <c r="G21" s="268"/>
+      <c r="H21" s="273"/>
+      <c r="I21" s="269"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="275"/>
+      <c r="M21" s="275"/>
+      <c r="N21" s="275"/>
+      <c r="O21" s="275"/>
+      <c r="P21" s="276"/>
+      <c r="Q21" s="277"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="278"/>
+      <c r="X21" s="278"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="278"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="278"/>
+      <c r="AD21" s="278"/>
+      <c r="AE21" s="279"/>
+      <c r="AF21" s="274"/>
+      <c r="AG21" s="275"/>
+      <c r="AH21" s="275"/>
+      <c r="AI21" s="276"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="304"/>
-      <c r="C22" s="305"/>
-      <c r="D22" s="306"/>
-      <c r="E22" s="307"/>
-      <c r="F22" s="308"/>
-      <c r="G22" s="304"/>
-      <c r="H22" s="309"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="310"/>
-      <c r="K22" s="311"/>
-      <c r="L22" s="311"/>
-      <c r="M22" s="311"/>
-      <c r="N22" s="311"/>
-      <c r="O22" s="311"/>
-      <c r="P22" s="312"/>
-      <c r="Q22" s="313"/>
-      <c r="R22" s="314"/>
-      <c r="S22" s="314"/>
-      <c r="T22" s="314"/>
-      <c r="U22" s="314"/>
-      <c r="V22" s="314"/>
-      <c r="W22" s="314"/>
-      <c r="X22" s="314"/>
-      <c r="Y22" s="314"/>
-      <c r="Z22" s="314"/>
-      <c r="AA22" s="314"/>
-      <c r="AB22" s="314"/>
-      <c r="AC22" s="314"/>
-      <c r="AD22" s="314"/>
-      <c r="AE22" s="315"/>
-      <c r="AF22" s="310"/>
-      <c r="AG22" s="311"/>
-      <c r="AH22" s="311"/>
-      <c r="AI22" s="312"/>
+      <c r="B22" s="268"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="272"/>
+      <c r="G22" s="268"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="269"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="275"/>
+      <c r="L22" s="275"/>
+      <c r="M22" s="275"/>
+      <c r="N22" s="275"/>
+      <c r="O22" s="275"/>
+      <c r="P22" s="276"/>
+      <c r="Q22" s="277"/>
+      <c r="R22" s="278"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="278"/>
+      <c r="U22" s="278"/>
+      <c r="V22" s="278"/>
+      <c r="W22" s="278"/>
+      <c r="X22" s="278"/>
+      <c r="Y22" s="278"/>
+      <c r="Z22" s="278"/>
+      <c r="AA22" s="278"/>
+      <c r="AB22" s="278"/>
+      <c r="AC22" s="278"/>
+      <c r="AD22" s="278"/>
+      <c r="AE22" s="279"/>
+      <c r="AF22" s="274"/>
+      <c r="AG22" s="275"/>
+      <c r="AH22" s="275"/>
+      <c r="AI22" s="276"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="304"/>
-      <c r="C23" s="305"/>
-      <c r="D23" s="306"/>
-      <c r="E23" s="307"/>
-      <c r="F23" s="308"/>
-      <c r="G23" s="304"/>
-      <c r="H23" s="309"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="310"/>
-      <c r="K23" s="311"/>
-      <c r="L23" s="311"/>
-      <c r="M23" s="311"/>
-      <c r="N23" s="311"/>
-      <c r="O23" s="311"/>
-      <c r="P23" s="312"/>
-      <c r="Q23" s="313"/>
-      <c r="R23" s="314"/>
-      <c r="S23" s="314"/>
-      <c r="T23" s="314"/>
-      <c r="U23" s="314"/>
-      <c r="V23" s="314"/>
-      <c r="W23" s="314"/>
-      <c r="X23" s="314"/>
-      <c r="Y23" s="314"/>
-      <c r="Z23" s="314"/>
-      <c r="AA23" s="314"/>
-      <c r="AB23" s="314"/>
-      <c r="AC23" s="314"/>
-      <c r="AD23" s="314"/>
-      <c r="AE23" s="315"/>
-      <c r="AF23" s="310"/>
-      <c r="AG23" s="311"/>
-      <c r="AH23" s="311"/>
-      <c r="AI23" s="312"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="271"/>
+      <c r="F23" s="272"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="273"/>
+      <c r="I23" s="269"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="275"/>
+      <c r="L23" s="275"/>
+      <c r="M23" s="275"/>
+      <c r="N23" s="275"/>
+      <c r="O23" s="275"/>
+      <c r="P23" s="276"/>
+      <c r="Q23" s="277"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="278"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="278"/>
+      <c r="W23" s="278"/>
+      <c r="X23" s="278"/>
+      <c r="Y23" s="278"/>
+      <c r="Z23" s="278"/>
+      <c r="AA23" s="278"/>
+      <c r="AB23" s="278"/>
+      <c r="AC23" s="278"/>
+      <c r="AD23" s="278"/>
+      <c r="AE23" s="279"/>
+      <c r="AF23" s="274"/>
+      <c r="AG23" s="275"/>
+      <c r="AH23" s="275"/>
+      <c r="AI23" s="276"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="304"/>
-      <c r="C24" s="305"/>
-      <c r="D24" s="306"/>
-      <c r="E24" s="307"/>
-      <c r="F24" s="308"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="309"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="310"/>
-      <c r="K24" s="311"/>
-      <c r="L24" s="311"/>
-      <c r="M24" s="311"/>
-      <c r="N24" s="311"/>
-      <c r="O24" s="311"/>
-      <c r="P24" s="312"/>
-      <c r="Q24" s="313"/>
-      <c r="R24" s="314"/>
-      <c r="S24" s="314"/>
-      <c r="T24" s="314"/>
-      <c r="U24" s="314"/>
-      <c r="V24" s="314"/>
-      <c r="W24" s="314"/>
-      <c r="X24" s="314"/>
-      <c r="Y24" s="314"/>
-      <c r="Z24" s="314"/>
-      <c r="AA24" s="314"/>
-      <c r="AB24" s="314"/>
-      <c r="AC24" s="314"/>
-      <c r="AD24" s="314"/>
-      <c r="AE24" s="315"/>
-      <c r="AF24" s="310"/>
-      <c r="AG24" s="311"/>
-      <c r="AH24" s="311"/>
-      <c r="AI24" s="312"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="272"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="269"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="275"/>
+      <c r="L24" s="275"/>
+      <c r="M24" s="275"/>
+      <c r="N24" s="275"/>
+      <c r="O24" s="275"/>
+      <c r="P24" s="276"/>
+      <c r="Q24" s="277"/>
+      <c r="R24" s="278"/>
+      <c r="S24" s="278"/>
+      <c r="T24" s="278"/>
+      <c r="U24" s="278"/>
+      <c r="V24" s="278"/>
+      <c r="W24" s="278"/>
+      <c r="X24" s="278"/>
+      <c r="Y24" s="278"/>
+      <c r="Z24" s="278"/>
+      <c r="AA24" s="278"/>
+      <c r="AB24" s="278"/>
+      <c r="AC24" s="278"/>
+      <c r="AD24" s="278"/>
+      <c r="AE24" s="279"/>
+      <c r="AF24" s="274"/>
+      <c r="AG24" s="275"/>
+      <c r="AH24" s="275"/>
+      <c r="AI24" s="276"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="304"/>
-      <c r="C25" s="305"/>
-      <c r="D25" s="306"/>
-      <c r="E25" s="307"/>
-      <c r="F25" s="308"/>
-      <c r="G25" s="304"/>
-      <c r="H25" s="309"/>
-      <c r="I25" s="305"/>
-      <c r="J25" s="310"/>
-      <c r="K25" s="311"/>
-      <c r="L25" s="311"/>
-      <c r="M25" s="311"/>
-      <c r="N25" s="311"/>
-      <c r="O25" s="311"/>
-      <c r="P25" s="312"/>
-      <c r="Q25" s="313"/>
-      <c r="R25" s="314"/>
-      <c r="S25" s="314"/>
-      <c r="T25" s="314"/>
-      <c r="U25" s="314"/>
-      <c r="V25" s="314"/>
-      <c r="W25" s="314"/>
-      <c r="X25" s="314"/>
-      <c r="Y25" s="314"/>
-      <c r="Z25" s="314"/>
-      <c r="AA25" s="314"/>
-      <c r="AB25" s="314"/>
-      <c r="AC25" s="314"/>
-      <c r="AD25" s="314"/>
-      <c r="AE25" s="315"/>
-      <c r="AF25" s="310"/>
-      <c r="AG25" s="311"/>
-      <c r="AH25" s="311"/>
-      <c r="AI25" s="312"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="272"/>
+      <c r="G25" s="268"/>
+      <c r="H25" s="273"/>
+      <c r="I25" s="269"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="275"/>
+      <c r="L25" s="275"/>
+      <c r="M25" s="275"/>
+      <c r="N25" s="275"/>
+      <c r="O25" s="275"/>
+      <c r="P25" s="276"/>
+      <c r="Q25" s="277"/>
+      <c r="R25" s="278"/>
+      <c r="S25" s="278"/>
+      <c r="T25" s="278"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="278"/>
+      <c r="W25" s="278"/>
+      <c r="X25" s="278"/>
+      <c r="Y25" s="278"/>
+      <c r="Z25" s="278"/>
+      <c r="AA25" s="278"/>
+      <c r="AB25" s="278"/>
+      <c r="AC25" s="278"/>
+      <c r="AD25" s="278"/>
+      <c r="AE25" s="279"/>
+      <c r="AF25" s="274"/>
+      <c r="AG25" s="275"/>
+      <c r="AH25" s="275"/>
+      <c r="AI25" s="276"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="304"/>
-      <c r="C26" s="305"/>
-      <c r="D26" s="306"/>
-      <c r="E26" s="307"/>
-      <c r="F26" s="308"/>
-      <c r="G26" s="304"/>
-      <c r="H26" s="309"/>
-      <c r="I26" s="305"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="311"/>
-      <c r="L26" s="311"/>
-      <c r="M26" s="311"/>
-      <c r="N26" s="311"/>
-      <c r="O26" s="311"/>
-      <c r="P26" s="312"/>
-      <c r="Q26" s="313"/>
-      <c r="R26" s="314"/>
-      <c r="S26" s="314"/>
-      <c r="T26" s="314"/>
-      <c r="U26" s="314"/>
-      <c r="V26" s="314"/>
-      <c r="W26" s="314"/>
-      <c r="X26" s="314"/>
-      <c r="Y26" s="314"/>
-      <c r="Z26" s="314"/>
-      <c r="AA26" s="314"/>
-      <c r="AB26" s="314"/>
-      <c r="AC26" s="314"/>
-      <c r="AD26" s="314"/>
-      <c r="AE26" s="315"/>
-      <c r="AF26" s="310"/>
-      <c r="AG26" s="311"/>
-      <c r="AH26" s="311"/>
-      <c r="AI26" s="312"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="270"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="268"/>
+      <c r="H26" s="273"/>
+      <c r="I26" s="269"/>
+      <c r="J26" s="274"/>
+      <c r="K26" s="275"/>
+      <c r="L26" s="275"/>
+      <c r="M26" s="275"/>
+      <c r="N26" s="275"/>
+      <c r="O26" s="275"/>
+      <c r="P26" s="276"/>
+      <c r="Q26" s="277"/>
+      <c r="R26" s="278"/>
+      <c r="S26" s="278"/>
+      <c r="T26" s="278"/>
+      <c r="U26" s="278"/>
+      <c r="V26" s="278"/>
+      <c r="W26" s="278"/>
+      <c r="X26" s="278"/>
+      <c r="Y26" s="278"/>
+      <c r="Z26" s="278"/>
+      <c r="AA26" s="278"/>
+      <c r="AB26" s="278"/>
+      <c r="AC26" s="278"/>
+      <c r="AD26" s="278"/>
+      <c r="AE26" s="279"/>
+      <c r="AF26" s="274"/>
+      <c r="AG26" s="275"/>
+      <c r="AH26" s="275"/>
+      <c r="AI26" s="276"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="307"/>
-      <c r="F27" s="308"/>
-      <c r="G27" s="304"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="311"/>
-      <c r="L27" s="311"/>
-      <c r="M27" s="311"/>
-      <c r="N27" s="311"/>
-      <c r="O27" s="311"/>
-      <c r="P27" s="312"/>
-      <c r="Q27" s="313"/>
-      <c r="R27" s="314"/>
-      <c r="S27" s="314"/>
-      <c r="T27" s="314"/>
-      <c r="U27" s="314"/>
-      <c r="V27" s="314"/>
-      <c r="W27" s="314"/>
-      <c r="X27" s="314"/>
-      <c r="Y27" s="314"/>
-      <c r="Z27" s="314"/>
-      <c r="AA27" s="314"/>
-      <c r="AB27" s="314"/>
-      <c r="AC27" s="314"/>
-      <c r="AD27" s="314"/>
-      <c r="AE27" s="315"/>
-      <c r="AF27" s="310"/>
-      <c r="AG27" s="311"/>
-      <c r="AH27" s="311"/>
-      <c r="AI27" s="312"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="273"/>
+      <c r="I27" s="269"/>
+      <c r="J27" s="274"/>
+      <c r="K27" s="275"/>
+      <c r="L27" s="275"/>
+      <c r="M27" s="275"/>
+      <c r="N27" s="275"/>
+      <c r="O27" s="275"/>
+      <c r="P27" s="276"/>
+      <c r="Q27" s="277"/>
+      <c r="R27" s="278"/>
+      <c r="S27" s="278"/>
+      <c r="T27" s="278"/>
+      <c r="U27" s="278"/>
+      <c r="V27" s="278"/>
+      <c r="W27" s="278"/>
+      <c r="X27" s="278"/>
+      <c r="Y27" s="278"/>
+      <c r="Z27" s="278"/>
+      <c r="AA27" s="278"/>
+      <c r="AB27" s="278"/>
+      <c r="AC27" s="278"/>
+      <c r="AD27" s="278"/>
+      <c r="AE27" s="279"/>
+      <c r="AF27" s="274"/>
+      <c r="AG27" s="275"/>
+      <c r="AH27" s="275"/>
+      <c r="AI27" s="276"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="304"/>
-      <c r="C28" s="305"/>
-      <c r="D28" s="306"/>
-      <c r="E28" s="307"/>
-      <c r="F28" s="308"/>
-      <c r="G28" s="304"/>
-      <c r="H28" s="309"/>
-      <c r="I28" s="305"/>
-      <c r="J28" s="310"/>
-      <c r="K28" s="311"/>
-      <c r="L28" s="311"/>
-      <c r="M28" s="311"/>
-      <c r="N28" s="311"/>
-      <c r="O28" s="311"/>
-      <c r="P28" s="312"/>
-      <c r="Q28" s="313"/>
-      <c r="R28" s="314"/>
-      <c r="S28" s="314"/>
-      <c r="T28" s="314"/>
-      <c r="U28" s="314"/>
-      <c r="V28" s="314"/>
-      <c r="W28" s="314"/>
-      <c r="X28" s="314"/>
-      <c r="Y28" s="314"/>
-      <c r="Z28" s="314"/>
-      <c r="AA28" s="314"/>
-      <c r="AB28" s="314"/>
-      <c r="AC28" s="314"/>
-      <c r="AD28" s="314"/>
-      <c r="AE28" s="315"/>
-      <c r="AF28" s="310"/>
-      <c r="AG28" s="311"/>
-      <c r="AH28" s="311"/>
-      <c r="AI28" s="312"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="268"/>
+      <c r="H28" s="273"/>
+      <c r="I28" s="269"/>
+      <c r="J28" s="274"/>
+      <c r="K28" s="275"/>
+      <c r="L28" s="275"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="275"/>
+      <c r="O28" s="275"/>
+      <c r="P28" s="276"/>
+      <c r="Q28" s="277"/>
+      <c r="R28" s="278"/>
+      <c r="S28" s="278"/>
+      <c r="T28" s="278"/>
+      <c r="U28" s="278"/>
+      <c r="V28" s="278"/>
+      <c r="W28" s="278"/>
+      <c r="X28" s="278"/>
+      <c r="Y28" s="278"/>
+      <c r="Z28" s="278"/>
+      <c r="AA28" s="278"/>
+      <c r="AB28" s="278"/>
+      <c r="AC28" s="278"/>
+      <c r="AD28" s="278"/>
+      <c r="AE28" s="279"/>
+      <c r="AF28" s="274"/>
+      <c r="AG28" s="275"/>
+      <c r="AH28" s="275"/>
+      <c r="AI28" s="276"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="304"/>
-      <c r="C29" s="305"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="307"/>
-      <c r="F29" s="308"/>
-      <c r="G29" s="304"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="311"/>
-      <c r="L29" s="311"/>
-      <c r="M29" s="311"/>
-      <c r="N29" s="311"/>
-      <c r="O29" s="311"/>
-      <c r="P29" s="312"/>
-      <c r="Q29" s="313"/>
-      <c r="R29" s="314"/>
-      <c r="S29" s="314"/>
-      <c r="T29" s="314"/>
-      <c r="U29" s="314"/>
-      <c r="V29" s="314"/>
-      <c r="W29" s="314"/>
-      <c r="X29" s="314"/>
-      <c r="Y29" s="314"/>
-      <c r="Z29" s="314"/>
-      <c r="AA29" s="314"/>
-      <c r="AB29" s="314"/>
-      <c r="AC29" s="314"/>
-      <c r="AD29" s="314"/>
-      <c r="AE29" s="315"/>
-      <c r="AF29" s="310"/>
-      <c r="AG29" s="311"/>
-      <c r="AH29" s="311"/>
-      <c r="AI29" s="312"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="271"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="268"/>
+      <c r="H29" s="273"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="275"/>
+      <c r="L29" s="275"/>
+      <c r="M29" s="275"/>
+      <c r="N29" s="275"/>
+      <c r="O29" s="275"/>
+      <c r="P29" s="276"/>
+      <c r="Q29" s="277"/>
+      <c r="R29" s="278"/>
+      <c r="S29" s="278"/>
+      <c r="T29" s="278"/>
+      <c r="U29" s="278"/>
+      <c r="V29" s="278"/>
+      <c r="W29" s="278"/>
+      <c r="X29" s="278"/>
+      <c r="Y29" s="278"/>
+      <c r="Z29" s="278"/>
+      <c r="AA29" s="278"/>
+      <c r="AB29" s="278"/>
+      <c r="AC29" s="278"/>
+      <c r="AD29" s="278"/>
+      <c r="AE29" s="279"/>
+      <c r="AF29" s="274"/>
+      <c r="AG29" s="275"/>
+      <c r="AH29" s="275"/>
+      <c r="AI29" s="276"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="304"/>
-      <c r="C30" s="305"/>
-      <c r="D30" s="306"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="308"/>
-      <c r="G30" s="304"/>
-      <c r="H30" s="309"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="311"/>
-      <c r="L30" s="311"/>
-      <c r="M30" s="311"/>
-      <c r="N30" s="311"/>
-      <c r="O30" s="311"/>
-      <c r="P30" s="312"/>
-      <c r="Q30" s="313"/>
-      <c r="R30" s="314"/>
-      <c r="S30" s="314"/>
-      <c r="T30" s="314"/>
-      <c r="U30" s="314"/>
-      <c r="V30" s="314"/>
-      <c r="W30" s="314"/>
-      <c r="X30" s="314"/>
-      <c r="Y30" s="314"/>
-      <c r="Z30" s="314"/>
-      <c r="AA30" s="314"/>
-      <c r="AB30" s="314"/>
-      <c r="AC30" s="314"/>
-      <c r="AD30" s="314"/>
-      <c r="AE30" s="315"/>
-      <c r="AF30" s="310"/>
-      <c r="AG30" s="311"/>
-      <c r="AH30" s="311"/>
-      <c r="AI30" s="312"/>
+      <c r="B30" s="268"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="269"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="275"/>
+      <c r="L30" s="275"/>
+      <c r="M30" s="275"/>
+      <c r="N30" s="275"/>
+      <c r="O30" s="275"/>
+      <c r="P30" s="276"/>
+      <c r="Q30" s="277"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="278"/>
+      <c r="T30" s="278"/>
+      <c r="U30" s="278"/>
+      <c r="V30" s="278"/>
+      <c r="W30" s="278"/>
+      <c r="X30" s="278"/>
+      <c r="Y30" s="278"/>
+      <c r="Z30" s="278"/>
+      <c r="AA30" s="278"/>
+      <c r="AB30" s="278"/>
+      <c r="AC30" s="278"/>
+      <c r="AD30" s="278"/>
+      <c r="AE30" s="279"/>
+      <c r="AF30" s="274"/>
+      <c r="AG30" s="275"/>
+      <c r="AH30" s="275"/>
+      <c r="AI30" s="276"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="304"/>
-      <c r="C31" s="305"/>
-      <c r="D31" s="306"/>
-      <c r="E31" s="307"/>
-      <c r="F31" s="308"/>
-      <c r="G31" s="304"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="305"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="311"/>
-      <c r="L31" s="311"/>
-      <c r="M31" s="311"/>
-      <c r="N31" s="311"/>
-      <c r="O31" s="311"/>
-      <c r="P31" s="312"/>
-      <c r="Q31" s="313"/>
-      <c r="R31" s="314"/>
-      <c r="S31" s="314"/>
-      <c r="T31" s="314"/>
-      <c r="U31" s="314"/>
-      <c r="V31" s="314"/>
-      <c r="W31" s="314"/>
-      <c r="X31" s="314"/>
-      <c r="Y31" s="314"/>
-      <c r="Z31" s="314"/>
-      <c r="AA31" s="314"/>
-      <c r="AB31" s="314"/>
-      <c r="AC31" s="314"/>
-      <c r="AD31" s="314"/>
-      <c r="AE31" s="315"/>
-      <c r="AF31" s="310"/>
-      <c r="AG31" s="311"/>
-      <c r="AH31" s="311"/>
-      <c r="AI31" s="312"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="268"/>
+      <c r="H31" s="273"/>
+      <c r="I31" s="269"/>
+      <c r="J31" s="274"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="275"/>
+      <c r="M31" s="275"/>
+      <c r="N31" s="275"/>
+      <c r="O31" s="275"/>
+      <c r="P31" s="276"/>
+      <c r="Q31" s="277"/>
+      <c r="R31" s="278"/>
+      <c r="S31" s="278"/>
+      <c r="T31" s="278"/>
+      <c r="U31" s="278"/>
+      <c r="V31" s="278"/>
+      <c r="W31" s="278"/>
+      <c r="X31" s="278"/>
+      <c r="Y31" s="278"/>
+      <c r="Z31" s="278"/>
+      <c r="AA31" s="278"/>
+      <c r="AB31" s="278"/>
+      <c r="AC31" s="278"/>
+      <c r="AD31" s="278"/>
+      <c r="AE31" s="279"/>
+      <c r="AF31" s="274"/>
+      <c r="AG31" s="275"/>
+      <c r="AH31" s="275"/>
+      <c r="AI31" s="276"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="304"/>
-      <c r="C32" s="305"/>
-      <c r="D32" s="306"/>
-      <c r="E32" s="307"/>
-      <c r="F32" s="308"/>
-      <c r="G32" s="304"/>
-      <c r="H32" s="309"/>
-      <c r="I32" s="305"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="329"/>
-      <c r="L32" s="311"/>
-      <c r="M32" s="311"/>
-      <c r="N32" s="311"/>
-      <c r="O32" s="311"/>
-      <c r="P32" s="312"/>
-      <c r="Q32" s="313"/>
-      <c r="R32" s="314"/>
-      <c r="S32" s="314"/>
-      <c r="T32" s="314"/>
-      <c r="U32" s="314"/>
-      <c r="V32" s="314"/>
-      <c r="W32" s="314"/>
-      <c r="X32" s="314"/>
-      <c r="Y32" s="314"/>
-      <c r="Z32" s="314"/>
-      <c r="AA32" s="314"/>
-      <c r="AB32" s="314"/>
-      <c r="AC32" s="314"/>
-      <c r="AD32" s="314"/>
-      <c r="AE32" s="315"/>
-      <c r="AF32" s="310"/>
-      <c r="AG32" s="311"/>
-      <c r="AH32" s="311"/>
-      <c r="AI32" s="312"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="268"/>
+      <c r="H32" s="273"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="274"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="275"/>
+      <c r="M32" s="275"/>
+      <c r="N32" s="275"/>
+      <c r="O32" s="275"/>
+      <c r="P32" s="276"/>
+      <c r="Q32" s="277"/>
+      <c r="R32" s="278"/>
+      <c r="S32" s="278"/>
+      <c r="T32" s="278"/>
+      <c r="U32" s="278"/>
+      <c r="V32" s="278"/>
+      <c r="W32" s="278"/>
+      <c r="X32" s="278"/>
+      <c r="Y32" s="278"/>
+      <c r="Z32" s="278"/>
+      <c r="AA32" s="278"/>
+      <c r="AB32" s="278"/>
+      <c r="AC32" s="278"/>
+      <c r="AD32" s="278"/>
+      <c r="AE32" s="279"/>
+      <c r="AF32" s="274"/>
+      <c r="AG32" s="275"/>
+      <c r="AH32" s="275"/>
+      <c r="AI32" s="276"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="304"/>
-      <c r="C33" s="305"/>
-      <c r="D33" s="306"/>
-      <c r="E33" s="307"/>
-      <c r="F33" s="308"/>
-      <c r="G33" s="304"/>
-      <c r="H33" s="309"/>
-      <c r="I33" s="305"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="311"/>
-      <c r="L33" s="311"/>
-      <c r="M33" s="311"/>
-      <c r="N33" s="311"/>
-      <c r="O33" s="311"/>
-      <c r="P33" s="312"/>
-      <c r="Q33" s="313"/>
-      <c r="R33" s="314"/>
-      <c r="S33" s="314"/>
-      <c r="T33" s="314"/>
-      <c r="U33" s="314"/>
-      <c r="V33" s="314"/>
-      <c r="W33" s="314"/>
-      <c r="X33" s="314"/>
-      <c r="Y33" s="314"/>
-      <c r="Z33" s="314"/>
-      <c r="AA33" s="314"/>
-      <c r="AB33" s="314"/>
-      <c r="AC33" s="314"/>
-      <c r="AD33" s="314"/>
-      <c r="AE33" s="315"/>
-      <c r="AF33" s="310"/>
-      <c r="AG33" s="311"/>
-      <c r="AH33" s="311"/>
-      <c r="AI33" s="312"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="268"/>
+      <c r="H33" s="273"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="274"/>
+      <c r="K33" s="275"/>
+      <c r="L33" s="275"/>
+      <c r="M33" s="275"/>
+      <c r="N33" s="275"/>
+      <c r="O33" s="275"/>
+      <c r="P33" s="276"/>
+      <c r="Q33" s="277"/>
+      <c r="R33" s="278"/>
+      <c r="S33" s="278"/>
+      <c r="T33" s="278"/>
+      <c r="U33" s="278"/>
+      <c r="V33" s="278"/>
+      <c r="W33" s="278"/>
+      <c r="X33" s="278"/>
+      <c r="Y33" s="278"/>
+      <c r="Z33" s="278"/>
+      <c r="AA33" s="278"/>
+      <c r="AB33" s="278"/>
+      <c r="AC33" s="278"/>
+      <c r="AD33" s="278"/>
+      <c r="AE33" s="279"/>
+      <c r="AF33" s="274"/>
+      <c r="AG33" s="275"/>
+      <c r="AH33" s="275"/>
+      <c r="AI33" s="276"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15289,6 +15133,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -27021,7 +27021,7 @@
         <v>676</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K47" s="53" t="s">
         <v>677</v>
@@ -27061,7 +27061,7 @@
         <v>676</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K48" s="83" t="s">
         <v>669</v>
@@ -27241,7 +27241,7 @@
         <v>676</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K53" s="33" t="s">
         <v>680</v>
@@ -27279,7 +27279,7 @@
         <v>676</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K54" s="33" t="s">
         <v>681</v>
@@ -27319,7 +27319,7 @@
         <v>676</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K55" s="83" t="s">
         <v>669</v>
@@ -27357,7 +27357,7 @@
         <v>676</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K56" s="33" t="s">
         <v>681</v>
@@ -27749,7 +27749,7 @@
         <v>666</v>
       </c>
       <c r="J67" s="83" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K67" s="33" t="s">
         <v>686</v>
@@ -27787,7 +27787,7 @@
         <v>666</v>
       </c>
       <c r="J68" s="83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K68" s="33" t="s">
         <v>687</v>
@@ -28205,7 +28205,7 @@
         <v>666</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K80" s="53" t="s">
         <v>691</v>
@@ -28243,7 +28243,7 @@
         <v>666</v>
       </c>
       <c r="J81" s="53" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K81" s="53" t="s">
         <v>692</v>
@@ -28281,7 +28281,7 @@
         <v>666</v>
       </c>
       <c r="J82" s="53" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K82" s="53" t="s">
         <v>687</v>
@@ -28499,7 +28499,7 @@
         <v>666</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K88" s="33" t="s">
         <v>677</v>
@@ -28539,7 +28539,7 @@
         <v>666</v>
       </c>
       <c r="J89" s="124" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K89" s="83" t="s">
         <v>669</v>
@@ -28875,7 +28875,7 @@
         <v>666</v>
       </c>
       <c r="J98" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K98" s="120" t="s">
         <v>699</v>
@@ -28913,7 +28913,7 @@
         <v>666</v>
       </c>
       <c r="J99" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K99" s="120" t="s">
         <v>699</v>
@@ -28989,10 +28989,10 @@
         <v>666</v>
       </c>
       <c r="J101" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K101" s="120" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L101" s="120"/>
       <c r="M101" s="120"/>
@@ -29637,7 +29637,7 @@
       <c r="H119" s="101"/>
       <c r="I119" s="101"/>
       <c r="J119" s="102" t="s">
-        <v>706</v>
+        <v>811</v>
       </c>
       <c r="K119" s="102"/>
       <c r="L119" s="101"/>
@@ -29677,7 +29677,7 @@
       <c r="H120" s="101"/>
       <c r="I120" s="101"/>
       <c r="J120" s="102" t="s">
-        <v>706</v>
+        <v>811</v>
       </c>
       <c r="K120" s="102"/>
       <c r="L120" s="101"/>
@@ -29711,7 +29711,7 @@
       <c r="H121" s="101"/>
       <c r="I121" s="101"/>
       <c r="J121" s="102" t="s">
-        <v>706</v>
+        <v>811</v>
       </c>
       <c r="K121" s="102"/>
       <c r="L121" s="101"/>
@@ -36317,16 +36317,16 @@
       </c>
       <c r="G309" s="33"/>
       <c r="H309" s="124" t="s">
+        <v>706</v>
+      </c>
+      <c r="I309" s="124" t="s">
         <v>707</v>
       </c>
-      <c r="I309" s="124" t="s">
+      <c r="J309" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K309" s="33" t="s">
         <v>708</v>
-      </c>
-      <c r="J309" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K309" s="33" t="s">
-        <v>709</v>
       </c>
       <c r="L309" s="120"/>
       <c r="M309" s="120"/>
@@ -36357,16 +36357,16 @@
       </c>
       <c r="G310" s="53"/>
       <c r="H310" s="131" t="s">
+        <v>706</v>
+      </c>
+      <c r="I310" s="131" t="s">
         <v>707</v>
       </c>
-      <c r="I310" s="131" t="s">
-        <v>708</v>
-      </c>
       <c r="J310" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K310" s="53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L310" s="126"/>
       <c r="M310" s="126"/>
@@ -36397,16 +36397,16 @@
       </c>
       <c r="G311" s="53"/>
       <c r="H311" s="131" t="s">
+        <v>706</v>
+      </c>
+      <c r="I311" s="131" t="s">
         <v>707</v>
       </c>
-      <c r="I311" s="131" t="s">
-        <v>708</v>
-      </c>
       <c r="J311" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K311" s="53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L311" s="126"/>
       <c r="M311" s="126"/>
@@ -36437,16 +36437,16 @@
       </c>
       <c r="G312" s="52"/>
       <c r="H312" s="131" t="s">
+        <v>706</v>
+      </c>
+      <c r="I312" s="131" t="s">
         <v>707</v>
       </c>
-      <c r="I312" s="131" t="s">
-        <v>708</v>
-      </c>
       <c r="J312" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K312" s="53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L312" s="137"/>
       <c r="M312" s="135"/>
@@ -36477,16 +36477,16 @@
       </c>
       <c r="G313" s="53"/>
       <c r="H313" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I313" s="131" t="s">
+        <v>712</v>
+      </c>
+      <c r="J313" s="131" t="s">
+        <v>802</v>
+      </c>
+      <c r="K313" s="53" t="s">
         <v>713</v>
-      </c>
-      <c r="J313" s="131" t="s">
-        <v>803</v>
-      </c>
-      <c r="K313" s="53" t="s">
-        <v>714</v>
       </c>
       <c r="L313" s="126"/>
       <c r="M313" s="126"/>
@@ -36517,16 +36517,16 @@
       </c>
       <c r="G314" s="53"/>
       <c r="H314" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I314" s="131" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J314" s="131" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K314" s="53" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L314" s="126"/>
       <c r="M314" s="126"/>
@@ -36557,16 +36557,16 @@
       </c>
       <c r="G315" s="53"/>
       <c r="H315" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I315" s="131" t="s">
+        <v>715</v>
+      </c>
+      <c r="J315" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K315" s="53" t="s">
         <v>716</v>
-      </c>
-      <c r="J315" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K315" s="53" t="s">
-        <v>717</v>
       </c>
       <c r="L315" s="126"/>
       <c r="M315" s="126"/>
@@ -36597,16 +36597,16 @@
       </c>
       <c r="G316" s="53"/>
       <c r="H316" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I316" s="131" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J316" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K316" s="53" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L316" s="126"/>
       <c r="M316" s="126"/>
@@ -36637,16 +36637,16 @@
       </c>
       <c r="G317" s="53"/>
       <c r="H317" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I317" s="131" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J317" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K317" s="53" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L317" s="126"/>
       <c r="M317" s="126"/>
@@ -36677,16 +36677,16 @@
       </c>
       <c r="G318" s="53"/>
       <c r="H318" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I318" s="131" t="s">
+        <v>719</v>
+      </c>
+      <c r="J318" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K318" s="53" t="s">
         <v>720</v>
-      </c>
-      <c r="J318" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K318" s="53" t="s">
-        <v>721</v>
       </c>
       <c r="L318" s="126"/>
       <c r="M318" s="126"/>
@@ -36717,16 +36717,16 @@
       </c>
       <c r="G319" s="53"/>
       <c r="H319" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I319" s="131" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J319" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K319" s="53" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L319" s="126"/>
       <c r="M319" s="126"/>
@@ -36760,13 +36760,13 @@
         <v>664</v>
       </c>
       <c r="I320" s="131" t="s">
+        <v>722</v>
+      </c>
+      <c r="J320" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K320" s="53" t="s">
         <v>723</v>
-      </c>
-      <c r="J320" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K320" s="53" t="s">
-        <v>724</v>
       </c>
       <c r="L320" s="126"/>
       <c r="M320" s="126"/>
@@ -36798,13 +36798,13 @@
         <v>664</v>
       </c>
       <c r="I321" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J321" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K321" s="53" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L321" s="126"/>
       <c r="M321" s="126"/>
@@ -36838,13 +36838,13 @@
         <v>664</v>
       </c>
       <c r="I322" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J322" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K322" s="53" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L322" s="126"/>
       <c r="M322" s="126"/>
@@ -36878,13 +36878,13 @@
         <v>664</v>
       </c>
       <c r="I323" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J323" s="53" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K323" s="53" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L323" s="126"/>
       <c r="M323" s="126"/>
@@ -36918,13 +36918,13 @@
         <v>664</v>
       </c>
       <c r="I324" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J324" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K324" s="53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L324" s="126"/>
       <c r="M324" s="126"/>
@@ -36956,13 +36956,13 @@
         <v>664</v>
       </c>
       <c r="I325" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J325" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K325" s="53" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L325" s="126"/>
       <c r="M325" s="126"/>
@@ -36994,13 +36994,13 @@
         <v>664</v>
       </c>
       <c r="I326" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J326" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K326" s="53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L326" s="126"/>
       <c r="M326" s="126"/>
@@ -37034,13 +37034,13 @@
         <v>664</v>
       </c>
       <c r="I327" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J327" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K327" s="53" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L327" s="126"/>
       <c r="M327" s="126"/>
@@ -37072,13 +37072,13 @@
         <v>664</v>
       </c>
       <c r="I328" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J328" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K328" s="53" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L328" s="126"/>
       <c r="M328" s="126"/>
@@ -37110,13 +37110,13 @@
         <v>664</v>
       </c>
       <c r="I329" s="131" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J329" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K329" s="53" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L329" s="126"/>
       <c r="M329" s="126"/>
@@ -37150,13 +37150,13 @@
         <v>664</v>
       </c>
       <c r="I330" s="131" t="s">
+        <v>733</v>
+      </c>
+      <c r="J330" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K330" s="53" t="s">
         <v>734</v>
-      </c>
-      <c r="J330" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K330" s="53" t="s">
-        <v>735</v>
       </c>
       <c r="L330" s="126"/>
       <c r="M330" s="126"/>
@@ -37188,13 +37188,13 @@
         <v>664</v>
       </c>
       <c r="I331" s="131" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J331" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K331" s="53" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L331" s="126"/>
       <c r="M331" s="126"/>
@@ -37227,7 +37227,7 @@
       <c r="H332" s="128"/>
       <c r="I332" s="128"/>
       <c r="J332" s="85" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K332" s="125"/>
       <c r="L332" s="101"/>
@@ -37297,7 +37297,7 @@
       <c r="H334" s="128"/>
       <c r="I334" s="85"/>
       <c r="J334" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K334" s="125"/>
       <c r="L334" s="101"/>
@@ -37331,7 +37331,7 @@
       <c r="H335" s="128"/>
       <c r="I335" s="85"/>
       <c r="J335" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K335" s="125"/>
       <c r="L335" s="101"/>
@@ -37367,7 +37367,7 @@
       <c r="H336" s="128"/>
       <c r="I336" s="128"/>
       <c r="J336" s="101" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K336" s="249"/>
       <c r="L336" s="128"/>
@@ -37401,7 +37401,7 @@
       <c r="H337" s="128"/>
       <c r="I337" s="128"/>
       <c r="J337" s="101" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K337" s="249"/>
       <c r="L337" s="128"/>
@@ -37437,7 +37437,7 @@
       <c r="H338" s="128"/>
       <c r="I338" s="85"/>
       <c r="J338" s="101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K338" s="125"/>
       <c r="L338" s="101"/>
@@ -37471,16 +37471,16 @@
       </c>
       <c r="G339" s="33"/>
       <c r="H339" s="131" t="s">
+        <v>740</v>
+      </c>
+      <c r="I339" s="131" t="s">
         <v>741</v>
       </c>
-      <c r="I339" s="131" t="s">
+      <c r="J339" s="124" t="s">
         <v>742</v>
       </c>
-      <c r="J339" s="124" t="s">
-        <v>743</v>
-      </c>
       <c r="K339" s="53" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L339" s="120"/>
       <c r="M339" s="120"/>
@@ -37509,16 +37509,16 @@
       <c r="F340" s="238"/>
       <c r="G340" s="33"/>
       <c r="H340" s="131" t="s">
+        <v>740</v>
+      </c>
+      <c r="I340" s="131" t="s">
         <v>741</v>
       </c>
-      <c r="I340" s="131" t="s">
-        <v>742</v>
-      </c>
       <c r="J340" s="124" t="s">
+        <v>743</v>
+      </c>
+      <c r="K340" s="53" t="s">
         <v>744</v>
-      </c>
-      <c r="K340" s="53" t="s">
-        <v>745</v>
       </c>
       <c r="L340" s="120"/>
       <c r="M340" s="120"/>
@@ -37551,7 +37551,7 @@
       <c r="H341" s="128"/>
       <c r="I341" s="128"/>
       <c r="J341" s="128" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K341" s="85"/>
       <c r="L341" s="101"/>
@@ -37583,16 +37583,16 @@
       </c>
       <c r="G342" s="74"/>
       <c r="H342" s="120" t="s">
+        <v>740</v>
+      </c>
+      <c r="I342" s="120" t="s">
         <v>741</v>
       </c>
-      <c r="I342" s="120" t="s">
-        <v>742</v>
-      </c>
       <c r="J342" s="83" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K342" s="83" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L342" s="120"/>
       <c r="M342" s="120"/>
@@ -37625,7 +37625,7 @@
       <c r="H343" s="101"/>
       <c r="I343" s="101"/>
       <c r="J343" s="102" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K343" s="102"/>
       <c r="L343" s="101"/>
@@ -37659,7 +37659,7 @@
       <c r="H344" s="101"/>
       <c r="I344" s="101"/>
       <c r="J344" s="102" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K344" s="102"/>
       <c r="L344" s="101"/>
@@ -37693,7 +37693,7 @@
       <c r="H345" s="101"/>
       <c r="I345" s="101"/>
       <c r="J345" s="102" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K345" s="102"/>
       <c r="L345" s="101"/>
@@ -37727,7 +37727,7 @@
       <c r="H346" s="101"/>
       <c r="I346" s="101"/>
       <c r="J346" s="102" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K346" s="102"/>
       <c r="L346" s="101"/>
@@ -37761,7 +37761,7 @@
       <c r="H347" s="101"/>
       <c r="I347" s="101"/>
       <c r="J347" s="102" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K347" s="102"/>
       <c r="L347" s="101"/>
@@ -37795,7 +37795,7 @@
       <c r="H348" s="101"/>
       <c r="I348" s="101"/>
       <c r="J348" s="226" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K348" s="102"/>
       <c r="L348" s="101"/>
@@ -37829,16 +37829,16 @@
       </c>
       <c r="G349" s="74"/>
       <c r="H349" s="124" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I349" s="124" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J349" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K349" s="33" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L349" s="120"/>
       <c r="M349" s="120"/>
@@ -37871,16 +37871,16 @@
       </c>
       <c r="G350" s="74"/>
       <c r="H350" s="124" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I350" s="124" t="s">
+        <v>752</v>
+      </c>
+      <c r="J350" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K350" s="120" t="s">
         <v>753</v>
-      </c>
-      <c r="J350" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K350" s="120" t="s">
-        <v>754</v>
       </c>
       <c r="L350" s="120"/>
       <c r="M350" s="120"/>
@@ -37915,16 +37915,16 @@
       </c>
       <c r="G351" s="74"/>
       <c r="H351" s="124" t="s">
+        <v>756</v>
+      </c>
+      <c r="I351" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="I351" s="124" t="s">
+      <c r="J351" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K351" s="33" t="s">
         <v>758</v>
-      </c>
-      <c r="J351" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K351" s="33" t="s">
-        <v>759</v>
       </c>
       <c r="L351" s="120"/>
       <c r="M351" s="120"/>
@@ -37953,16 +37953,16 @@
       <c r="F352" s="237"/>
       <c r="G352" s="74"/>
       <c r="H352" s="124" t="s">
+        <v>756</v>
+      </c>
+      <c r="I352" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="I352" s="124" t="s">
-        <v>758</v>
-      </c>
       <c r="J352" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K352" s="33" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L352" s="120"/>
       <c r="M352" s="120"/>
@@ -37991,16 +37991,16 @@
       <c r="F353" s="238"/>
       <c r="G353" s="74"/>
       <c r="H353" s="124" t="s">
+        <v>756</v>
+      </c>
+      <c r="I353" s="124" t="s">
         <v>757</v>
       </c>
-      <c r="I353" s="124" t="s">
-        <v>758</v>
-      </c>
       <c r="J353" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K353" s="33" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L353" s="120"/>
       <c r="M353" s="120"/>
@@ -38036,13 +38036,13 @@
         <v>664</v>
       </c>
       <c r="I354" s="124" t="s">
+        <v>761</v>
+      </c>
+      <c r="J354" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K354" s="33" t="s">
         <v>762</v>
-      </c>
-      <c r="J354" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K354" s="33" t="s">
-        <v>763</v>
       </c>
       <c r="L354" s="120"/>
       <c r="M354" s="120"/>
@@ -38074,13 +38074,13 @@
         <v>664</v>
       </c>
       <c r="I355" s="124" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J355" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K355" s="33" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L355" s="120"/>
       <c r="M355" s="120"/>
@@ -38113,7 +38113,7 @@
       <c r="H356" s="128"/>
       <c r="I356" s="128"/>
       <c r="J356" s="128" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K356" s="85"/>
       <c r="L356" s="101"/>
@@ -38147,7 +38147,7 @@
       <c r="H357" s="101"/>
       <c r="I357" s="101"/>
       <c r="J357" s="102" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K357" s="102"/>
       <c r="L357" s="101"/>
@@ -38181,7 +38181,7 @@
       <c r="H358" s="101"/>
       <c r="I358" s="101"/>
       <c r="J358" s="102" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K358" s="102"/>
       <c r="L358" s="101"/>
@@ -38219,7 +38219,7 @@
       <c r="H359" s="101"/>
       <c r="I359" s="101"/>
       <c r="J359" s="102" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K359" s="102"/>
       <c r="L359" s="101"/>
@@ -38253,7 +38253,7 @@
       <c r="H360" s="101"/>
       <c r="I360" s="101"/>
       <c r="J360" s="102" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K360" s="102"/>
       <c r="L360" s="101"/>
@@ -38287,7 +38287,7 @@
       <c r="H361" s="101"/>
       <c r="I361" s="101"/>
       <c r="J361" s="102" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K361" s="102"/>
       <c r="L361" s="101"/>
@@ -38325,7 +38325,7 @@
       <c r="H362" s="101"/>
       <c r="I362" s="101"/>
       <c r="J362" s="226" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K362" s="102"/>
       <c r="L362" s="101"/>
@@ -38359,7 +38359,7 @@
       <c r="H363" s="101"/>
       <c r="I363" s="101"/>
       <c r="J363" s="226" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K363" s="102"/>
       <c r="L363" s="101"/>
@@ -38393,7 +38393,7 @@
       <c r="H364" s="101"/>
       <c r="I364" s="101"/>
       <c r="J364" s="226" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K364" s="102"/>
       <c r="L364" s="101"/>
@@ -38427,7 +38427,7 @@
       <c r="H365" s="101"/>
       <c r="I365" s="101"/>
       <c r="J365" s="226" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K365" s="102"/>
       <c r="L365" s="101"/>
@@ -38461,7 +38461,7 @@
       <c r="H366" s="101"/>
       <c r="I366" s="101"/>
       <c r="J366" s="226" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K366" s="102"/>
       <c r="L366" s="101"/>
@@ -38529,7 +38529,7 @@
       <c r="H368" s="101"/>
       <c r="I368" s="101"/>
       <c r="J368" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K368" s="102"/>
       <c r="L368" s="101"/>
@@ -38563,7 +38563,7 @@
       <c r="H369" s="101"/>
       <c r="I369" s="101"/>
       <c r="J369" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K369" s="102"/>
       <c r="L369" s="101"/>
@@ -38597,7 +38597,7 @@
       <c r="H370" s="101"/>
       <c r="I370" s="101"/>
       <c r="J370" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K370" s="102"/>
       <c r="L370" s="101"/>
@@ -38631,7 +38631,7 @@
       <c r="H371" s="101"/>
       <c r="I371" s="101"/>
       <c r="J371" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K371" s="102"/>
       <c r="L371" s="101"/>
@@ -38665,7 +38665,7 @@
       <c r="H372" s="101"/>
       <c r="I372" s="101"/>
       <c r="J372" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K372" s="102"/>
       <c r="L372" s="101"/>
@@ -38699,7 +38699,7 @@
       <c r="H373" s="101"/>
       <c r="I373" s="101"/>
       <c r="J373" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K373" s="102"/>
       <c r="L373" s="101"/>
@@ -38733,7 +38733,7 @@
       <c r="H374" s="101"/>
       <c r="I374" s="101"/>
       <c r="J374" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K374" s="102"/>
       <c r="L374" s="101"/>
@@ -38767,7 +38767,7 @@
       <c r="H375" s="101"/>
       <c r="I375" s="101"/>
       <c r="J375" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K375" s="102"/>
       <c r="L375" s="101"/>
@@ -38803,7 +38803,7 @@
       <c r="H376" s="101"/>
       <c r="I376" s="101"/>
       <c r="J376" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K376" s="102"/>
       <c r="L376" s="101"/>
@@ -38837,7 +38837,7 @@
       <c r="H377" s="101"/>
       <c r="I377" s="101"/>
       <c r="J377" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K377" s="102"/>
       <c r="L377" s="101"/>
@@ -38871,7 +38871,7 @@
       <c r="H378" s="101"/>
       <c r="I378" s="101"/>
       <c r="J378" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K378" s="102"/>
       <c r="L378" s="101"/>
@@ -38905,7 +38905,7 @@
       <c r="H379" s="101"/>
       <c r="I379" s="101"/>
       <c r="J379" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K379" s="102"/>
       <c r="L379" s="101"/>
@@ -38939,7 +38939,7 @@
       <c r="H380" s="101"/>
       <c r="I380" s="101"/>
       <c r="J380" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K380" s="102"/>
       <c r="L380" s="101"/>
@@ -38973,7 +38973,7 @@
       <c r="H381" s="101"/>
       <c r="I381" s="101"/>
       <c r="J381" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K381" s="102"/>
       <c r="L381" s="101"/>
@@ -39007,7 +39007,7 @@
       <c r="H382" s="101"/>
       <c r="I382" s="101"/>
       <c r="J382" s="102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K382" s="102"/>
       <c r="L382" s="101"/>
@@ -39049,7 +39049,7 @@
       <c r="H383" s="88"/>
       <c r="I383" s="88"/>
       <c r="J383" s="101" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K383" s="250"/>
       <c r="L383" s="251"/>
@@ -39083,7 +39083,7 @@
       <c r="H384" s="88"/>
       <c r="I384" s="88"/>
       <c r="J384" s="101" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K384" s="226"/>
       <c r="L384" s="227"/>
@@ -39117,7 +39117,7 @@
       <c r="H385" s="88"/>
       <c r="I385" s="88"/>
       <c r="J385" s="101" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K385" s="226"/>
       <c r="L385" s="227"/>
@@ -39151,7 +39151,7 @@
       <c r="H386" s="88"/>
       <c r="I386" s="88"/>
       <c r="J386" s="101" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K386" s="226"/>
       <c r="L386" s="227"/>
@@ -39221,16 +39221,16 @@
       </c>
       <c r="G388" s="122"/>
       <c r="H388" s="124" t="s">
+        <v>770</v>
+      </c>
+      <c r="I388" s="124" t="s">
         <v>771</v>
       </c>
-      <c r="I388" s="124" t="s">
+      <c r="J388" s="97" t="s">
         <v>772</v>
       </c>
-      <c r="J388" s="97" t="s">
+      <c r="K388" s="121" t="s">
         <v>773</v>
-      </c>
-      <c r="K388" s="121" t="s">
-        <v>774</v>
       </c>
       <c r="L388" s="138"/>
       <c r="M388" s="139"/>
@@ -39263,7 +39263,7 @@
       <c r="H389" s="88"/>
       <c r="I389" s="88"/>
       <c r="J389" s="128" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K389" s="226"/>
       <c r="L389" s="227"/>
@@ -39332,13 +39332,13 @@
         <v>664</v>
       </c>
       <c r="I391" s="124" t="s">
+        <v>774</v>
+      </c>
+      <c r="J391" s="124" t="s">
+        <v>804</v>
+      </c>
+      <c r="K391" s="120" t="s">
         <v>775</v>
-      </c>
-      <c r="J391" s="124" t="s">
-        <v>805</v>
-      </c>
-      <c r="K391" s="120" t="s">
-        <v>776</v>
       </c>
       <c r="L391" s="138"/>
       <c r="M391" s="139"/>
@@ -39370,13 +39370,13 @@
         <v>664</v>
       </c>
       <c r="I392" s="153" t="s">
+        <v>774</v>
+      </c>
+      <c r="J392" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="K392" s="120" t="s">
         <v>775</v>
-      </c>
-      <c r="J392" s="124" t="s">
-        <v>806</v>
-      </c>
-      <c r="K392" s="120" t="s">
-        <v>776</v>
       </c>
       <c r="L392" s="138"/>
       <c r="M392" s="139"/>
@@ -39409,7 +39409,7 @@
       <c r="H393" s="88"/>
       <c r="I393" s="88"/>
       <c r="J393" s="125" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K393" s="125"/>
       <c r="L393" s="227"/>
@@ -39447,16 +39447,16 @@
       </c>
       <c r="G394" s="103"/>
       <c r="H394" s="124" t="s">
+        <v>776</v>
+      </c>
+      <c r="I394" s="124" t="s">
+        <v>809</v>
+      </c>
+      <c r="J394" s="124" t="s">
+        <v>772</v>
+      </c>
+      <c r="K394" s="56" t="s">
         <v>777</v>
-      </c>
-      <c r="I394" s="124" t="s">
-        <v>810</v>
-      </c>
-      <c r="J394" s="124" t="s">
-        <v>773</v>
-      </c>
-      <c r="K394" s="56" t="s">
-        <v>778</v>
       </c>
       <c r="L394" s="140"/>
       <c r="M394" s="141"/>
@@ -39487,16 +39487,16 @@
       </c>
       <c r="G395" s="103"/>
       <c r="H395" s="124" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I395" s="124" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J395" s="124" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K395" s="56" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L395" s="140"/>
       <c r="M395" s="141"/>
@@ -39527,16 +39527,16 @@
       </c>
       <c r="G396" s="103"/>
       <c r="H396" s="124" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I396" s="124" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J396" s="124" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K396" s="120" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L396" s="140"/>
       <c r="M396" s="141"/>
@@ -39569,7 +39569,7 @@
       <c r="H397" s="88"/>
       <c r="I397" s="88"/>
       <c r="J397" s="128" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K397" s="178"/>
       <c r="L397" s="179"/>
@@ -39635,16 +39635,16 @@
       </c>
       <c r="G399" s="103"/>
       <c r="H399" s="124" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I399" s="124" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J399" s="124" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K399" s="56" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L399" s="140"/>
       <c r="M399" s="141"/>
@@ -39681,7 +39681,7 @@
       <c r="H400" s="88"/>
       <c r="I400" s="88"/>
       <c r="J400" s="129" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K400" s="178"/>
       <c r="L400" s="179"/>
@@ -39717,16 +39717,16 @@
       </c>
       <c r="G401" s="103"/>
       <c r="H401" s="124" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I401" s="124" t="s">
+        <v>783</v>
+      </c>
+      <c r="J401" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K401" s="120" t="s">
         <v>784</v>
-      </c>
-      <c r="J401" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K401" s="120" t="s">
-        <v>785</v>
       </c>
       <c r="L401" s="140"/>
       <c r="M401" s="141"/>
@@ -39755,16 +39755,16 @@
       <c r="F402" s="185"/>
       <c r="G402" s="103"/>
       <c r="H402" s="124" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I402" s="153" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J402" s="124" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K402" s="253" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L402" s="142"/>
       <c r="M402" s="143"/>
@@ -39799,16 +39799,16 @@
       </c>
       <c r="G403" s="103"/>
       <c r="H403" s="97" t="s">
+        <v>786</v>
+      </c>
+      <c r="I403" s="97" t="s">
         <v>787</v>
       </c>
-      <c r="I403" s="97" t="s">
+      <c r="J403" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="K403" s="123" t="s">
         <v>788</v>
-      </c>
-      <c r="J403" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="K403" s="123" t="s">
-        <v>789</v>
       </c>
       <c r="L403" s="142"/>
       <c r="M403" s="143"/>
@@ -39849,7 +39849,7 @@
       <c r="H404" s="101"/>
       <c r="I404" s="101"/>
       <c r="J404" s="102" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K404" s="102"/>
       <c r="L404" s="101"/>
@@ -39887,10 +39887,10 @@
         <v>666</v>
       </c>
       <c r="J405" s="126" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K405" s="126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L405" s="120"/>
       <c r="M405" s="120"/>
